--- a/informeMensualJulio2022.xlsx
+++ b/informeMensualJulio2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400041D7-9487-431F-A0F4-0B9AD6CF88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26505AB9-AC35-4BD6-A5D1-F483C939D7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -346,11 +346,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -497,9 +504,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -507,19 +514,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,70 +535,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -600,46 +607,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,17 +661,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,9 +1033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1059,7 @@
       </c>
       <c r="J3" s="42">
         <f ca="1">NOW()</f>
-        <v>44754.663916898149</v>
+        <v>44755.876619907409</v>
       </c>
       <c r="K3" s="43"/>
     </row>
@@ -1765,11 +1775,17 @@
         <f>C33+1</f>
         <v>3</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="19">
+        <v>1</v>
+      </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
     </row>
@@ -1799,11 +1815,17 @@
         <f>$C$34</f>
         <v>3</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="H36" s="19">
+        <v>1</v>
+      </c>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
@@ -1818,11 +1840,17 @@
         <f t="shared" ref="C37:C47" si="4">$C$34</f>
         <v>3</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="F37" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
@@ -1989,11 +2017,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
       <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="F46" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="H46" s="19">
+        <v>1</v>
+      </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
     </row>
@@ -2008,11 +2042,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
       <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="F47" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
     </row>
@@ -2576,12 +2616,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5423BE2-B587-4DF7-A037-E70CF1D766CD}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2644,7 @@
       </c>
       <c r="J3" s="42">
         <f ca="1">NOW()</f>
-        <v>44754.663916898149</v>
+        <v>44755.876619907409</v>
       </c>
       <c r="K3" s="43"/>
     </row>
@@ -2641,7 +2680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>55</v>
       </c>
@@ -2659,7 +2698,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +2712,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
@@ -2703,7 +2742,7 @@
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
@@ -2723,7 +2762,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>34</v>
       </c>
@@ -2773,7 +2812,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>57</v>
       </c>
@@ -2793,7 +2832,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>58</v>
       </c>
@@ -2813,7 +2852,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>59</v>
       </c>
@@ -2833,7 +2872,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>35</v>
       </c>
@@ -2853,7 +2892,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>60</v>
       </c>
@@ -2873,7 +2912,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>36</v>
       </c>
@@ -2893,7 +2932,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>37</v>
       </c>
@@ -2913,7 +2952,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>61</v>
       </c>
@@ -2933,7 +2972,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>55</v>
       </c>
@@ -2961,7 +3000,7 @@
       </c>
       <c r="J20" s="36"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>18</v>
       </c>
@@ -2991,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>17</v>
       </c>
@@ -3051,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>34</v>
       </c>
@@ -3111,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>57</v>
       </c>
@@ -3141,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>58</v>
       </c>
@@ -3171,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>59</v>
       </c>
@@ -3201,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>35</v>
       </c>
@@ -3229,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>60</v>
       </c>
@@ -3259,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>36</v>
       </c>
@@ -3289,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>37</v>
       </c>
@@ -3319,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>61</v>
       </c>
@@ -3349,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>55</v>
       </c>
@@ -3361,15 +3400,23 @@
         <f>C33+1</f>
         <v>3</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>4</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>18</v>
       </c>
@@ -3389,7 +3436,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>19</v>
       </c>
@@ -3409,7 +3456,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3475,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>34</v>
       </c>
@@ -3458,15 +3505,23 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19">
+        <v>4</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>57</v>
       </c>
@@ -3485,7 +3540,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>58</v>
       </c>
@@ -3496,15 +3551,23 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19">
+        <v>4</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-    </row>
-    <row r="42" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>59</v>
       </c>
@@ -3515,15 +3578,23 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4</v>
+      </c>
+      <c r="F42" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>35</v>
       </c>
@@ -3542,7 +3613,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>60</v>
       </c>
@@ -3553,15 +3624,23 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="D44" s="24">
+        <v>1</v>
+      </c>
+      <c r="E44" s="19">
+        <v>5</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="H44" s="19">
+        <v>1</v>
+      </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>36</v>
       </c>
@@ -3580,7 +3659,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>37</v>
       </c>
@@ -3591,15 +3670,23 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
+      <c r="E46" s="19">
+        <v>4</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-    </row>
-    <row r="47" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>61</v>
       </c>
@@ -3618,7 +3705,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>55</v>
       </c>
@@ -3638,7 +3725,7 @@
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
     </row>
-    <row r="49" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>18</v>
       </c>
@@ -3658,7 +3745,7 @@
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
     </row>
-    <row r="50" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>19</v>
       </c>
@@ -3678,7 +3765,7 @@
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
     </row>
-    <row r="51" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>17</v>
       </c>
@@ -3698,7 +3785,7 @@
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
     </row>
-    <row r="52" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>34</v>
       </c>
@@ -3738,7 +3825,7 @@
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
     </row>
-    <row r="54" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>57</v>
       </c>
@@ -3758,7 +3845,7 @@
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
     </row>
-    <row r="55" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>58</v>
       </c>
@@ -3778,7 +3865,7 @@
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
     </row>
-    <row r="56" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>59</v>
       </c>
@@ -3798,7 +3885,7 @@
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
     </row>
-    <row r="57" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>35</v>
       </c>
@@ -3818,7 +3905,7 @@
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
     </row>
-    <row r="58" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>60</v>
       </c>
@@ -3838,7 +3925,7 @@
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
     </row>
-    <row r="59" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>36</v>
       </c>
@@ -3858,7 +3945,7 @@
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
     </row>
-    <row r="60" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>37</v>
       </c>
@@ -3878,7 +3965,7 @@
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
     </row>
-    <row r="61" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
         <v>61</v>
       </c>
@@ -3898,7 +3985,7 @@
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
     </row>
-    <row r="62" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
         <v>55</v>
       </c>
@@ -3918,7 +4005,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>18</v>
       </c>
@@ -3938,7 +4025,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>19</v>
       </c>
@@ -3958,7 +4045,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>17</v>
       </c>
@@ -3978,7 +4065,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>34</v>
       </c>
@@ -4018,7 +4105,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>57</v>
       </c>
@@ -4038,7 +4125,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>58</v>
       </c>
@@ -4058,7 +4145,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>59</v>
       </c>
@@ -4078,7 +4165,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
         <v>35</v>
       </c>
@@ -4098,7 +4185,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>60</v>
       </c>
@@ -4118,7 +4205,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
         <v>36</v>
       </c>
@@ -4138,7 +4225,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>37</v>
       </c>
@@ -4158,7 +4245,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
         <v>61</v>
       </c>
@@ -4179,13 +4266,7 @@
       <c r="J75" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:J75" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="4A FIN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:J75" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}"/>
   <mergeCells count="1">
     <mergeCell ref="J3:K3"/>
   </mergeCells>
@@ -6377,13 +6458,13 @@
       <c r="M81" s="12">
         <v>3</v>
       </c>
-      <c r="N81" s="30" t="str">
+      <c r="N81" s="30">
         <f>IF('JIMMY CLASSES'!E34=0,"",'JIMMY CLASSES'!E34)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O81" s="31" t="str">
         <f>IF(N81="","",'JIMMY CLASSES'!F34)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">

--- a/informeMensualJulio2022.xlsx
+++ b/informeMensualJulio2022.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26505AB9-AC35-4BD6-A5D1-F483C939D7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DB763-ABC2-48FE-AB9E-67D74B59CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA CLASSES" sheetId="4" r:id="rId1"/>
     <sheet name="JIMMY CLASSES" sheetId="5" r:id="rId2"/>
-    <sheet name="JULIO 2022" sheetId="2" r:id="rId3"/>
+    <sheet name="MANUEL CLASSES" sheetId="6" r:id="rId3"/>
+    <sheet name="JULIO 2022" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JIMMY CLASSES'!$A$5:$J$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'MANUEL CLASSES'!$A$5:$J$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ROSMAIRA CLASSES'!$A$5:$J$75</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'JULIO 2022'!$A$1:$S$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'JULIO 2022'!$A$1:$S$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -338,7 +340,52 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>JIMMY FRANCISCO VÉLEZ MENDOZA</t>
+      <t>Jimmy Francisco Vélez Mendoza</t>
+    </r>
+  </si>
+  <si>
+    <t>4A ENF</t>
+  </si>
+  <si>
+    <t>4B ENF</t>
+  </si>
+  <si>
+    <t>4C ENF</t>
+  </si>
+  <si>
+    <t>4A ING ELEC</t>
+  </si>
+  <si>
+    <t>4B ING ELEC</t>
+  </si>
+  <si>
+    <t>4A ING IND</t>
+  </si>
+  <si>
+    <t>4B ING IND</t>
+  </si>
+  <si>
+    <t>4A ING MEC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Docente: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Manuel Francisco Morales Haz</t>
     </r>
   </si>
 </sst>
@@ -346,11 +393,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -414,8 +468,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,9 +570,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -514,19 +580,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -535,122 +601,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,19 +686,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,6 +771,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1033,9 +1126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1057,11 +1150,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="44">
         <f ca="1">NOW()</f>
-        <v>44755.876619907409</v>
-      </c>
-      <c r="K3" s="43"/>
+        <v>44761.890328125002</v>
+      </c>
+      <c r="K3" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -1779,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="19"/>
@@ -1819,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="19"/>
@@ -1844,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G37" s="19"/>
@@ -1865,11 +1958,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="24">
+        <v>1</v>
+      </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="F38" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="H38" s="19">
+        <v>1</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
@@ -1884,11 +1983,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="F39" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="19">
+        <v>1</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
@@ -1903,11 +2008,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="24">
+        <v>1</v>
+      </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="F40" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="19">
+        <v>1</v>
+      </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
@@ -1922,11 +2033,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="F41" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="H41" s="19">
+        <v>1</v>
+      </c>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
@@ -1941,11 +2058,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
       <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="H42" s="19">
+        <v>1</v>
+      </c>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
@@ -1960,11 +2083,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="24">
+        <v>1</v>
+      </c>
       <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="19">
+        <v>1</v>
+      </c>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
@@ -1979,11 +2108,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="24">
+        <v>1</v>
+      </c>
       <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="H44" s="19">
+        <v>1</v>
+      </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
@@ -1998,11 +2133,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="24">
+        <v>1</v>
+      </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="F45" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="H45" s="19">
+        <v>1</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
@@ -2021,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="19"/>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G46" s="19"/>
@@ -2046,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="19"/>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G47" s="19"/>
@@ -2068,9 +2209,15 @@
         <f>C46+1</f>
         <v>4</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="D48" s="26">
+        <v>1</v>
+      </c>
+      <c r="E48" s="23">
+        <v>5</v>
+      </c>
+      <c r="F48" s="73" t="s">
+        <v>71</v>
+      </c>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
@@ -2322,9 +2469,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
+      <c r="D61" s="26">
+        <v>1</v>
+      </c>
+      <c r="E61" s="23">
+        <v>6</v>
+      </c>
+      <c r="F61" s="73" t="s">
+        <v>71</v>
+      </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
@@ -2618,9 +2771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5423BE2-B587-4DF7-A037-E70CF1D766CD}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2784,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="43" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2642,11 +2795,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="44">
         <f ca="1">NOW()</f>
-        <v>44755.876619907409</v>
-      </c>
-      <c r="K3" s="43"/>
+        <v>44761.890328125002</v>
+      </c>
+      <c r="K3" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -3406,7 +3559,7 @@
       <c r="E34" s="19">
         <v>4</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="19"/>
@@ -3428,13 +3581,21 @@
         <f>$C$34</f>
         <v>3</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="D35" s="41">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E35" s="19">
+        <v>4</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="J35" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
@@ -3448,13 +3609,21 @@
         <f>$C$34</f>
         <v>3</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="D36" s="41">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E36" s="19">
+        <v>4</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="J36" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
@@ -3467,13 +3636,21 @@
         <f t="shared" ref="C37:C47" si="4">$C$34</f>
         <v>3</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19">
+        <v>4</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
+      <c r="J37" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
@@ -3486,13 +3663,21 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="D38" s="24">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19">
+        <v>4</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+      <c r="J38" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
@@ -3511,7 +3696,7 @@
       <c r="E39" s="19">
         <v>4</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="19"/>
@@ -3532,13 +3717,21 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="D40" s="24">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19">
+        <v>4</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="J40" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
@@ -3557,7 +3750,7 @@
       <c r="E41" s="19">
         <v>4</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G41" s="19"/>
@@ -3584,7 +3777,7 @@
       <c r="E42" s="19">
         <v>4</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G42" s="19"/>
@@ -3605,11 +3798,19 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="D43" s="24">
+        <v>1</v>
+      </c>
+      <c r="E43" s="19">
+        <v>5</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="19">
+        <v>1</v>
+      </c>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
@@ -3630,7 +3831,7 @@
       <c r="E44" s="19">
         <v>5</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G44" s="19"/>
@@ -3651,13 +3852,21 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="D45" s="24">
+        <v>1</v>
+      </c>
+      <c r="E45" s="19">
+        <v>4</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="J45" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
@@ -3676,7 +3885,7 @@
       <c r="E46" s="19">
         <v>4</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G46" s="19"/>
@@ -3697,13 +3906,21 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>4</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
+      <c r="J47" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
@@ -3717,11 +3934,19 @@
         <f>C46+1</f>
         <v>4</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="D48" s="37">
+        <v>1</v>
+      </c>
+      <c r="E48" s="36">
+        <v>5</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>71</v>
+      </c>
       <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36">
+        <v>1</v>
+      </c>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
     </row>
@@ -3857,11 +4082,19 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
+      <c r="D55" s="37">
+        <v>1</v>
+      </c>
+      <c r="E55" s="36">
+        <v>5</v>
+      </c>
+      <c r="F55" s="74" t="s">
+        <v>71</v>
+      </c>
       <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
+      <c r="H55" s="36">
+        <v>1</v>
+      </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
     </row>
@@ -3877,11 +4110,19 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
+      <c r="D56" s="37">
+        <v>1</v>
+      </c>
+      <c r="E56" s="36">
+        <v>5</v>
+      </c>
+      <c r="F56" s="74" t="s">
+        <v>71</v>
+      </c>
       <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36">
+        <v>1</v>
+      </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
     </row>
@@ -4276,6 +4517,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EB438-42EA-45E9-AF24-BAB45B31C440}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" style="17" customWidth="1"/>
+    <col min="2" max="10" width="7.85546875" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="44">
+        <f ca="1">NOW()</f>
+        <v>44761.890328125002</v>
+      </c>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="19">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="19">
+        <f>$B$6</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="19">
+        <f>$C$6</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" ref="B9:B15" si="0">$B$6</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" ref="C9:C15" si="1">$C$6</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="68">
+        <f>B15+1</f>
+        <v>7</v>
+      </c>
+      <c r="C16" s="68">
+        <f>C15+1</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="69">
+        <v>1</v>
+      </c>
+      <c r="E16" s="68">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="68">
+        <f>$B$16</f>
+        <v>7</v>
+      </c>
+      <c r="C17" s="68">
+        <f>$C$16</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="69">
+        <v>1</v>
+      </c>
+      <c r="E17" s="68">
+        <v>1</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="68">
+        <f>$B$16</f>
+        <v>7</v>
+      </c>
+      <c r="C18" s="68">
+        <f>$C$16</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="69">
+        <v>1</v>
+      </c>
+      <c r="E18" s="68">
+        <v>1</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="68">
+        <f t="shared" ref="B19:B25" si="2">$B$16</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="68">
+        <f t="shared" ref="C19:C25" si="3">$C$16</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="69">
+        <v>1</v>
+      </c>
+      <c r="E19" s="68">
+        <v>1</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="68">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C20" s="68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="69">
+        <v>1</v>
+      </c>
+      <c r="E20" s="68">
+        <v>1</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="68">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="69">
+        <v>1</v>
+      </c>
+      <c r="E21" s="68">
+        <v>1</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="68">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="69">
+        <v>1</v>
+      </c>
+      <c r="E22" s="68">
+        <v>1</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="68">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C23" s="68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="69">
+        <v>1</v>
+      </c>
+      <c r="E23" s="68">
+        <v>1</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="68">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="69">
+        <v>1</v>
+      </c>
+      <c r="E24" s="68">
+        <v>1</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="68">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="68">
+        <v>1</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="68"/>
+    </row>
+    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="19">
+        <f>B25+1</f>
+        <v>8</v>
+      </c>
+      <c r="C26" s="19">
+        <f>C25+1</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="19">
+        <f>$B$26</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="19">
+        <f>$C$26</f>
+        <v>3</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="19">
+        <f>$B$26</f>
+        <v>8</v>
+      </c>
+      <c r="C28" s="19">
+        <f>$C$26</f>
+        <v>3</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="19">
+        <v>8</v>
+      </c>
+      <c r="C29" s="19">
+        <f t="shared" ref="C29:C35" si="4">$C$26</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="19">
+        <v>8</v>
+      </c>
+      <c r="C30" s="19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="19">
+        <v>8</v>
+      </c>
+      <c r="C31" s="19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19">
+        <v>2</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="19">
+        <v>8</v>
+      </c>
+      <c r="C32" s="19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="19">
+        <v>2</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="19">
+        <v>8</v>
+      </c>
+      <c r="C33" s="19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="19">
+        <v>8</v>
+      </c>
+      <c r="C34" s="19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>2</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="19">
+        <v>8</v>
+      </c>
+      <c r="C35" s="19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19">
+        <v>2</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="68">
+        <f>B35+1</f>
+        <v>9</v>
+      </c>
+      <c r="C36" s="68">
+        <f>C35+1</f>
+        <v>4</v>
+      </c>
+      <c r="D36" s="69">
+        <v>1</v>
+      </c>
+      <c r="E36" s="68">
+        <v>2</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68">
+        <v>1</v>
+      </c>
+      <c r="I36" s="68">
+        <v>1</v>
+      </c>
+      <c r="J36" s="68"/>
+    </row>
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="68">
+        <f>$B$36</f>
+        <v>9</v>
+      </c>
+      <c r="C37" s="68">
+        <f>$C$36</f>
+        <v>4</v>
+      </c>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+    </row>
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="68">
+        <f>$B$36</f>
+        <v>9</v>
+      </c>
+      <c r="C38" s="68">
+        <f>$C$36</f>
+        <v>4</v>
+      </c>
+      <c r="D38" s="69">
+        <v>1</v>
+      </c>
+      <c r="E38" s="68">
+        <v>2</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68">
+        <v>1</v>
+      </c>
+      <c r="I38" s="68">
+        <v>1</v>
+      </c>
+      <c r="J38" s="68"/>
+    </row>
+    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="68">
+        <f t="shared" ref="B39:B45" si="5">$B$36</f>
+        <v>9</v>
+      </c>
+      <c r="C39" s="68">
+        <f t="shared" ref="C39:C45" si="6">$C$36</f>
+        <v>4</v>
+      </c>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+    </row>
+    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="68">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C40" s="68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D40" s="69">
+        <v>1</v>
+      </c>
+      <c r="E40" s="68">
+        <v>2</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68">
+        <v>1</v>
+      </c>
+      <c r="I40" s="68">
+        <v>1</v>
+      </c>
+      <c r="J40" s="68"/>
+    </row>
+    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="68">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C41" s="68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D41" s="69">
+        <v>1</v>
+      </c>
+      <c r="E41" s="68">
+        <v>2</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68">
+        <v>1</v>
+      </c>
+      <c r="I41" s="68">
+        <v>1</v>
+      </c>
+      <c r="J41" s="68"/>
+    </row>
+    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="68">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C42" s="68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+    </row>
+    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="68">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C43" s="68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D43" s="69">
+        <v>1</v>
+      </c>
+      <c r="E43" s="68">
+        <v>2</v>
+      </c>
+      <c r="F43" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68">
+        <v>1</v>
+      </c>
+      <c r="I43" s="68">
+        <v>1</v>
+      </c>
+      <c r="J43" s="68"/>
+    </row>
+    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="68">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C44" s="68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D44" s="69">
+        <v>1</v>
+      </c>
+      <c r="E44" s="68">
+        <v>2</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68">
+        <v>1</v>
+      </c>
+      <c r="I44" s="68">
+        <v>1</v>
+      </c>
+      <c r="J44" s="68"/>
+    </row>
+    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="68">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+    </row>
+    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="19">
+        <f>B45+1</f>
+        <v>10</v>
+      </c>
+      <c r="C46" s="19">
+        <f>C45+1</f>
+        <v>5</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="19">
+        <f>$B$46</f>
+        <v>10</v>
+      </c>
+      <c r="C47" s="19">
+        <f>$C$46</f>
+        <v>5</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="19">
+        <f>$B$46</f>
+        <v>10</v>
+      </c>
+      <c r="C48" s="19">
+        <f>$C$46</f>
+        <v>5</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="19">
+        <f t="shared" ref="B49:B55" si="7">$B$46</f>
+        <v>10</v>
+      </c>
+      <c r="C49" s="19">
+        <f t="shared" ref="C49:C55" si="8">$C$46</f>
+        <v>5</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C50" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C51" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C52" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C53" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C54" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C55" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:J55" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}"/>
+  <mergeCells count="1">
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T198"/>
   <sheetViews>
@@ -4373,37 +5861,37 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="54">
-        <v>1</v>
-      </c>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="63">
+        <v>1</v>
+      </c>
+      <c r="G9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="52" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="5">
@@ -4424,17 +5912,17 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="45"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="12">
         <v>2</v>
       </c>
@@ -4453,17 +5941,17 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="45"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="12">
         <v>3</v>
       </c>
@@ -4482,27 +5970,27 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="45"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="12">
         <v>4</v>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="N12" s="12">
         <f>IF('ROSMAIRA CLASSES'!E48=0,"",'ROSMAIRA CLASSES'!E48)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O12" s="4" t="str">
         <f>IF(N12="","",'ROSMAIRA CLASSES'!F48)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -4511,17 +5999,17 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="45"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="53"/>
       <c r="M13" s="12">
         <v>5</v>
       </c>
@@ -4540,24 +6028,24 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="57" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="66" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="14">
         <v>1</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="59" t="s">
+      <c r="O14" s="46" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="1"/>
@@ -4567,22 +6055,22 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="13">
         <v>2</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="60"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -4590,22 +6078,22 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="13">
         <v>3</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="60"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -4613,22 +6101,22 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="13">
         <v>4</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="60"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -4636,22 +6124,22 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="67"/>
       <c r="M18" s="13">
         <v>5</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="61"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4659,17 +6147,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="44" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="52" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="5">
@@ -4690,17 +6178,17 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="45"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="12">
         <v>2</v>
       </c>
@@ -4719,17 +6207,17 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="45"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="12">
         <v>3</v>
       </c>
@@ -4748,17 +6236,17 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="45"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="12">
         <v>4</v>
       </c>
@@ -4777,17 +6265,17 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="45"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="12">
         <v>5</v>
       </c>
@@ -4806,17 +6294,17 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="44" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="52" t="s">
         <v>46</v>
       </c>
       <c r="M24" s="5">
@@ -4837,17 +6325,17 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="45"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="53"/>
       <c r="M25" s="12">
         <v>2</v>
       </c>
@@ -4866,17 +6354,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="45"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="53"/>
       <c r="M26" s="12">
         <v>3</v>
       </c>
@@ -4895,17 +6383,17 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="45"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="53"/>
       <c r="M27" s="12">
         <v>4</v>
       </c>
@@ -4924,17 +6412,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="45"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="53"/>
       <c r="M28" s="12">
         <v>5</v>
       </c>
@@ -4953,17 +6441,17 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="44" t="s">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="52" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="5">
@@ -4984,17 +6472,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="45"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="53"/>
       <c r="M30" s="12">
         <v>2</v>
       </c>
@@ -5013,17 +6501,17 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="45"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="53"/>
       <c r="M31" s="12">
         <v>3</v>
       </c>
@@ -5042,17 +6530,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="45"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="53"/>
       <c r="M32" s="12">
         <v>4</v>
       </c>
@@ -5071,17 +6559,17 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="45"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="53"/>
       <c r="M33" s="12">
         <v>5</v>
       </c>
@@ -5100,17 +6588,17 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="44" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="52" t="s">
         <v>28</v>
       </c>
       <c r="M34" s="5">
@@ -5131,17 +6619,17 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="45"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="53"/>
       <c r="M35" s="12">
         <v>2</v>
       </c>
@@ -5160,17 +6648,17 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="45"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="53"/>
       <c r="M36" s="12">
         <v>3</v>
       </c>
@@ -5189,17 +6677,17 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="45"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="53"/>
       <c r="M37" s="12">
         <v>4</v>
       </c>
@@ -5218,17 +6706,17 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="45"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="53"/>
       <c r="M38" s="12">
         <v>5</v>
       </c>
@@ -5247,17 +6735,17 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="44" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="52" t="s">
         <v>47</v>
       </c>
       <c r="M39" s="5">
@@ -5278,17 +6766,17 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="45"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="53"/>
       <c r="M40" s="12">
         <v>2</v>
       </c>
@@ -5307,17 +6795,17 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="45"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="53"/>
       <c r="M41" s="12">
         <v>3</v>
       </c>
@@ -5336,17 +6824,17 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="45"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="53"/>
       <c r="M42" s="12">
         <v>4</v>
       </c>
@@ -5365,17 +6853,17 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="45"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="53"/>
       <c r="M43" s="12">
         <v>5</v>
       </c>
@@ -5394,17 +6882,17 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="46" t="s">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="60" t="s">
         <v>48</v>
       </c>
       <c r="M44" s="5">
@@ -5425,17 +6913,17 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="47"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="61"/>
       <c r="M45" s="12">
         <v>2</v>
       </c>
@@ -5454,17 +6942,17 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="47"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="61"/>
       <c r="M46" s="12">
         <v>3</v>
       </c>
@@ -5483,17 +6971,17 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="47"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="61"/>
       <c r="M47" s="12">
         <v>4</v>
       </c>
@@ -5512,17 +7000,17 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="47"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="61"/>
       <c r="M48" s="12">
         <v>5</v>
       </c>
@@ -5541,17 +7029,17 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="44" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="52" t="s">
         <v>25</v>
       </c>
       <c r="M49" s="5">
@@ -5572,17 +7060,17 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="45"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="53"/>
       <c r="M50" s="12">
         <v>2</v>
       </c>
@@ -5601,17 +7089,17 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="45"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="53"/>
       <c r="M51" s="12">
         <v>3</v>
       </c>
@@ -5630,17 +7118,17 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="45"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="53"/>
       <c r="M52" s="12">
         <v>4</v>
       </c>
@@ -5659,17 +7147,17 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="45"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="53"/>
       <c r="M53" s="12">
         <v>5</v>
       </c>
@@ -5688,17 +7176,17 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="44" t="s">
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="52" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="5">
@@ -5719,17 +7207,17 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="45"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="53"/>
       <c r="M55" s="12">
         <v>2</v>
       </c>
@@ -5748,17 +7236,17 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="45"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="53"/>
       <c r="M56" s="12">
         <v>3</v>
       </c>
@@ -5777,17 +7265,17 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="45"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="53"/>
       <c r="M57" s="12">
         <v>4</v>
       </c>
@@ -5806,17 +7294,17 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="45"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="53"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
@@ -5835,17 +7323,17 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="44" t="s">
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="52" t="s">
         <v>49</v>
       </c>
       <c r="M59" s="5">
@@ -5866,17 +7354,17 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="45"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="53"/>
       <c r="M60" s="12">
         <v>2</v>
       </c>
@@ -5895,17 +7383,17 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="45"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="53"/>
       <c r="M61" s="12">
         <v>3</v>
       </c>
@@ -5924,17 +7412,17 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="45"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="53"/>
       <c r="M62" s="12">
         <v>4</v>
       </c>
@@ -5953,17 +7441,17 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="45"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="53"/>
       <c r="M63" s="12">
         <v>5</v>
       </c>
@@ -5982,17 +7470,17 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="44" t="s">
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="52" t="s">
         <v>50</v>
       </c>
       <c r="M64" s="5">
@@ -6013,17 +7501,17 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="45"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="53"/>
       <c r="M65" s="12">
         <v>2</v>
       </c>
@@ -6042,17 +7530,17 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="45"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="53"/>
       <c r="M66" s="12">
         <v>3</v>
       </c>
@@ -6071,17 +7559,17 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="45"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="53"/>
       <c r="M67" s="12">
         <v>4</v>
       </c>
@@ -6100,17 +7588,17 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="45"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="53"/>
       <c r="M68" s="12">
         <v>5</v>
       </c>
@@ -6129,17 +7617,17 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="44" t="s">
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="52" t="s">
         <v>23</v>
       </c>
       <c r="M69" s="5">
@@ -6155,17 +7643,17 @@
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="45"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="53"/>
       <c r="M70" s="12">
         <v>2</v>
       </c>
@@ -6179,17 +7667,17 @@
       </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="45"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="53"/>
       <c r="M71" s="12">
         <v>3</v>
       </c>
@@ -6203,17 +7691,17 @@
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="45"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="53"/>
       <c r="M72" s="12">
         <v>4</v>
       </c>
@@ -6227,17 +7715,17 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="45"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="53"/>
       <c r="M73" s="12">
         <v>5</v>
       </c>
@@ -6251,17 +7739,17 @@
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="44" t="s">
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="52" t="s">
         <v>24</v>
       </c>
       <c r="M74" s="5">
@@ -6277,17 +7765,17 @@
       </c>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="45"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="53"/>
       <c r="M75" s="12">
         <v>2</v>
       </c>
@@ -6301,17 +7789,17 @@
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="45"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="53"/>
       <c r="M76" s="12">
         <v>3</v>
       </c>
@@ -6325,41 +7813,41 @@
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="45"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="53"/>
       <c r="M77" s="12">
         <v>4</v>
       </c>
-      <c r="N77" s="30" t="str">
+      <c r="N77" s="30">
         <f>IF('ROSMAIRA CLASSES'!E61=0,"",'ROSMAIRA CLASSES'!E61)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O77" s="31" t="str">
         <f>IF(N77="","",'ROSMAIRA CLASSES'!F61)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="45"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="53"/>
       <c r="M78" s="12">
         <v>5</v>
       </c>
@@ -6373,38 +7861,38 @@
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="51" t="str">
+      <c r="E79" s="49" t="str">
         <f>E9</f>
         <v>JULIO</v>
       </c>
-      <c r="F79" s="54">
-        <v>1</v>
-      </c>
-      <c r="G79" s="51" t="s">
+      <c r="F79" s="63">
+        <v>1</v>
+      </c>
+      <c r="G79" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="51" t="s">
+      <c r="H79" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="51" t="s">
+      <c r="I79" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J79" s="51" t="s">
+      <c r="J79" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="K79" s="51" t="s">
+      <c r="K79" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="L79" s="44" t="s">
+      <c r="L79" s="52" t="s">
         <v>55</v>
       </c>
       <c r="M79" s="5">
@@ -6420,17 +7908,17 @@
       </c>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="63"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="45"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="53"/>
       <c r="M80" s="12">
         <v>2</v>
       </c>
@@ -6444,17 +7932,17 @@
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="63"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="45"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="53"/>
       <c r="M81" s="12">
         <v>3</v>
       </c>
@@ -6468,41 +7956,41 @@
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="63"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
-      <c r="L82" s="45"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="53"/>
       <c r="M82" s="12">
         <v>4</v>
       </c>
-      <c r="N82" s="30" t="str">
+      <c r="N82" s="30">
         <f>IF('JIMMY CLASSES'!E48=0,"",'JIMMY CLASSES'!E48)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O82" s="31" t="str">
         <f>IF(N82="","",'JIMMY CLASSES'!F48)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="63"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="45"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="53"/>
       <c r="M83" s="12">
         <v>5</v>
       </c>
@@ -6516,17 +8004,17 @@
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="63"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="44" t="s">
+      <c r="B84" s="55"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="52" t="s">
         <v>18</v>
       </c>
       <c r="M84" s="5">
@@ -6542,17 +8030,17 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="63"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="45"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="53"/>
       <c r="M85" s="12">
         <v>2</v>
       </c>
@@ -6566,41 +8054,41 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="63"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="52"/>
-      <c r="L86" s="45"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="53"/>
       <c r="M86" s="12">
         <v>3</v>
       </c>
-      <c r="N86" s="30" t="str">
+      <c r="N86" s="30">
         <f>IF('JIMMY CLASSES'!E35=0,"",'JIMMY CLASSES'!E35)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O86" s="31" t="str">
         <f>IF(N86="","",'JIMMY CLASSES'!F35)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="63"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="45"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="53"/>
       <c r="M87" s="12">
         <v>4</v>
       </c>
@@ -6614,17 +8102,17 @@
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="63"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="52"/>
-      <c r="L88" s="45"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="53"/>
       <c r="M88" s="12">
         <v>5</v>
       </c>
@@ -6638,17 +8126,17 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="63"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
-      <c r="K89" s="52"/>
-      <c r="L89" s="44" t="s">
+      <c r="B89" s="55"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="52" t="s">
         <v>19</v>
       </c>
       <c r="M89" s="5">
@@ -6664,17 +8152,17 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="63"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="52"/>
-      <c r="L90" s="45"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="53"/>
       <c r="M90" s="12">
         <v>2</v>
       </c>
@@ -6688,41 +8176,41 @@
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="63"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="45"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="53"/>
       <c r="M91" s="12">
         <v>3</v>
       </c>
-      <c r="N91" s="30" t="str">
+      <c r="N91" s="30">
         <f>IF('JIMMY CLASSES'!E36=0,"",'JIMMY CLASSES'!E36)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O91" s="31" t="str">
         <f>IF(N91="","",'JIMMY CLASSES'!F36)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="63"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="52"/>
-      <c r="L92" s="45"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="53"/>
       <c r="M92" s="12">
         <v>4</v>
       </c>
@@ -6736,17 +8224,17 @@
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="63"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
-      <c r="K93" s="52"/>
-      <c r="L93" s="45"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="53"/>
       <c r="M93" s="12">
         <v>5</v>
       </c>
@@ -6760,17 +8248,17 @@
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="63"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="52"/>
-      <c r="L94" s="44" t="s">
+      <c r="B94" s="55"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="52" t="s">
         <v>17</v>
       </c>
       <c r="M94" s="5">
@@ -6786,17 +8274,17 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="63"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="45"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="53"/>
       <c r="M95" s="12">
         <v>2</v>
       </c>
@@ -6810,41 +8298,41 @@
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="63"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="52"/>
-      <c r="L96" s="45"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="53"/>
       <c r="M96" s="12">
         <v>3</v>
       </c>
-      <c r="N96" s="30" t="str">
+      <c r="N96" s="30">
         <f>IF('JIMMY CLASSES'!E37=0,"",'JIMMY CLASSES'!E37)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O96" s="31" t="str">
         <f>IF(N96="","",'JIMMY CLASSES'!F37)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="63"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="52"/>
-      <c r="K97" s="52"/>
-      <c r="L97" s="45"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="53"/>
       <c r="M97" s="12">
         <v>4</v>
       </c>
@@ -6858,17 +8346,17 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="63"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="45"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="53"/>
       <c r="M98" s="12">
         <v>5</v>
       </c>
@@ -6882,17 +8370,17 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="63"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="44" t="s">
+      <c r="B99" s="55"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="52" t="s">
         <v>34</v>
       </c>
       <c r="M99" s="5">
@@ -6908,17 +8396,17 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="63"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
-      <c r="K100" s="52"/>
-      <c r="L100" s="45"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="53"/>
       <c r="M100" s="12">
         <v>2</v>
       </c>
@@ -6932,41 +8420,41 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="63"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="45"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="53"/>
       <c r="M101" s="12">
         <v>3</v>
       </c>
-      <c r="N101" s="30" t="str">
+      <c r="N101" s="30">
         <f>IF('JIMMY CLASSES'!E38=0,"",'JIMMY CLASSES'!E38)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O101" s="31" t="str">
         <f>IF(N101="","",'JIMMY CLASSES'!F38)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="63"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="52"/>
-      <c r="L102" s="45"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="53"/>
       <c r="M102" s="12">
         <v>4</v>
       </c>
@@ -6980,17 +8468,17 @@
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="63"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="45"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="53"/>
       <c r="M103" s="12">
         <v>5</v>
       </c>
@@ -7004,17 +8492,17 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="63"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="44" t="s">
+      <c r="B104" s="55"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="52" t="s">
         <v>56</v>
       </c>
       <c r="M104" s="5">
@@ -7024,17 +8512,17 @@
       <c r="O104" s="31"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="63"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
-      <c r="K105" s="52"/>
-      <c r="L105" s="45"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="53"/>
       <c r="M105" s="12">
         <v>2</v>
       </c>
@@ -7042,17 +8530,17 @@
       <c r="O105" s="31"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="63"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
-      <c r="K106" s="52"/>
-      <c r="L106" s="45"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="53"/>
       <c r="M106" s="12">
         <v>3</v>
       </c>
@@ -7060,17 +8548,17 @@
       <c r="O106" s="31"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="63"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="45"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="53"/>
       <c r="M107" s="12">
         <v>4</v>
       </c>
@@ -7078,17 +8566,17 @@
       <c r="O107" s="31"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="63"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
-      <c r="K108" s="52"/>
-      <c r="L108" s="45"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="53"/>
       <c r="M108" s="12">
         <v>5</v>
       </c>
@@ -7096,17 +8584,17 @@
       <c r="O108" s="31"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="63"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="52"/>
-      <c r="H109" s="52"/>
-      <c r="I109" s="52"/>
-      <c r="J109" s="52"/>
-      <c r="K109" s="52"/>
-      <c r="L109" s="44" t="s">
+      <c r="B109" s="55"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="52" t="s">
         <v>57</v>
       </c>
       <c r="M109" s="5">
@@ -7116,17 +8604,17 @@
       <c r="O109" s="31"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="63"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
-      <c r="K110" s="52"/>
-      <c r="L110" s="45"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="53"/>
       <c r="M110" s="12">
         <v>2</v>
       </c>
@@ -7134,17 +8622,17 @@
       <c r="O110" s="31"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="63"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
-      <c r="K111" s="52"/>
-      <c r="L111" s="45"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="53"/>
       <c r="M111" s="12">
         <v>3</v>
       </c>
@@ -7152,17 +8640,17 @@
       <c r="O111" s="31"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="63"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="55"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
-      <c r="K112" s="52"/>
-      <c r="L112" s="45"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="53"/>
       <c r="M112" s="12">
         <v>4</v>
       </c>
@@ -7170,17 +8658,17 @@
       <c r="O112" s="31"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="63"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="52"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="45"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="50"/>
+      <c r="K113" s="50"/>
+      <c r="L113" s="53"/>
       <c r="M113" s="12">
         <v>5</v>
       </c>
@@ -7188,17 +8676,17 @@
       <c r="O113" s="31"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B114" s="63"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="52"/>
-      <c r="L114" s="46" t="s">
+      <c r="B114" s="55"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="60" t="s">
         <v>58</v>
       </c>
       <c r="M114" s="5">
@@ -7208,17 +8696,17 @@
       <c r="O114" s="31"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B115" s="63"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="55"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
-      <c r="J115" s="52"/>
-      <c r="K115" s="52"/>
-      <c r="L115" s="47"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="50"/>
+      <c r="I115" s="50"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="61"/>
       <c r="M115" s="12">
         <v>2</v>
       </c>
@@ -7226,17 +8714,17 @@
       <c r="O115" s="31"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B116" s="63"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="52"/>
-      <c r="J116" s="52"/>
-      <c r="K116" s="52"/>
-      <c r="L116" s="47"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="50"/>
+      <c r="I116" s="50"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="61"/>
       <c r="M116" s="12">
         <v>3</v>
       </c>
@@ -7244,17 +8732,17 @@
       <c r="O116" s="31"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="63"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="55"/>
-      <c r="G117" s="52"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="52"/>
-      <c r="J117" s="52"/>
-      <c r="K117" s="52"/>
-      <c r="L117" s="47"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="50"/>
+      <c r="L117" s="61"/>
       <c r="M117" s="12">
         <v>4</v>
       </c>
@@ -7262,17 +8750,17 @@
       <c r="O117" s="31"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="63"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="52"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="52"/>
-      <c r="L118" s="47"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="61"/>
       <c r="M118" s="12">
         <v>5</v>
       </c>
@@ -7280,17 +8768,17 @@
       <c r="O118" s="31"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" s="63"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="46" t="s">
+      <c r="B119" s="55"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="50"/>
+      <c r="I119" s="50"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="60" t="s">
         <v>59</v>
       </c>
       <c r="M119" s="5">
@@ -7300,17 +8788,17 @@
       <c r="O119" s="31"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="63"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="52"/>
-      <c r="I120" s="52"/>
-      <c r="J120" s="52"/>
-      <c r="K120" s="52"/>
-      <c r="L120" s="47"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="50"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="50"/>
+      <c r="K120" s="50"/>
+      <c r="L120" s="61"/>
       <c r="M120" s="12">
         <v>2</v>
       </c>
@@ -7318,17 +8806,17 @@
       <c r="O120" s="31"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="63"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="52"/>
-      <c r="H121" s="52"/>
-      <c r="I121" s="52"/>
-      <c r="J121" s="52"/>
-      <c r="K121" s="52"/>
-      <c r="L121" s="47"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="61"/>
       <c r="M121" s="12">
         <v>3</v>
       </c>
@@ -7336,17 +8824,17 @@
       <c r="O121" s="31"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="63"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="52"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="52"/>
-      <c r="L122" s="47"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="50"/>
+      <c r="K122" s="50"/>
+      <c r="L122" s="61"/>
       <c r="M122" s="12">
         <v>4</v>
       </c>
@@ -7354,17 +8842,17 @@
       <c r="O122" s="31"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="63"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="47"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="61"/>
       <c r="M123" s="12">
         <v>5</v>
       </c>
@@ -7372,17 +8860,17 @@
       <c r="O123" s="31"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="63"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="52"/>
-      <c r="J124" s="52"/>
-      <c r="K124" s="52"/>
-      <c r="L124" s="44" t="s">
+      <c r="B124" s="55"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="50"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="50"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="52" t="s">
         <v>35</v>
       </c>
       <c r="M124" s="5">
@@ -7392,17 +8880,17 @@
       <c r="O124" s="31"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="63"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="52"/>
-      <c r="H125" s="52"/>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
-      <c r="K125" s="52"/>
-      <c r="L125" s="45"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="64"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
+      <c r="L125" s="53"/>
       <c r="M125" s="12">
         <v>2</v>
       </c>
@@ -7410,17 +8898,17 @@
       <c r="O125" s="31"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="63"/>
-      <c r="C126" s="49"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="52"/>
-      <c r="I126" s="52"/>
-      <c r="J126" s="52"/>
-      <c r="K126" s="52"/>
-      <c r="L126" s="45"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="50"/>
+      <c r="K126" s="50"/>
+      <c r="L126" s="53"/>
       <c r="M126" s="12">
         <v>3</v>
       </c>
@@ -7428,17 +8916,17 @@
       <c r="O126" s="31"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="63"/>
-      <c r="C127" s="49"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
-      <c r="K127" s="52"/>
-      <c r="L127" s="45"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="50"/>
+      <c r="L127" s="53"/>
       <c r="M127" s="12">
         <v>4</v>
       </c>
@@ -7446,17 +8934,17 @@
       <c r="O127" s="31"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="63"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="52"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="52"/>
-      <c r="J128" s="52"/>
-      <c r="K128" s="52"/>
-      <c r="L128" s="45"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="50"/>
+      <c r="J128" s="50"/>
+      <c r="K128" s="50"/>
+      <c r="L128" s="53"/>
       <c r="M128" s="12">
         <v>5</v>
       </c>
@@ -7464,17 +8952,17 @@
       <c r="O128" s="31"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="63"/>
-      <c r="C129" s="49"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="55"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="52"/>
-      <c r="L129" s="44" t="s">
+      <c r="B129" s="55"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="64"/>
+      <c r="G129" s="50"/>
+      <c r="H129" s="50"/>
+      <c r="I129" s="50"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="50"/>
+      <c r="L129" s="52" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="5">
@@ -7484,17 +8972,17 @@
       <c r="O129" s="31"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="63"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="52"/>
-      <c r="J130" s="52"/>
-      <c r="K130" s="52"/>
-      <c r="L130" s="45"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="50"/>
+      <c r="H130" s="50"/>
+      <c r="I130" s="50"/>
+      <c r="J130" s="50"/>
+      <c r="K130" s="50"/>
+      <c r="L130" s="53"/>
       <c r="M130" s="12">
         <v>2</v>
       </c>
@@ -7502,17 +8990,17 @@
       <c r="O130" s="31"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="63"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="52"/>
-      <c r="J131" s="52"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="45"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="50"/>
+      <c r="J131" s="50"/>
+      <c r="K131" s="50"/>
+      <c r="L131" s="53"/>
       <c r="M131" s="12">
         <v>3</v>
       </c>
@@ -7520,17 +9008,17 @@
       <c r="O131" s="31"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="63"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="52"/>
-      <c r="J132" s="52"/>
-      <c r="K132" s="52"/>
-      <c r="L132" s="45"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="64"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="50"/>
+      <c r="K132" s="50"/>
+      <c r="L132" s="53"/>
       <c r="M132" s="12">
         <v>4</v>
       </c>
@@ -7538,17 +9026,17 @@
       <c r="O132" s="31"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" s="63"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="52"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="52"/>
-      <c r="J133" s="52"/>
-      <c r="K133" s="52"/>
-      <c r="L133" s="45"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="64"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="50"/>
+      <c r="K133" s="50"/>
+      <c r="L133" s="53"/>
       <c r="M133" s="12">
         <v>5</v>
       </c>
@@ -7556,17 +9044,17 @@
       <c r="O133" s="31"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" s="63"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="52"/>
-      <c r="H134" s="52"/>
-      <c r="I134" s="52"/>
-      <c r="J134" s="52"/>
-      <c r="K134" s="52"/>
-      <c r="L134" s="44" t="s">
+      <c r="B134" s="55"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="64"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="52" t="s">
         <v>36</v>
       </c>
       <c r="M134" s="5">
@@ -7576,17 +9064,17 @@
       <c r="O134" s="31"/>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="63"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="55"/>
-      <c r="G135" s="52"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="52"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="52"/>
-      <c r="L135" s="45"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="64"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="50"/>
+      <c r="K135" s="50"/>
+      <c r="L135" s="53"/>
       <c r="M135" s="12">
         <v>2</v>
       </c>
@@ -7594,17 +9082,17 @@
       <c r="O135" s="31"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="63"/>
-      <c r="C136" s="49"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="52"/>
-      <c r="F136" s="55"/>
-      <c r="G136" s="52"/>
-      <c r="H136" s="52"/>
-      <c r="I136" s="52"/>
-      <c r="J136" s="52"/>
-      <c r="K136" s="52"/>
-      <c r="L136" s="45"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
+      <c r="J136" s="50"/>
+      <c r="K136" s="50"/>
+      <c r="L136" s="53"/>
       <c r="M136" s="12">
         <v>3</v>
       </c>
@@ -7612,17 +9100,17 @@
       <c r="O136" s="31"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="63"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="52"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="52"/>
-      <c r="H137" s="52"/>
-      <c r="I137" s="52"/>
-      <c r="J137" s="52"/>
-      <c r="K137" s="52"/>
-      <c r="L137" s="45"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="64"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="50"/>
+      <c r="K137" s="50"/>
+      <c r="L137" s="53"/>
       <c r="M137" s="12">
         <v>4</v>
       </c>
@@ -7630,17 +9118,17 @@
       <c r="O137" s="31"/>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="63"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="52"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="52"/>
-      <c r="H138" s="52"/>
-      <c r="I138" s="52"/>
-      <c r="J138" s="52"/>
-      <c r="K138" s="52"/>
-      <c r="L138" s="45"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="64"/>
+      <c r="G138" s="50"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="50"/>
+      <c r="J138" s="50"/>
+      <c r="K138" s="50"/>
+      <c r="L138" s="53"/>
       <c r="M138" s="12">
         <v>5</v>
       </c>
@@ -7648,17 +9136,17 @@
       <c r="O138" s="31"/>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="63"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="52"/>
-      <c r="J139" s="52"/>
-      <c r="K139" s="52"/>
-      <c r="L139" s="44" t="s">
+      <c r="B139" s="55"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="64"/>
+      <c r="G139" s="50"/>
+      <c r="H139" s="50"/>
+      <c r="I139" s="50"/>
+      <c r="J139" s="50"/>
+      <c r="K139" s="50"/>
+      <c r="L139" s="52" t="s">
         <v>37</v>
       </c>
       <c r="M139" s="5">
@@ -7668,17 +9156,17 @@
       <c r="O139" s="31"/>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="63"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="52"/>
-      <c r="I140" s="52"/>
-      <c r="J140" s="52"/>
-      <c r="K140" s="52"/>
-      <c r="L140" s="45"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="50"/>
+      <c r="K140" s="50"/>
+      <c r="L140" s="53"/>
       <c r="M140" s="12">
         <v>2</v>
       </c>
@@ -7686,17 +9174,17 @@
       <c r="O140" s="31"/>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" s="63"/>
-      <c r="C141" s="49"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="52"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="52"/>
-      <c r="H141" s="52"/>
-      <c r="I141" s="52"/>
-      <c r="J141" s="52"/>
-      <c r="K141" s="52"/>
-      <c r="L141" s="45"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="64"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="50"/>
+      <c r="L141" s="53"/>
       <c r="M141" s="12">
         <v>3</v>
       </c>
@@ -7704,17 +9192,17 @@
       <c r="O141" s="31"/>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="63"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="55"/>
-      <c r="G142" s="52"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="52"/>
-      <c r="J142" s="52"/>
-      <c r="K142" s="52"/>
-      <c r="L142" s="45"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="50"/>
+      <c r="I142" s="50"/>
+      <c r="J142" s="50"/>
+      <c r="K142" s="50"/>
+      <c r="L142" s="53"/>
       <c r="M142" s="12">
         <v>4</v>
       </c>
@@ -7722,17 +9210,17 @@
       <c r="O142" s="31"/>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="63"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="52"/>
-      <c r="H143" s="52"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="52"/>
-      <c r="K143" s="52"/>
-      <c r="L143" s="45"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="50"/>
+      <c r="J143" s="50"/>
+      <c r="K143" s="50"/>
+      <c r="L143" s="53"/>
       <c r="M143" s="12">
         <v>5</v>
       </c>
@@ -7740,17 +9228,17 @@
       <c r="O143" s="31"/>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="63"/>
-      <c r="C144" s="49"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="52"/>
-      <c r="H144" s="52"/>
-      <c r="I144" s="52"/>
-      <c r="J144" s="52"/>
-      <c r="K144" s="52"/>
-      <c r="L144" s="44" t="s">
+      <c r="B144" s="55"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="64"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="50"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="50"/>
+      <c r="L144" s="52" t="s">
         <v>61</v>
       </c>
       <c r="M144" s="5">
@@ -7760,17 +9248,17 @@
       <c r="O144" s="16"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B145" s="63"/>
-      <c r="C145" s="49"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="52"/>
-      <c r="H145" s="52"/>
-      <c r="I145" s="52"/>
-      <c r="J145" s="52"/>
-      <c r="K145" s="52"/>
-      <c r="L145" s="45"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="64"/>
+      <c r="G145" s="50"/>
+      <c r="H145" s="50"/>
+      <c r="I145" s="50"/>
+      <c r="J145" s="50"/>
+      <c r="K145" s="50"/>
+      <c r="L145" s="53"/>
       <c r="M145" s="12">
         <v>2</v>
       </c>
@@ -7778,17 +9266,17 @@
       <c r="O145" s="31"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B146" s="63"/>
-      <c r="C146" s="49"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="52"/>
-      <c r="H146" s="52"/>
-      <c r="I146" s="52"/>
-      <c r="J146" s="52"/>
-      <c r="K146" s="52"/>
-      <c r="L146" s="45"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="64"/>
+      <c r="G146" s="50"/>
+      <c r="H146" s="50"/>
+      <c r="I146" s="50"/>
+      <c r="J146" s="50"/>
+      <c r="K146" s="50"/>
+      <c r="L146" s="53"/>
       <c r="M146" s="12">
         <v>3</v>
       </c>
@@ -7796,17 +9284,17 @@
       <c r="O146" s="31"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B147" s="63"/>
-      <c r="C147" s="49"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="52"/>
-      <c r="F147" s="55"/>
-      <c r="G147" s="52"/>
-      <c r="H147" s="52"/>
-      <c r="I147" s="52"/>
-      <c r="J147" s="52"/>
-      <c r="K147" s="52"/>
-      <c r="L147" s="45"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="50"/>
+      <c r="H147" s="50"/>
+      <c r="I147" s="50"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="50"/>
+      <c r="L147" s="53"/>
       <c r="M147" s="12">
         <v>4</v>
       </c>
@@ -7814,17 +9302,17 @@
       <c r="O147" s="31"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B148" s="64"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="53"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="53"/>
-      <c r="H148" s="53"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="45"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="51"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="51"/>
+      <c r="K148" s="51"/>
+      <c r="L148" s="53"/>
       <c r="M148" s="12">
         <v>5</v>
       </c>
@@ -7832,38 +9320,38 @@
       <c r="O148" s="31"/>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B149" s="48" t="s">
+      <c r="B149" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C149" s="48" t="s">
+      <c r="C149" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D149" s="51" t="s">
+      <c r="D149" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="51" t="str">
+      <c r="E149" s="49" t="str">
         <f>E79</f>
         <v>JULIO</v>
       </c>
-      <c r="F149" s="54">
-        <v>1</v>
-      </c>
-      <c r="G149" s="51" t="s">
+      <c r="F149" s="63">
+        <v>1</v>
+      </c>
+      <c r="G149" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="H149" s="51" t="s">
+      <c r="H149" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I149" s="51" t="s">
+      <c r="I149" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J149" s="51" t="s">
+      <c r="J149" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="K149" s="51" t="s">
+      <c r="K149" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="L149" s="44" t="s">
+      <c r="L149" s="52" t="s">
         <v>30</v>
       </c>
       <c r="M149" s="5">
@@ -7878,17 +9366,17 @@
       <c r="T149" s="1"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B150" s="49"/>
-      <c r="C150" s="49"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="52"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="52"/>
-      <c r="H150" s="52"/>
-      <c r="I150" s="52"/>
-      <c r="J150" s="52"/>
-      <c r="K150" s="52"/>
-      <c r="L150" s="45"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="64"/>
+      <c r="G150" s="50"/>
+      <c r="H150" s="50"/>
+      <c r="I150" s="50"/>
+      <c r="J150" s="50"/>
+      <c r="K150" s="50"/>
+      <c r="L150" s="53"/>
       <c r="M150" s="12">
         <v>2</v>
       </c>
@@ -7901,17 +9389,17 @@
       <c r="T150" s="1"/>
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B151" s="49"/>
-      <c r="C151" s="49"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="55"/>
-      <c r="G151" s="52"/>
-      <c r="H151" s="52"/>
-      <c r="I151" s="52"/>
-      <c r="J151" s="52"/>
-      <c r="K151" s="52"/>
-      <c r="L151" s="45"/>
+      <c r="B151" s="58"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="64"/>
+      <c r="G151" s="50"/>
+      <c r="H151" s="50"/>
+      <c r="I151" s="50"/>
+      <c r="J151" s="50"/>
+      <c r="K151" s="50"/>
+      <c r="L151" s="53"/>
       <c r="M151" s="12">
         <v>3</v>
       </c>
@@ -7924,17 +9412,17 @@
       <c r="T151" s="1"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="52"/>
-      <c r="F152" s="55"/>
-      <c r="G152" s="52"/>
-      <c r="H152" s="52"/>
-      <c r="I152" s="52"/>
-      <c r="J152" s="52"/>
-      <c r="K152" s="52"/>
-      <c r="L152" s="45"/>
+      <c r="B152" s="58"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="64"/>
+      <c r="G152" s="50"/>
+      <c r="H152" s="50"/>
+      <c r="I152" s="50"/>
+      <c r="J152" s="50"/>
+      <c r="K152" s="50"/>
+      <c r="L152" s="53"/>
       <c r="M152" s="12">
         <v>4</v>
       </c>
@@ -7947,17 +9435,17 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B153" s="49"/>
-      <c r="C153" s="49"/>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52"/>
-      <c r="F153" s="55"/>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="52"/>
-      <c r="K153" s="52"/>
-      <c r="L153" s="45"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="64"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="50"/>
+      <c r="I153" s="50"/>
+      <c r="J153" s="50"/>
+      <c r="K153" s="50"/>
+      <c r="L153" s="53"/>
       <c r="M153" s="12">
         <v>5</v>
       </c>
@@ -7970,17 +9458,17 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B154" s="49"/>
-      <c r="C154" s="49"/>
-      <c r="D154" s="52"/>
-      <c r="E154" s="52"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="52"/>
-      <c r="H154" s="52"/>
-      <c r="I154" s="52"/>
-      <c r="J154" s="52"/>
-      <c r="K154" s="52"/>
-      <c r="L154" s="44" t="s">
+      <c r="B154" s="58"/>
+      <c r="C154" s="58"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="64"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="50"/>
+      <c r="I154" s="50"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="50"/>
+      <c r="L154" s="52" t="s">
         <v>31</v>
       </c>
       <c r="M154" s="5">
@@ -7995,17 +9483,17 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B155" s="49"/>
-      <c r="C155" s="49"/>
-      <c r="D155" s="52"/>
-      <c r="E155" s="52"/>
-      <c r="F155" s="55"/>
-      <c r="G155" s="52"/>
-      <c r="H155" s="52"/>
-      <c r="I155" s="52"/>
-      <c r="J155" s="52"/>
-      <c r="K155" s="52"/>
-      <c r="L155" s="45"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="64"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="50"/>
+      <c r="I155" s="50"/>
+      <c r="J155" s="50"/>
+      <c r="K155" s="50"/>
+      <c r="L155" s="53"/>
       <c r="M155" s="12">
         <v>2</v>
       </c>
@@ -8018,17 +9506,17 @@
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B156" s="49"/>
-      <c r="C156" s="49"/>
-      <c r="D156" s="52"/>
-      <c r="E156" s="52"/>
-      <c r="F156" s="55"/>
-      <c r="G156" s="52"/>
-      <c r="H156" s="52"/>
-      <c r="I156" s="52"/>
-      <c r="J156" s="52"/>
-      <c r="K156" s="52"/>
-      <c r="L156" s="45"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="64"/>
+      <c r="G156" s="50"/>
+      <c r="H156" s="50"/>
+      <c r="I156" s="50"/>
+      <c r="J156" s="50"/>
+      <c r="K156" s="50"/>
+      <c r="L156" s="53"/>
       <c r="M156" s="12">
         <v>3</v>
       </c>
@@ -8041,17 +9529,17 @@
       <c r="T156" s="1"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B157" s="49"/>
-      <c r="C157" s="49"/>
-      <c r="D157" s="52"/>
-      <c r="E157" s="52"/>
-      <c r="F157" s="55"/>
-      <c r="G157" s="52"/>
-      <c r="H157" s="52"/>
-      <c r="I157" s="52"/>
-      <c r="J157" s="52"/>
-      <c r="K157" s="52"/>
-      <c r="L157" s="45"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="64"/>
+      <c r="G157" s="50"/>
+      <c r="H157" s="50"/>
+      <c r="I157" s="50"/>
+      <c r="J157" s="50"/>
+      <c r="K157" s="50"/>
+      <c r="L157" s="53"/>
       <c r="M157" s="12">
         <v>4</v>
       </c>
@@ -8064,17 +9552,17 @@
       <c r="T157" s="1"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B158" s="49"/>
-      <c r="C158" s="49"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="55"/>
-      <c r="G158" s="52"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="52"/>
-      <c r="J158" s="52"/>
-      <c r="K158" s="52"/>
-      <c r="L158" s="45"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="64"/>
+      <c r="G158" s="50"/>
+      <c r="H158" s="50"/>
+      <c r="I158" s="50"/>
+      <c r="J158" s="50"/>
+      <c r="K158" s="50"/>
+      <c r="L158" s="53"/>
       <c r="M158" s="12">
         <v>5</v>
       </c>
@@ -8087,17 +9575,17 @@
       <c r="T158" s="1"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B159" s="49"/>
-      <c r="C159" s="49"/>
-      <c r="D159" s="52"/>
-      <c r="E159" s="52"/>
-      <c r="F159" s="55"/>
-      <c r="G159" s="52"/>
-      <c r="H159" s="52"/>
-      <c r="I159" s="52"/>
-      <c r="J159" s="52"/>
-      <c r="K159" s="52"/>
-      <c r="L159" s="44" t="s">
+      <c r="B159" s="58"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="64"/>
+      <c r="G159" s="50"/>
+      <c r="H159" s="50"/>
+      <c r="I159" s="50"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="50"/>
+      <c r="L159" s="52" t="s">
         <v>62</v>
       </c>
       <c r="M159" s="5">
@@ -8112,17 +9600,17 @@
       <c r="T159" s="1"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B160" s="49"/>
-      <c r="C160" s="49"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="52"/>
-      <c r="F160" s="55"/>
-      <c r="G160" s="52"/>
-      <c r="H160" s="52"/>
-      <c r="I160" s="52"/>
-      <c r="J160" s="52"/>
-      <c r="K160" s="52"/>
-      <c r="L160" s="45"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="58"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="50"/>
+      <c r="H160" s="50"/>
+      <c r="I160" s="50"/>
+      <c r="J160" s="50"/>
+      <c r="K160" s="50"/>
+      <c r="L160" s="53"/>
       <c r="M160" s="12">
         <v>2</v>
       </c>
@@ -8135,17 +9623,17 @@
       <c r="T160" s="1"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B161" s="49"/>
-      <c r="C161" s="49"/>
-      <c r="D161" s="52"/>
-      <c r="E161" s="52"/>
-      <c r="F161" s="55"/>
-      <c r="G161" s="52"/>
-      <c r="H161" s="52"/>
-      <c r="I161" s="52"/>
-      <c r="J161" s="52"/>
-      <c r="K161" s="52"/>
-      <c r="L161" s="45"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="58"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="64"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="50"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="50"/>
+      <c r="L161" s="53"/>
       <c r="M161" s="12">
         <v>3</v>
       </c>
@@ -8158,17 +9646,17 @@
       <c r="T161" s="1"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B162" s="49"/>
-      <c r="C162" s="49"/>
-      <c r="D162" s="52"/>
-      <c r="E162" s="52"/>
-      <c r="F162" s="55"/>
-      <c r="G162" s="52"/>
-      <c r="H162" s="52"/>
-      <c r="I162" s="52"/>
-      <c r="J162" s="52"/>
-      <c r="K162" s="52"/>
-      <c r="L162" s="45"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="58"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="64"/>
+      <c r="G162" s="50"/>
+      <c r="H162" s="50"/>
+      <c r="I162" s="50"/>
+      <c r="J162" s="50"/>
+      <c r="K162" s="50"/>
+      <c r="L162" s="53"/>
       <c r="M162" s="12">
         <v>4</v>
       </c>
@@ -8181,17 +9669,17 @@
       <c r="T162" s="1"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B163" s="49"/>
-      <c r="C163" s="49"/>
-      <c r="D163" s="52"/>
-      <c r="E163" s="52"/>
-      <c r="F163" s="55"/>
-      <c r="G163" s="52"/>
-      <c r="H163" s="52"/>
-      <c r="I163" s="52"/>
-      <c r="J163" s="52"/>
-      <c r="K163" s="52"/>
-      <c r="L163" s="45"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="50"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="64"/>
+      <c r="G163" s="50"/>
+      <c r="H163" s="50"/>
+      <c r="I163" s="50"/>
+      <c r="J163" s="50"/>
+      <c r="K163" s="50"/>
+      <c r="L163" s="53"/>
       <c r="M163" s="12">
         <v>5</v>
       </c>
@@ -8204,17 +9692,17 @@
       <c r="T163" s="1"/>
     </row>
     <row r="164" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="52"/>
-      <c r="E164" s="52"/>
-      <c r="F164" s="55"/>
-      <c r="G164" s="52"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="52"/>
-      <c r="J164" s="52"/>
-      <c r="K164" s="52"/>
-      <c r="L164" s="44" t="s">
+      <c r="B164" s="58"/>
+      <c r="C164" s="58"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="64"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="50"/>
+      <c r="I164" s="50"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="52" t="s">
         <v>63</v>
       </c>
       <c r="M164" s="5">
@@ -8229,17 +9717,17 @@
       <c r="T164" s="1"/>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B165" s="49"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="52"/>
-      <c r="E165" s="52"/>
-      <c r="F165" s="55"/>
-      <c r="G165" s="52"/>
-      <c r="H165" s="52"/>
-      <c r="I165" s="52"/>
-      <c r="J165" s="52"/>
-      <c r="K165" s="52"/>
-      <c r="L165" s="45"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="64"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="50"/>
+      <c r="I165" s="50"/>
+      <c r="J165" s="50"/>
+      <c r="K165" s="50"/>
+      <c r="L165" s="53"/>
       <c r="M165" s="12">
         <v>2</v>
       </c>
@@ -8252,17 +9740,17 @@
       <c r="T165" s="1"/>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B166" s="49"/>
-      <c r="C166" s="49"/>
-      <c r="D166" s="52"/>
-      <c r="E166" s="52"/>
-      <c r="F166" s="55"/>
-      <c r="G166" s="52"/>
-      <c r="H166" s="52"/>
-      <c r="I166" s="52"/>
-      <c r="J166" s="52"/>
-      <c r="K166" s="52"/>
-      <c r="L166" s="45"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="58"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="50"/>
+      <c r="H166" s="50"/>
+      <c r="I166" s="50"/>
+      <c r="J166" s="50"/>
+      <c r="K166" s="50"/>
+      <c r="L166" s="53"/>
       <c r="M166" s="12">
         <v>3</v>
       </c>
@@ -8275,17 +9763,17 @@
       <c r="T166" s="1"/>
     </row>
     <row r="167" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B167" s="49"/>
-      <c r="C167" s="49"/>
-      <c r="D167" s="52"/>
-      <c r="E167" s="52"/>
-      <c r="F167" s="55"/>
-      <c r="G167" s="52"/>
-      <c r="H167" s="52"/>
-      <c r="I167" s="52"/>
-      <c r="J167" s="52"/>
-      <c r="K167" s="52"/>
-      <c r="L167" s="45"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="64"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="53"/>
       <c r="M167" s="12">
         <v>4</v>
       </c>
@@ -8298,17 +9786,17 @@
       <c r="T167" s="1"/>
     </row>
     <row r="168" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="52"/>
-      <c r="E168" s="52"/>
-      <c r="F168" s="55"/>
-      <c r="G168" s="52"/>
-      <c r="H168" s="52"/>
-      <c r="I168" s="52"/>
-      <c r="J168" s="52"/>
-      <c r="K168" s="52"/>
-      <c r="L168" s="45"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="58"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="64"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="53"/>
       <c r="M168" s="12">
         <v>5</v>
       </c>
@@ -8321,17 +9809,17 @@
       <c r="T168" s="1"/>
     </row>
     <row r="169" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="52"/>
-      <c r="E169" s="52"/>
-      <c r="F169" s="55"/>
-      <c r="G169" s="52"/>
-      <c r="H169" s="52"/>
-      <c r="I169" s="52"/>
-      <c r="J169" s="52"/>
-      <c r="K169" s="52"/>
-      <c r="L169" s="44" t="s">
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="64"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="50"/>
+      <c r="L169" s="52" t="s">
         <v>64</v>
       </c>
       <c r="M169" s="5">
@@ -8346,17 +9834,17 @@
       <c r="T169" s="1"/>
     </row>
     <row r="170" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B170" s="49"/>
-      <c r="C170" s="49"/>
-      <c r="D170" s="52"/>
-      <c r="E170" s="52"/>
-      <c r="F170" s="55"/>
-      <c r="G170" s="52"/>
-      <c r="H170" s="52"/>
-      <c r="I170" s="52"/>
-      <c r="J170" s="52"/>
-      <c r="K170" s="52"/>
-      <c r="L170" s="45"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="64"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="50"/>
+      <c r="I170" s="50"/>
+      <c r="J170" s="50"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="53"/>
       <c r="M170" s="12">
         <v>2</v>
       </c>
@@ -8369,17 +9857,17 @@
       <c r="T170" s="1"/>
     </row>
     <row r="171" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B171" s="49"/>
-      <c r="C171" s="49"/>
-      <c r="D171" s="52"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="55"/>
-      <c r="G171" s="52"/>
-      <c r="H171" s="52"/>
-      <c r="I171" s="52"/>
-      <c r="J171" s="52"/>
-      <c r="K171" s="52"/>
-      <c r="L171" s="45"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="64"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="53"/>
       <c r="M171" s="12">
         <v>3</v>
       </c>
@@ -8392,17 +9880,17 @@
       <c r="T171" s="1"/>
     </row>
     <row r="172" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B172" s="49"/>
-      <c r="C172" s="49"/>
-      <c r="D172" s="52"/>
-      <c r="E172" s="52"/>
-      <c r="F172" s="55"/>
-      <c r="G172" s="52"/>
-      <c r="H172" s="52"/>
-      <c r="I172" s="52"/>
-      <c r="J172" s="52"/>
-      <c r="K172" s="52"/>
-      <c r="L172" s="45"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="58"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="64"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="53"/>
       <c r="M172" s="12">
         <v>4</v>
       </c>
@@ -8415,17 +9903,17 @@
       <c r="T172" s="1"/>
     </row>
     <row r="173" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B173" s="49"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="52"/>
-      <c r="E173" s="52"/>
-      <c r="F173" s="55"/>
-      <c r="G173" s="52"/>
-      <c r="H173" s="52"/>
-      <c r="I173" s="52"/>
-      <c r="J173" s="52"/>
-      <c r="K173" s="52"/>
-      <c r="L173" s="45"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="64"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="50"/>
+      <c r="J173" s="50"/>
+      <c r="K173" s="50"/>
+      <c r="L173" s="53"/>
       <c r="M173" s="12">
         <v>5</v>
       </c>
@@ -8438,17 +9926,17 @@
       <c r="T173" s="1"/>
     </row>
     <row r="174" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B174" s="49"/>
-      <c r="C174" s="49"/>
-      <c r="D174" s="52"/>
-      <c r="E174" s="52"/>
-      <c r="F174" s="55"/>
-      <c r="G174" s="52"/>
-      <c r="H174" s="52"/>
-      <c r="I174" s="52"/>
-      <c r="J174" s="52"/>
-      <c r="K174" s="52"/>
-      <c r="L174" s="44" t="s">
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="64"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
+      <c r="J174" s="50"/>
+      <c r="K174" s="50"/>
+      <c r="L174" s="52" t="s">
         <v>20</v>
       </c>
       <c r="M174" s="5">
@@ -8463,17 +9951,17 @@
       <c r="T174" s="1"/>
     </row>
     <row r="175" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B175" s="49"/>
-      <c r="C175" s="49"/>
-      <c r="D175" s="52"/>
-      <c r="E175" s="52"/>
-      <c r="F175" s="55"/>
-      <c r="G175" s="52"/>
-      <c r="H175" s="52"/>
-      <c r="I175" s="52"/>
-      <c r="J175" s="52"/>
-      <c r="K175" s="52"/>
-      <c r="L175" s="45"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
+      <c r="J175" s="50"/>
+      <c r="K175" s="50"/>
+      <c r="L175" s="53"/>
       <c r="M175" s="12">
         <v>2</v>
       </c>
@@ -8486,17 +9974,17 @@
       <c r="T175" s="1"/>
     </row>
     <row r="176" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B176" s="49"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="52"/>
-      <c r="E176" s="52"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="52"/>
-      <c r="H176" s="52"/>
-      <c r="I176" s="52"/>
-      <c r="J176" s="52"/>
-      <c r="K176" s="52"/>
-      <c r="L176" s="45"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="64"/>
+      <c r="G176" s="50"/>
+      <c r="H176" s="50"/>
+      <c r="I176" s="50"/>
+      <c r="J176" s="50"/>
+      <c r="K176" s="50"/>
+      <c r="L176" s="53"/>
       <c r="M176" s="12">
         <v>3</v>
       </c>
@@ -8509,17 +9997,17 @@
       <c r="T176" s="1"/>
     </row>
     <row r="177" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B177" s="49"/>
-      <c r="C177" s="49"/>
-      <c r="D177" s="52"/>
-      <c r="E177" s="52"/>
-      <c r="F177" s="55"/>
-      <c r="G177" s="52"/>
-      <c r="H177" s="52"/>
-      <c r="I177" s="52"/>
-      <c r="J177" s="52"/>
-      <c r="K177" s="52"/>
-      <c r="L177" s="45"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="50"/>
+      <c r="H177" s="50"/>
+      <c r="I177" s="50"/>
+      <c r="J177" s="50"/>
+      <c r="K177" s="50"/>
+      <c r="L177" s="53"/>
       <c r="M177" s="12">
         <v>4</v>
       </c>
@@ -8532,17 +10020,17 @@
       <c r="T177" s="1"/>
     </row>
     <row r="178" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B178" s="49"/>
-      <c r="C178" s="49"/>
-      <c r="D178" s="52"/>
-      <c r="E178" s="52"/>
-      <c r="F178" s="55"/>
-      <c r="G178" s="52"/>
-      <c r="H178" s="52"/>
-      <c r="I178" s="52"/>
-      <c r="J178" s="52"/>
-      <c r="K178" s="52"/>
-      <c r="L178" s="45"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="64"/>
+      <c r="G178" s="50"/>
+      <c r="H178" s="50"/>
+      <c r="I178" s="50"/>
+      <c r="J178" s="50"/>
+      <c r="K178" s="50"/>
+      <c r="L178" s="53"/>
       <c r="M178" s="12">
         <v>5</v>
       </c>
@@ -8555,17 +10043,17 @@
       <c r="T178" s="1"/>
     </row>
     <row r="179" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B179" s="49"/>
-      <c r="C179" s="49"/>
-      <c r="D179" s="52"/>
-      <c r="E179" s="52"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="52"/>
-      <c r="H179" s="52"/>
-      <c r="I179" s="52"/>
-      <c r="J179" s="52"/>
-      <c r="K179" s="52"/>
-      <c r="L179" s="44" t="s">
+      <c r="B179" s="58"/>
+      <c r="C179" s="58"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="64"/>
+      <c r="G179" s="50"/>
+      <c r="H179" s="50"/>
+      <c r="I179" s="50"/>
+      <c r="J179" s="50"/>
+      <c r="K179" s="50"/>
+      <c r="L179" s="52" t="s">
         <v>21</v>
       </c>
       <c r="M179" s="5">
@@ -8580,17 +10068,17 @@
       <c r="T179" s="1"/>
     </row>
     <row r="180" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B180" s="49"/>
-      <c r="C180" s="49"/>
-      <c r="D180" s="52"/>
-      <c r="E180" s="52"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="52"/>
-      <c r="H180" s="52"/>
-      <c r="I180" s="52"/>
-      <c r="J180" s="52"/>
-      <c r="K180" s="52"/>
-      <c r="L180" s="45"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="64"/>
+      <c r="G180" s="50"/>
+      <c r="H180" s="50"/>
+      <c r="I180" s="50"/>
+      <c r="J180" s="50"/>
+      <c r="K180" s="50"/>
+      <c r="L180" s="53"/>
       <c r="M180" s="12">
         <v>2</v>
       </c>
@@ -8603,17 +10091,17 @@
       <c r="T180" s="1"/>
     </row>
     <row r="181" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B181" s="49"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="52"/>
-      <c r="E181" s="52"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="52"/>
-      <c r="H181" s="52"/>
-      <c r="I181" s="52"/>
-      <c r="J181" s="52"/>
-      <c r="K181" s="52"/>
-      <c r="L181" s="45"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="64"/>
+      <c r="G181" s="50"/>
+      <c r="H181" s="50"/>
+      <c r="I181" s="50"/>
+      <c r="J181" s="50"/>
+      <c r="K181" s="50"/>
+      <c r="L181" s="53"/>
       <c r="M181" s="12">
         <v>3</v>
       </c>
@@ -8626,17 +10114,17 @@
       <c r="T181" s="1"/>
     </row>
     <row r="182" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B182" s="49"/>
-      <c r="C182" s="49"/>
-      <c r="D182" s="52"/>
-      <c r="E182" s="52"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="52"/>
-      <c r="H182" s="52"/>
-      <c r="I182" s="52"/>
-      <c r="J182" s="52"/>
-      <c r="K182" s="52"/>
-      <c r="L182" s="45"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="58"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="64"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="50"/>
+      <c r="I182" s="50"/>
+      <c r="J182" s="50"/>
+      <c r="K182" s="50"/>
+      <c r="L182" s="53"/>
       <c r="M182" s="12">
         <v>4</v>
       </c>
@@ -8649,17 +10137,17 @@
       <c r="T182" s="1"/>
     </row>
     <row r="183" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B183" s="49"/>
-      <c r="C183" s="49"/>
-      <c r="D183" s="52"/>
-      <c r="E183" s="52"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="52"/>
-      <c r="H183" s="52"/>
-      <c r="I183" s="52"/>
-      <c r="J183" s="52"/>
-      <c r="K183" s="52"/>
-      <c r="L183" s="45"/>
+      <c r="B183" s="58"/>
+      <c r="C183" s="58"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="50"/>
+      <c r="F183" s="64"/>
+      <c r="G183" s="50"/>
+      <c r="H183" s="50"/>
+      <c r="I183" s="50"/>
+      <c r="J183" s="50"/>
+      <c r="K183" s="50"/>
+      <c r="L183" s="53"/>
       <c r="M183" s="12">
         <v>5</v>
       </c>
@@ -8672,17 +10160,17 @@
       <c r="T183" s="1"/>
     </row>
     <row r="184" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B184" s="49"/>
-      <c r="C184" s="49"/>
-      <c r="D184" s="52"/>
-      <c r="E184" s="52"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="52"/>
-      <c r="H184" s="52"/>
-      <c r="I184" s="52"/>
-      <c r="J184" s="52"/>
-      <c r="K184" s="52"/>
-      <c r="L184" s="46" t="s">
+      <c r="B184" s="58"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="64"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="50"/>
+      <c r="L184" s="60" t="s">
         <v>65</v>
       </c>
       <c r="M184" s="5">
@@ -8697,17 +10185,17 @@
       <c r="T184" s="1"/>
     </row>
     <row r="185" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B185" s="49"/>
-      <c r="C185" s="49"/>
-      <c r="D185" s="52"/>
-      <c r="E185" s="52"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="52"/>
-      <c r="H185" s="52"/>
-      <c r="I185" s="52"/>
-      <c r="J185" s="52"/>
-      <c r="K185" s="52"/>
-      <c r="L185" s="47"/>
+      <c r="B185" s="58"/>
+      <c r="C185" s="58"/>
+      <c r="D185" s="50"/>
+      <c r="E185" s="50"/>
+      <c r="F185" s="64"/>
+      <c r="G185" s="50"/>
+      <c r="H185" s="50"/>
+      <c r="I185" s="50"/>
+      <c r="J185" s="50"/>
+      <c r="K185" s="50"/>
+      <c r="L185" s="61"/>
       <c r="M185" s="12">
         <v>2</v>
       </c>
@@ -8720,17 +10208,17 @@
       <c r="T185" s="1"/>
     </row>
     <row r="186" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B186" s="49"/>
-      <c r="C186" s="49"/>
-      <c r="D186" s="52"/>
-      <c r="E186" s="52"/>
-      <c r="F186" s="55"/>
-      <c r="G186" s="52"/>
-      <c r="H186" s="52"/>
-      <c r="I186" s="52"/>
-      <c r="J186" s="52"/>
-      <c r="K186" s="52"/>
-      <c r="L186" s="47"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="58"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="64"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="50"/>
+      <c r="J186" s="50"/>
+      <c r="K186" s="50"/>
+      <c r="L186" s="61"/>
       <c r="M186" s="12">
         <v>3</v>
       </c>
@@ -8743,17 +10231,17 @@
       <c r="T186" s="1"/>
     </row>
     <row r="187" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B187" s="49"/>
-      <c r="C187" s="49"/>
-      <c r="D187" s="52"/>
-      <c r="E187" s="52"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="52"/>
-      <c r="H187" s="52"/>
-      <c r="I187" s="52"/>
-      <c r="J187" s="52"/>
-      <c r="K187" s="52"/>
-      <c r="L187" s="47"/>
+      <c r="B187" s="58"/>
+      <c r="C187" s="58"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="64"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="50"/>
+      <c r="J187" s="50"/>
+      <c r="K187" s="50"/>
+      <c r="L187" s="61"/>
       <c r="M187" s="12">
         <v>4</v>
       </c>
@@ -8766,17 +10254,17 @@
       <c r="T187" s="1"/>
     </row>
     <row r="188" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B188" s="49"/>
-      <c r="C188" s="49"/>
-      <c r="D188" s="52"/>
-      <c r="E188" s="52"/>
-      <c r="F188" s="55"/>
-      <c r="G188" s="52"/>
-      <c r="H188" s="52"/>
-      <c r="I188" s="52"/>
-      <c r="J188" s="52"/>
-      <c r="K188" s="52"/>
-      <c r="L188" s="47"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="58"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="64"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+      <c r="J188" s="50"/>
+      <c r="K188" s="50"/>
+      <c r="L188" s="61"/>
       <c r="M188" s="12">
         <v>5</v>
       </c>
@@ -8789,17 +10277,17 @@
       <c r="T188" s="1"/>
     </row>
     <row r="189" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B189" s="49"/>
-      <c r="C189" s="49"/>
-      <c r="D189" s="52"/>
-      <c r="E189" s="52"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="52"/>
-      <c r="H189" s="52"/>
-      <c r="I189" s="52"/>
-      <c r="J189" s="52"/>
-      <c r="K189" s="52"/>
-      <c r="L189" s="44" t="s">
+      <c r="B189" s="58"/>
+      <c r="C189" s="58"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="64"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="50"/>
+      <c r="J189" s="50"/>
+      <c r="K189" s="50"/>
+      <c r="L189" s="52" t="s">
         <v>66</v>
       </c>
       <c r="M189" s="5">
@@ -8814,17 +10302,17 @@
       <c r="T189" s="1"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B190" s="49"/>
-      <c r="C190" s="49"/>
-      <c r="D190" s="52"/>
-      <c r="E190" s="52"/>
-      <c r="F190" s="55"/>
-      <c r="G190" s="52"/>
-      <c r="H190" s="52"/>
-      <c r="I190" s="52"/>
-      <c r="J190" s="52"/>
-      <c r="K190" s="52"/>
-      <c r="L190" s="45"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="58"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="64"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
+      <c r="I190" s="50"/>
+      <c r="J190" s="50"/>
+      <c r="K190" s="50"/>
+      <c r="L190" s="53"/>
       <c r="M190" s="12">
         <v>2</v>
       </c>
@@ -8837,17 +10325,17 @@
       <c r="T190" s="1"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B191" s="49"/>
-      <c r="C191" s="49"/>
-      <c r="D191" s="52"/>
-      <c r="E191" s="52"/>
-      <c r="F191" s="55"/>
-      <c r="G191" s="52"/>
-      <c r="H191" s="52"/>
-      <c r="I191" s="52"/>
-      <c r="J191" s="52"/>
-      <c r="K191" s="52"/>
-      <c r="L191" s="45"/>
+      <c r="B191" s="58"/>
+      <c r="C191" s="58"/>
+      <c r="D191" s="50"/>
+      <c r="E191" s="50"/>
+      <c r="F191" s="64"/>
+      <c r="G191" s="50"/>
+      <c r="H191" s="50"/>
+      <c r="I191" s="50"/>
+      <c r="J191" s="50"/>
+      <c r="K191" s="50"/>
+      <c r="L191" s="53"/>
       <c r="M191" s="12">
         <v>3</v>
       </c>
@@ -8860,17 +10348,17 @@
       <c r="T191" s="1"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B192" s="49"/>
-      <c r="C192" s="49"/>
-      <c r="D192" s="52"/>
-      <c r="E192" s="52"/>
-      <c r="F192" s="55"/>
-      <c r="G192" s="52"/>
-      <c r="H192" s="52"/>
-      <c r="I192" s="52"/>
-      <c r="J192" s="52"/>
-      <c r="K192" s="52"/>
-      <c r="L192" s="45"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="58"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="64"/>
+      <c r="G192" s="50"/>
+      <c r="H192" s="50"/>
+      <c r="I192" s="50"/>
+      <c r="J192" s="50"/>
+      <c r="K192" s="50"/>
+      <c r="L192" s="53"/>
       <c r="M192" s="12">
         <v>4</v>
       </c>
@@ -8883,17 +10371,17 @@
       <c r="T192" s="1"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B193" s="49"/>
-      <c r="C193" s="49"/>
-      <c r="D193" s="52"/>
-      <c r="E193" s="52"/>
-      <c r="F193" s="55"/>
-      <c r="G193" s="52"/>
-      <c r="H193" s="52"/>
-      <c r="I193" s="52"/>
-      <c r="J193" s="52"/>
-      <c r="K193" s="52"/>
-      <c r="L193" s="45"/>
+      <c r="B193" s="58"/>
+      <c r="C193" s="58"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="64"/>
+      <c r="G193" s="50"/>
+      <c r="H193" s="50"/>
+      <c r="I193" s="50"/>
+      <c r="J193" s="50"/>
+      <c r="K193" s="50"/>
+      <c r="L193" s="53"/>
       <c r="M193" s="12">
         <v>5</v>
       </c>
@@ -8906,17 +10394,17 @@
       <c r="T193" s="1"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B194" s="49"/>
-      <c r="C194" s="49"/>
-      <c r="D194" s="52"/>
-      <c r="E194" s="52"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="52"/>
-      <c r="H194" s="52"/>
-      <c r="I194" s="52"/>
-      <c r="J194" s="52"/>
-      <c r="K194" s="52"/>
-      <c r="L194" s="44" t="s">
+      <c r="B194" s="58"/>
+      <c r="C194" s="58"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="64"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="50"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="50"/>
+      <c r="L194" s="52" t="s">
         <v>67</v>
       </c>
       <c r="M194" s="5">
@@ -8931,17 +10419,17 @@
       <c r="T194" s="1"/>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B195" s="49"/>
-      <c r="C195" s="49"/>
-      <c r="D195" s="52"/>
-      <c r="E195" s="52"/>
-      <c r="F195" s="55"/>
-      <c r="G195" s="52"/>
-      <c r="H195" s="52"/>
-      <c r="I195" s="52"/>
-      <c r="J195" s="52"/>
-      <c r="K195" s="52"/>
-      <c r="L195" s="45"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="58"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="64"/>
+      <c r="G195" s="50"/>
+      <c r="H195" s="50"/>
+      <c r="I195" s="50"/>
+      <c r="J195" s="50"/>
+      <c r="K195" s="50"/>
+      <c r="L195" s="53"/>
       <c r="M195" s="12">
         <v>2</v>
       </c>
@@ -8954,17 +10442,17 @@
       <c r="T195" s="1"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B196" s="49"/>
-      <c r="C196" s="49"/>
-      <c r="D196" s="52"/>
-      <c r="E196" s="52"/>
-      <c r="F196" s="55"/>
-      <c r="G196" s="52"/>
-      <c r="H196" s="52"/>
-      <c r="I196" s="52"/>
-      <c r="J196" s="52"/>
-      <c r="K196" s="52"/>
-      <c r="L196" s="45"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="64"/>
+      <c r="G196" s="50"/>
+      <c r="H196" s="50"/>
+      <c r="I196" s="50"/>
+      <c r="J196" s="50"/>
+      <c r="K196" s="50"/>
+      <c r="L196" s="53"/>
       <c r="M196" s="12">
         <v>3</v>
       </c>
@@ -8977,17 +10465,17 @@
       <c r="T196" s="1"/>
     </row>
     <row r="197" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B197" s="49"/>
-      <c r="C197" s="49"/>
-      <c r="D197" s="52"/>
-      <c r="E197" s="52"/>
-      <c r="F197" s="55"/>
-      <c r="G197" s="52"/>
-      <c r="H197" s="52"/>
-      <c r="I197" s="52"/>
-      <c r="J197" s="52"/>
-      <c r="K197" s="52"/>
-      <c r="L197" s="45"/>
+      <c r="B197" s="58"/>
+      <c r="C197" s="58"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="64"/>
+      <c r="G197" s="50"/>
+      <c r="H197" s="50"/>
+      <c r="I197" s="50"/>
+      <c r="J197" s="50"/>
+      <c r="K197" s="50"/>
+      <c r="L197" s="53"/>
       <c r="M197" s="12">
         <v>4</v>
       </c>
@@ -9000,17 +10488,17 @@
       <c r="T197" s="1"/>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B198" s="50"/>
-      <c r="C198" s="50"/>
-      <c r="D198" s="53"/>
-      <c r="E198" s="53"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="53"/>
-      <c r="H198" s="53"/>
-      <c r="I198" s="53"/>
-      <c r="J198" s="53"/>
-      <c r="K198" s="53"/>
-      <c r="L198" s="45"/>
+      <c r="B198" s="59"/>
+      <c r="C198" s="59"/>
+      <c r="D198" s="51"/>
+      <c r="E198" s="51"/>
+      <c r="F198" s="65"/>
+      <c r="G198" s="51"/>
+      <c r="H198" s="51"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="51"/>
+      <c r="K198" s="51"/>
+      <c r="L198" s="53"/>
       <c r="M198" s="12">
         <v>5</v>
       </c>
@@ -9024,6 +10512,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="L179:L183"/>
+    <mergeCell ref="L184:L188"/>
+    <mergeCell ref="L189:L193"/>
+    <mergeCell ref="L194:L198"/>
+    <mergeCell ref="B149:B198"/>
+    <mergeCell ref="C149:C198"/>
+    <mergeCell ref="D149:D198"/>
+    <mergeCell ref="E149:E198"/>
+    <mergeCell ref="F149:F198"/>
+    <mergeCell ref="G149:G198"/>
+    <mergeCell ref="L164:L168"/>
+    <mergeCell ref="L149:L153"/>
+    <mergeCell ref="L154:L158"/>
+    <mergeCell ref="L159:L163"/>
+    <mergeCell ref="L174:L178"/>
+    <mergeCell ref="L124:L128"/>
+    <mergeCell ref="L99:L103"/>
+    <mergeCell ref="L104:L108"/>
+    <mergeCell ref="L109:L113"/>
+    <mergeCell ref="L114:L118"/>
+    <mergeCell ref="L129:L133"/>
+    <mergeCell ref="L134:L138"/>
+    <mergeCell ref="L139:L143"/>
+    <mergeCell ref="L144:L148"/>
+    <mergeCell ref="L169:L173"/>
+    <mergeCell ref="F79:F148"/>
+    <mergeCell ref="G79:G148"/>
+    <mergeCell ref="H79:H148"/>
+    <mergeCell ref="I79:I148"/>
+    <mergeCell ref="J79:J148"/>
+    <mergeCell ref="H9:H78"/>
+    <mergeCell ref="I9:I78"/>
+    <mergeCell ref="J9:J78"/>
+    <mergeCell ref="K9:K78"/>
+    <mergeCell ref="H149:H198"/>
+    <mergeCell ref="I149:I198"/>
+    <mergeCell ref="J149:J198"/>
+    <mergeCell ref="K149:K198"/>
+    <mergeCell ref="K79:K148"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L69:L73"/>
+    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="L89:L93"/>
+    <mergeCell ref="L84:L88"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="L59:L63"/>
     <mergeCell ref="O14:O18"/>
     <mergeCell ref="G9:G78"/>
     <mergeCell ref="L34:L38"/>
@@ -9040,59 +10581,6 @@
     <mergeCell ref="L94:L98"/>
     <mergeCell ref="L79:L83"/>
     <mergeCell ref="L64:L68"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="L74:L78"/>
-    <mergeCell ref="L89:L93"/>
-    <mergeCell ref="L84:L88"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="H9:H78"/>
-    <mergeCell ref="I9:I78"/>
-    <mergeCell ref="J9:J78"/>
-    <mergeCell ref="K9:K78"/>
-    <mergeCell ref="H149:H198"/>
-    <mergeCell ref="I149:I198"/>
-    <mergeCell ref="J149:J198"/>
-    <mergeCell ref="K149:K198"/>
-    <mergeCell ref="K79:K148"/>
-    <mergeCell ref="F79:F148"/>
-    <mergeCell ref="G79:G148"/>
-    <mergeCell ref="H79:H148"/>
-    <mergeCell ref="I79:I148"/>
-    <mergeCell ref="J79:J148"/>
-    <mergeCell ref="L129:L133"/>
-    <mergeCell ref="L134:L138"/>
-    <mergeCell ref="L139:L143"/>
-    <mergeCell ref="L144:L148"/>
-    <mergeCell ref="L169:L173"/>
-    <mergeCell ref="L124:L128"/>
-    <mergeCell ref="L99:L103"/>
-    <mergeCell ref="L104:L108"/>
-    <mergeCell ref="L109:L113"/>
-    <mergeCell ref="L114:L118"/>
-    <mergeCell ref="L179:L183"/>
-    <mergeCell ref="L184:L188"/>
-    <mergeCell ref="L189:L193"/>
-    <mergeCell ref="L194:L198"/>
-    <mergeCell ref="B149:B198"/>
-    <mergeCell ref="C149:C198"/>
-    <mergeCell ref="D149:D198"/>
-    <mergeCell ref="E149:E198"/>
-    <mergeCell ref="F149:F198"/>
-    <mergeCell ref="G149:G198"/>
-    <mergeCell ref="L164:L168"/>
-    <mergeCell ref="L149:L153"/>
-    <mergeCell ref="L154:L158"/>
-    <mergeCell ref="L159:L163"/>
-    <mergeCell ref="L174:L178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>

--- a/informeMensualJulio2022.xlsx
+++ b/informeMensualJulio2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DB763-ABC2-48FE-AB9E-67D74B59CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F997C98-9A1F-4419-876A-3A25A3E73648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,8 +38,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Manuel</author>
+  </authors>
+  <commentList>
+    <comment ref="F54" authorId="0" shapeId="0" xr:uid="{D9164912-C7FF-4124-8D22-C4DA9258175A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aniversario de la facultad. Video constará la próxima semana.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="98">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -393,11 +427,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -472,6 +513,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -570,9 +624,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -580,19 +634,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,81 +655,153 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,83 +812,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1128,7 +1188,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,11 +1210,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="52">
         <f ca="1">NOW()</f>
-        <v>44761.890328125002</v>
-      </c>
-      <c r="K3" s="45"/>
+        <v>44768.866413310185</v>
+      </c>
+      <c r="K3" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -1871,8 +1931,10 @@
       <c r="D34" s="24">
         <v>1</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="42" t="s">
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="19"/>
@@ -1911,8 +1973,10 @@
       <c r="D36" s="24">
         <v>1</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="42" t="s">
+      <c r="E36" s="19">
+        <v>0</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="19"/>
@@ -1936,8 +2000,10 @@
       <c r="D37" s="24">
         <v>1</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G37" s="19"/>
@@ -1961,8 +2027,10 @@
       <c r="D38" s="24">
         <v>1</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="42" t="s">
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G38" s="19"/>
@@ -1986,8 +2054,10 @@
       <c r="D39" s="24">
         <v>1</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="42" t="s">
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="19"/>
@@ -2011,8 +2081,10 @@
       <c r="D40" s="24">
         <v>1</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="42" t="s">
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G40" s="19"/>
@@ -2036,8 +2108,10 @@
       <c r="D41" s="24">
         <v>1</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G41" s="19"/>
@@ -2061,8 +2135,10 @@
       <c r="D42" s="24">
         <v>1</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="42" t="s">
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G42" s="19"/>
@@ -2086,8 +2162,10 @@
       <c r="D43" s="24">
         <v>1</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="42" t="s">
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G43" s="19"/>
@@ -2111,8 +2189,10 @@
       <c r="D44" s="24">
         <v>1</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="42" t="s">
+      <c r="E44" s="19">
+        <v>0</v>
+      </c>
+      <c r="F44" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G44" s="19"/>
@@ -2136,8 +2216,10 @@
       <c r="D45" s="24">
         <v>1</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="42" t="s">
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G45" s="19"/>
@@ -2161,8 +2243,10 @@
       <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="42" t="s">
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G46" s="19"/>
@@ -2186,8 +2270,10 @@
       <c r="D47" s="24">
         <v>1</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="42" t="s">
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G47" s="19"/>
@@ -2215,7 +2301,7 @@
       <c r="E48" s="23">
         <v>5</v>
       </c>
-      <c r="F48" s="73" t="s">
+      <c r="F48" s="48" t="s">
         <v>71</v>
       </c>
       <c r="G48" s="23"/>
@@ -2249,9 +2335,15 @@
         <f>$C$48</f>
         <v>4</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="D50" s="26">
+        <v>1</v>
+      </c>
+      <c r="E50" s="23">
+        <v>6</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
@@ -2269,9 +2361,15 @@
         <f t="shared" ref="C51:C61" si="6">$C$48</f>
         <v>4</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="D51" s="26">
+        <v>1</v>
+      </c>
+      <c r="E51" s="23">
+        <v>6</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
@@ -2289,9 +2387,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="D52" s="26">
+        <v>1</v>
+      </c>
+      <c r="E52" s="23">
+        <v>6</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
@@ -2309,9 +2413,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="D53" s="26">
+        <v>1</v>
+      </c>
+      <c r="E53" s="23">
+        <v>6</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
@@ -2329,9 +2439,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="D54" s="26">
+        <v>1</v>
+      </c>
+      <c r="E54" s="23">
+        <v>6</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
@@ -2349,9 +2465,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="D55" s="26">
+        <v>1</v>
+      </c>
+      <c r="E55" s="23">
+        <v>6</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
@@ -2369,9 +2491,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="D56" s="26">
+        <v>1</v>
+      </c>
+      <c r="E56" s="23">
+        <v>6</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
@@ -2389,9 +2517,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="D57" s="26">
+        <v>1</v>
+      </c>
+      <c r="E57" s="23">
+        <v>6</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
@@ -2409,9 +2543,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="D58" s="26">
+        <v>1</v>
+      </c>
+      <c r="E58" s="23">
+        <v>6</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
@@ -2429,9 +2569,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="D59" s="26">
+        <v>1</v>
+      </c>
+      <c r="E59" s="23">
+        <v>6</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
@@ -2449,9 +2595,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="D60" s="26">
+        <v>1</v>
+      </c>
+      <c r="E60" s="23">
+        <v>6</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
@@ -2475,7 +2627,7 @@
       <c r="E61" s="23">
         <v>6</v>
       </c>
-      <c r="F61" s="73" t="s">
+      <c r="F61" s="48" t="s">
         <v>71</v>
       </c>
       <c r="G61" s="23"/>
@@ -2768,12 +2920,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5423BE2-B587-4DF7-A037-E70CF1D766CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5423BE2-B587-4DF7-A037-E70CF1D766CD}">
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q63" sqref="Q63"/>
+      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2784,7 +2936,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2795,11 +2947,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="52">
         <f ca="1">NOW()</f>
-        <v>44761.890328125002</v>
-      </c>
-      <c r="K3" s="45"/>
+        <v>44768.866413310185</v>
+      </c>
+      <c r="K3" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -3165,8 +3317,8 @@
         <f>$C$20</f>
         <v>2</v>
       </c>
-      <c r="D21" s="41">
-        <v>0.94120000000000004</v>
+      <c r="D21" s="37">
+        <v>1</v>
       </c>
       <c r="E21" s="38">
         <v>5</v>
@@ -3195,8 +3347,8 @@
         <f>$C$20</f>
         <v>2</v>
       </c>
-      <c r="D22" s="41">
-        <v>0.94120000000000004</v>
+      <c r="D22" s="37">
+        <v>1</v>
       </c>
       <c r="E22" s="38">
         <v>5</v>
@@ -3559,7 +3711,7 @@
       <c r="E34" s="19">
         <v>4</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="19"/>
@@ -3581,13 +3733,13 @@
         <f>$C$34</f>
         <v>3</v>
       </c>
-      <c r="D35" s="41">
-        <v>0.94120000000000004</v>
+      <c r="D35" s="24">
+        <v>1</v>
       </c>
       <c r="E35" s="19">
         <v>4</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G35" s="19"/>
@@ -3609,13 +3761,13 @@
         <f>$C$34</f>
         <v>3</v>
       </c>
-      <c r="D36" s="41">
-        <v>0.94120000000000004</v>
+      <c r="D36" s="24">
+        <v>1</v>
       </c>
       <c r="E36" s="19">
         <v>4</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="19"/>
@@ -3642,7 +3794,7 @@
       <c r="E37" s="19">
         <v>4</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G37" s="19"/>
@@ -3669,7 +3821,7 @@
       <c r="E38" s="19">
         <v>4</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G38" s="19"/>
@@ -3696,7 +3848,7 @@
       <c r="E39" s="19">
         <v>4</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="19"/>
@@ -3723,7 +3875,7 @@
       <c r="E40" s="19">
         <v>4</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G40" s="19"/>
@@ -3750,7 +3902,7 @@
       <c r="E41" s="19">
         <v>4</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G41" s="19"/>
@@ -3777,7 +3929,7 @@
       <c r="E42" s="19">
         <v>4</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G42" s="19"/>
@@ -3804,7 +3956,7 @@
       <c r="E43" s="19">
         <v>5</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G43" s="19"/>
@@ -3831,7 +3983,7 @@
       <c r="E44" s="19">
         <v>5</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G44" s="19"/>
@@ -3858,7 +4010,7 @@
       <c r="E45" s="19">
         <v>4</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G45" s="19"/>
@@ -3885,7 +4037,7 @@
       <c r="E46" s="19">
         <v>4</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G46" s="19"/>
@@ -3912,7 +4064,7 @@
       <c r="E47" s="19">
         <v>4</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G47" s="19"/>
@@ -3940,7 +4092,7 @@
       <c r="E48" s="36">
         <v>5</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="49" t="s">
         <v>71</v>
       </c>
       <c r="G48" s="36"/>
@@ -3962,11 +4114,19 @@
         <f>$C$48</f>
         <v>4</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
+      <c r="D49" s="37">
+        <v>1</v>
+      </c>
+      <c r="E49" s="36">
+        <v>5</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36">
+        <v>1</v>
+      </c>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
     </row>
@@ -3982,11 +4142,19 @@
         <f>$C$48</f>
         <v>4</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="D50" s="37">
+        <v>1</v>
+      </c>
+      <c r="E50" s="36">
+        <v>5</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
+      <c r="H50" s="36">
+        <v>1</v>
+      </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
     </row>
@@ -4002,11 +4170,19 @@
         <f t="shared" ref="C51:C61" si="6">$C$48</f>
         <v>4</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
+      <c r="D51" s="37">
+        <v>1</v>
+      </c>
+      <c r="E51" s="36">
+        <v>5</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+      <c r="H51" s="36">
+        <v>1</v>
+      </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
     </row>
@@ -4022,11 +4198,19 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
+      <c r="D52" s="37">
+        <v>1</v>
+      </c>
+      <c r="E52" s="36">
+        <v>5</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
+      <c r="H52" s="36">
+        <v>1</v>
+      </c>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
     </row>
@@ -4042,11 +4226,19 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
+      <c r="D53" s="37">
+        <v>1</v>
+      </c>
+      <c r="E53" s="36">
+        <v>5</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
+      <c r="H53" s="36">
+        <v>1</v>
+      </c>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
     </row>
@@ -4062,11 +4254,17 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
+      <c r="D54" s="37">
+        <v>1</v>
+      </c>
+      <c r="E54" s="36">
+        <v>5</v>
+      </c>
+      <c r="F54" s="51"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
+      <c r="H54" s="36">
+        <v>1</v>
+      </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
     </row>
@@ -4088,7 +4286,7 @@
       <c r="E55" s="36">
         <v>5</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="49" t="s">
         <v>71</v>
       </c>
       <c r="G55" s="36"/>
@@ -4116,7 +4314,7 @@
       <c r="E56" s="36">
         <v>5</v>
       </c>
-      <c r="F56" s="74" t="s">
+      <c r="F56" s="49" t="s">
         <v>71</v>
       </c>
       <c r="G56" s="36"/>
@@ -4138,12 +4336,22 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
+      <c r="D57" s="37">
+        <v>1</v>
+      </c>
+      <c r="E57" s="36">
+        <v>5</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="H57" s="36">
+        <v>1</v>
+      </c>
+      <c r="I57" s="36">
+        <v>1</v>
+      </c>
       <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,12 +4366,22 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
+      <c r="D58" s="37">
+        <v>1</v>
+      </c>
+      <c r="E58" s="36">
+        <v>5</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="H58" s="36">
+        <v>1</v>
+      </c>
+      <c r="I58" s="36">
+        <v>1</v>
+      </c>
       <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4178,11 +4396,19 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
+      <c r="D59" s="37">
+        <v>1</v>
+      </c>
+      <c r="E59" s="36">
+        <v>5</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
+      <c r="H59" s="36">
+        <v>1</v>
+      </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
     </row>
@@ -4198,11 +4424,19 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
+      <c r="D60" s="37">
+        <v>1</v>
+      </c>
+      <c r="E60" s="36">
+        <v>5</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
+      <c r="H60" s="36">
+        <v>1</v>
+      </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
     </row>
@@ -4218,11 +4452,19 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
+      <c r="D61" s="37">
+        <v>1</v>
+      </c>
+      <c r="E61" s="36">
+        <v>5</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
+      <c r="H61" s="36">
+        <v>1</v>
+      </c>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
     </row>
@@ -4513,6 +4755,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4522,7 +4765,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4533,7 +4776,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4544,11 +4787,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="52">
         <f ca="1">NOW()</f>
-        <v>44761.890328125002</v>
-      </c>
-      <c r="K3" s="45"/>
+        <v>44768.866413310185</v>
+      </c>
+      <c r="K3" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -4604,8 +4847,14 @@
       <c r="A7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="19">
+        <f>B6</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="19">
+        <f>C6</f>
+        <v>1</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -4784,261 +5033,261 @@
       <c r="A16" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="43">
         <f>B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="43">
         <f>C15+1</f>
         <v>2</v>
       </c>
-      <c r="D16" s="69">
-        <v>1</v>
-      </c>
-      <c r="E16" s="68">
-        <v>1</v>
-      </c>
-      <c r="F16" s="70" t="s">
+      <c r="D16" s="44">
+        <v>1</v>
+      </c>
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="43">
         <f>$B$16</f>
         <v>7</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="43">
         <f>$C$16</f>
         <v>2</v>
       </c>
-      <c r="D17" s="69">
-        <v>1</v>
-      </c>
-      <c r="E17" s="68">
-        <v>1</v>
-      </c>
-      <c r="F17" s="71" t="s">
+      <c r="D17" s="44">
+        <v>1</v>
+      </c>
+      <c r="E17" s="43">
+        <v>1</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="68"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="43">
         <f>$B$16</f>
         <v>7</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="43">
         <f>$C$16</f>
         <v>2</v>
       </c>
-      <c r="D18" s="69">
-        <v>1</v>
-      </c>
-      <c r="E18" s="68">
-        <v>1</v>
-      </c>
-      <c r="F18" s="70" t="s">
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="43">
+        <v>1</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="68"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="43">
         <f t="shared" ref="B19:B25" si="2">$B$16</f>
         <v>7</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="43">
         <f t="shared" ref="C19:C25" si="3">$C$16</f>
         <v>2</v>
       </c>
-      <c r="D19" s="69">
-        <v>1</v>
-      </c>
-      <c r="E19" s="68">
-        <v>1</v>
-      </c>
-      <c r="F19" s="70" t="s">
+      <c r="D19" s="44">
+        <v>1</v>
+      </c>
+      <c r="E19" s="43">
+        <v>1</v>
+      </c>
+      <c r="F19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="43">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D20" s="69">
-        <v>1</v>
-      </c>
-      <c r="E20" s="68">
-        <v>1</v>
-      </c>
-      <c r="F20" s="70" t="s">
+      <c r="D20" s="44">
+        <v>1</v>
+      </c>
+      <c r="E20" s="43">
+        <v>1</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="68"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="43">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D21" s="69">
-        <v>1</v>
-      </c>
-      <c r="E21" s="68">
-        <v>1</v>
-      </c>
-      <c r="F21" s="70" t="s">
+      <c r="D21" s="44">
+        <v>1</v>
+      </c>
+      <c r="E21" s="43">
+        <v>1</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="68"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="43">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D22" s="69">
-        <v>1</v>
-      </c>
-      <c r="E22" s="68">
-        <v>1</v>
-      </c>
-      <c r="F22" s="70" t="s">
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
+      <c r="E22" s="43">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="68"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="43">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D23" s="69">
-        <v>1</v>
-      </c>
-      <c r="E23" s="68">
-        <v>1</v>
-      </c>
-      <c r="F23" s="70" t="s">
+      <c r="D23" s="44">
+        <v>1</v>
+      </c>
+      <c r="E23" s="43">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="68"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="43">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D24" s="69">
-        <v>1</v>
-      </c>
-      <c r="E24" s="68">
-        <v>1</v>
-      </c>
-      <c r="F24" s="70" t="s">
+      <c r="D24" s="44">
+        <v>1</v>
+      </c>
+      <c r="E24" s="43">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="68"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="43">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="44">
         <v>0.1</v>
       </c>
-      <c r="E25" s="68">
-        <v>1</v>
-      </c>
-      <c r="F25" s="70" t="s">
+      <c r="E25" s="43">
+        <v>1</v>
+      </c>
+      <c r="F25" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="68"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
@@ -5058,7 +5307,7 @@
       <c r="E26" s="19">
         <v>2</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="19"/>
@@ -5084,7 +5333,7 @@
       <c r="E27" s="19">
         <v>2</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="19"/>
@@ -5110,7 +5359,7 @@
       <c r="E28" s="19">
         <v>2</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="19"/>
@@ -5135,7 +5384,7 @@
       <c r="E29" s="19">
         <v>2</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="19"/>
@@ -5160,7 +5409,7 @@
       <c r="E30" s="19">
         <v>2</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="19"/>
@@ -5185,7 +5434,7 @@
       <c r="E31" s="19">
         <v>2</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="19"/>
@@ -5210,7 +5459,7 @@
       <c r="E32" s="19">
         <v>2</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="19"/>
@@ -5235,7 +5484,7 @@
       <c r="E33" s="19">
         <v>2</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G33" s="19"/>
@@ -5260,7 +5509,7 @@
       <c r="E34" s="19">
         <v>2</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="19"/>
@@ -5285,7 +5534,7 @@
       <c r="E35" s="19">
         <v>2</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G35" s="19"/>
@@ -5297,261 +5546,301 @@
       <c r="A36" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="43">
         <f>B35+1</f>
         <v>9</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="43">
         <f>C35+1</f>
         <v>4</v>
       </c>
-      <c r="D36" s="69">
-        <v>1</v>
-      </c>
-      <c r="E36" s="68">
-        <v>2</v>
-      </c>
-      <c r="F36" s="72" t="s">
+      <c r="D36" s="44">
+        <v>1</v>
+      </c>
+      <c r="E36" s="43">
+        <v>2</v>
+      </c>
+      <c r="F36" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68">
-        <v>1</v>
-      </c>
-      <c r="I36" s="68">
-        <v>1</v>
-      </c>
-      <c r="J36" s="68"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43">
+        <v>1</v>
+      </c>
+      <c r="I36" s="43">
+        <v>1</v>
+      </c>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="43">
         <f>$B$36</f>
         <v>9</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="43">
         <f>$C$36</f>
         <v>4</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
+      <c r="D37" s="44">
+        <v>1</v>
+      </c>
+      <c r="E37" s="43">
+        <v>2</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43">
+        <v>1</v>
+      </c>
+      <c r="I37" s="43">
+        <v>1</v>
+      </c>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="43">
         <f>$B$36</f>
         <v>9</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="43">
         <f>$C$36</f>
         <v>4</v>
       </c>
-      <c r="D38" s="69">
-        <v>1</v>
-      </c>
-      <c r="E38" s="68">
-        <v>2</v>
-      </c>
-      <c r="F38" s="72" t="s">
+      <c r="D38" s="44">
+        <v>1</v>
+      </c>
+      <c r="E38" s="43">
+        <v>2</v>
+      </c>
+      <c r="F38" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68">
-        <v>1</v>
-      </c>
-      <c r="I38" s="68">
-        <v>1</v>
-      </c>
-      <c r="J38" s="68"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43">
+        <v>1</v>
+      </c>
+      <c r="I38" s="43">
+        <v>1</v>
+      </c>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="68">
+      <c r="B39" s="43">
         <f t="shared" ref="B39:B45" si="5">$B$36</f>
         <v>9</v>
       </c>
-      <c r="C39" s="68">
+      <c r="C39" s="43">
         <f t="shared" ref="C39:C45" si="6">$C$36</f>
         <v>4</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
+      <c r="D39" s="44">
+        <v>1</v>
+      </c>
+      <c r="E39" s="43">
+        <v>2</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43">
+        <v>1</v>
+      </c>
+      <c r="I39" s="43">
+        <v>1</v>
+      </c>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="68">
+      <c r="B40" s="43">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C40" s="68">
+      <c r="C40" s="43">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D40" s="69">
-        <v>1</v>
-      </c>
-      <c r="E40" s="68">
-        <v>2</v>
-      </c>
-      <c r="F40" s="72" t="s">
+      <c r="D40" s="44">
+        <v>1</v>
+      </c>
+      <c r="E40" s="43">
+        <v>2</v>
+      </c>
+      <c r="F40" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68">
-        <v>1</v>
-      </c>
-      <c r="I40" s="68">
-        <v>1</v>
-      </c>
-      <c r="J40" s="68"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43">
+        <v>1</v>
+      </c>
+      <c r="I40" s="43">
+        <v>1</v>
+      </c>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="68">
+      <c r="B41" s="43">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C41" s="68">
+      <c r="C41" s="43">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D41" s="69">
-        <v>1</v>
-      </c>
-      <c r="E41" s="68">
-        <v>2</v>
-      </c>
-      <c r="F41" s="72" t="s">
+      <c r="D41" s="44">
+        <v>1</v>
+      </c>
+      <c r="E41" s="43">
+        <v>2</v>
+      </c>
+      <c r="F41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68">
-        <v>1</v>
-      </c>
-      <c r="I41" s="68">
-        <v>1</v>
-      </c>
-      <c r="J41" s="68"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43">
+        <v>1</v>
+      </c>
+      <c r="I41" s="43">
+        <v>1</v>
+      </c>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="68">
+      <c r="B42" s="43">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="43">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+      <c r="E42" s="43">
+        <v>2</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43">
+        <v>1</v>
+      </c>
+      <c r="I42" s="43">
+        <v>1</v>
+      </c>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="68">
+      <c r="B43" s="43">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C43" s="68">
+      <c r="C43" s="43">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D43" s="69">
-        <v>1</v>
-      </c>
-      <c r="E43" s="68">
-        <v>2</v>
-      </c>
-      <c r="F43" s="72" t="s">
+      <c r="D43" s="44">
+        <v>1</v>
+      </c>
+      <c r="E43" s="43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68">
-        <v>1</v>
-      </c>
-      <c r="I43" s="68">
-        <v>1</v>
-      </c>
-      <c r="J43" s="68"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="68">
+      <c r="B44" s="43">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C44" s="68">
+      <c r="C44" s="43">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D44" s="69">
-        <v>1</v>
-      </c>
-      <c r="E44" s="68">
-        <v>2</v>
-      </c>
-      <c r="F44" s="72" t="s">
+      <c r="D44" s="44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="43">
+        <v>2</v>
+      </c>
+      <c r="F44" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68">
-        <v>1</v>
-      </c>
-      <c r="I44" s="68">
-        <v>1</v>
-      </c>
-      <c r="J44" s="68"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43">
+        <v>1</v>
+      </c>
+      <c r="I44" s="43">
+        <v>1</v>
+      </c>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="68">
+      <c r="B45" s="43">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C45" s="68">
+      <c r="C45" s="43">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
+      <c r="D45" s="44">
+        <v>1</v>
+      </c>
+      <c r="E45" s="43">
+        <v>2</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43">
+        <v>1</v>
+      </c>
+      <c r="I45" s="43">
+        <v>1</v>
+      </c>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
@@ -5567,7 +5856,7 @@
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -5767,8 +6056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T198"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F112" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L144" sqref="L144:L148"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O198" sqref="O198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5867,38 +6156,38 @@
       <c r="C9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="76" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="63">
         <v>1</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="54" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
       </c>
       <c r="N9" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E6=0,"",'ROSMAIRA CLASSES'!E6)</f>
+        <f>IF('ROSMAIRA CLASSES'!E6="","",'ROSMAIRA CLASSES'!E6)</f>
         <v/>
       </c>
       <c r="O9" s="32" t="str">
@@ -5914,24 +6203,24 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="64"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="53"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="55"/>
       <c r="M10" s="12">
         <v>2</v>
       </c>
       <c r="N10" s="12">
-        <f>IF('ROSMAIRA CLASSES'!E20=0,"",'ROSMAIRA CLASSES'!E20)</f>
+        <f>IF('ROSMAIRA CLASSES'!E20="","",'ROSMAIRA CLASSES'!E20)</f>
         <v>3</v>
       </c>
       <c r="O10" s="15" t="str">
-        <f>IF(N10="","Día de mes anterior",'ROSMAIRA CLASSES'!F20)</f>
+        <f>IF(N10="","",'ROSMAIRA CLASSES'!F20)</f>
         <v>Sí</v>
       </c>
       <c r="P10" s="1"/>
@@ -5943,25 +6232,25 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="64"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="53"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="12">
         <v>3</v>
       </c>
-      <c r="N11" s="12" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E34=0,"",'ROSMAIRA CLASSES'!E34)</f>
-        <v/>
+      <c r="N11" s="12">
+        <f>IF('ROSMAIRA CLASSES'!E34="","",'ROSMAIRA CLASSES'!E34)</f>
+        <v>0</v>
       </c>
       <c r="O11" s="4" t="str">
         <f>IF(N11="","",'ROSMAIRA CLASSES'!F34)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -5972,20 +6261,20 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="53"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="12">
         <v>4</v>
       </c>
       <c r="N12" s="12">
-        <f>IF('ROSMAIRA CLASSES'!E48=0,"",'ROSMAIRA CLASSES'!E48)</f>
+        <f>IF('ROSMAIRA CLASSES'!E48="","",'ROSMAIRA CLASSES'!E48)</f>
         <v>5</v>
       </c>
       <c r="O12" s="4" t="str">
@@ -6001,25 +6290,25 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="64"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="53"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="55"/>
       <c r="M13" s="12">
         <v>5</v>
       </c>
       <c r="N13" s="12" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E62=0,"",'ROSMAIRA CLASSES'!E62)</f>
+        <f>IF('ROSMAIRA CLASSES'!E62="","",'ROSMAIRA CLASSES'!E62)</f>
         <v/>
       </c>
       <c r="O13" s="4" t="str">
-        <f>IF(N13="","",'ROSMAIRA CLASSES'!F62)</f>
-        <v/>
+        <f>IF(N13="","Día de mes siguiente",'ROSMAIRA CLASSES'!F62)</f>
+        <v>Día de mes siguiente</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -6030,22 +6319,22 @@
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="64"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="66" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="68" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="14">
         <v>1</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="46" t="s">
+      <c r="O14" s="70" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="1"/>
@@ -6057,20 +6346,20 @@
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="64"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="67"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="13">
         <v>2</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="47"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -6080,20 +6369,20 @@
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="64"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="67"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="13">
         <v>3</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="47"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6103,20 +6392,20 @@
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="64"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="67"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="13">
         <v>4</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="47"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6126,20 +6415,20 @@
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="64"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="67"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="13">
         <v>5</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="48"/>
+      <c r="O18" s="72"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6149,22 +6438,22 @@
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="64"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="52" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="54" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="5">
         <v>1</v>
       </c>
       <c r="N19" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E8=0,"",'ROSMAIRA CLASSES'!E8)</f>
+        <f>IF('ROSMAIRA CLASSES'!E8="","",'ROSMAIRA CLASSES'!E8)</f>
         <v/>
       </c>
       <c r="O19" s="32" t="str">
@@ -6180,20 +6469,20 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="64"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="53"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="55"/>
       <c r="M20" s="12">
         <v>2</v>
       </c>
       <c r="N20" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E22=0,"",'ROSMAIRA CLASSES'!E22)</f>
+        <f>IF('ROSMAIRA CLASSES'!E22="","",'ROSMAIRA CLASSES'!E22)</f>
         <v>5</v>
       </c>
       <c r="O20" s="32" t="str">
@@ -6209,25 +6498,25 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="64"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="53"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="55"/>
       <c r="M21" s="12">
         <v>3</v>
       </c>
-      <c r="N21" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E36=0,"",'ROSMAIRA CLASSES'!E36)</f>
-        <v/>
+      <c r="N21" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E36="","",'ROSMAIRA CLASSES'!E36)</f>
+        <v>0</v>
       </c>
       <c r="O21" s="31" t="str">
         <f>IF(N21="","",'ROSMAIRA CLASSES'!F36)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6238,25 +6527,25 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="64"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="53"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="55"/>
       <c r="M22" s="12">
         <v>4</v>
       </c>
-      <c r="N22" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E50=0,"",'ROSMAIRA CLASSES'!E50)</f>
-        <v/>
+      <c r="N22" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E50="","",'ROSMAIRA CLASSES'!E50)</f>
+        <v>6</v>
       </c>
       <c r="O22" s="31" t="str">
         <f>IF(N22="","",'ROSMAIRA CLASSES'!F50)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -6267,20 +6556,20 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="64"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="53"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="55"/>
       <c r="M23" s="12">
         <v>5</v>
       </c>
       <c r="N23" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E64=0,"",'ROSMAIRA CLASSES'!E64)</f>
+        <f>IF('ROSMAIRA CLASSES'!E64="","",'ROSMAIRA CLASSES'!E64)</f>
         <v/>
       </c>
       <c r="O23" s="31" t="str">
@@ -6296,22 +6585,22 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="64"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="52" t="s">
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="54" t="s">
         <v>46</v>
       </c>
       <c r="M24" s="5">
         <v>1</v>
       </c>
       <c r="N24" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E9=0,"",'ROSMAIRA CLASSES'!E9)</f>
+        <f>IF('ROSMAIRA CLASSES'!E9="","",'ROSMAIRA CLASSES'!E9)</f>
         <v/>
       </c>
       <c r="O24" s="32" t="str">
@@ -6327,20 +6616,20 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="64"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="53"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="12">
         <v>2</v>
       </c>
       <c r="N25" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E23=0,"",'ROSMAIRA CLASSES'!E23)</f>
+        <f>IF('ROSMAIRA CLASSES'!E23="","",'ROSMAIRA CLASSES'!E23)</f>
         <v>5</v>
       </c>
       <c r="O25" s="32" t="str">
@@ -6356,25 +6645,25 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="64"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="53"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="12">
         <v>3</v>
       </c>
-      <c r="N26" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E37=0,"",'ROSMAIRA CLASSES'!E37)</f>
-        <v/>
+      <c r="N26" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E37="","",'ROSMAIRA CLASSES'!E37)</f>
+        <v>0</v>
       </c>
       <c r="O26" s="31" t="str">
         <f>IF(N26="","",'ROSMAIRA CLASSES'!F37)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -6385,25 +6674,25 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="64"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="53"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="12">
         <v>4</v>
       </c>
-      <c r="N27" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E51=0,"",'ROSMAIRA CLASSES'!E51)</f>
-        <v/>
+      <c r="N27" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E51="","",'ROSMAIRA CLASSES'!E51)</f>
+        <v>6</v>
       </c>
       <c r="O27" s="31" t="str">
         <f>IF(N27="","",'ROSMAIRA CLASSES'!F51)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -6414,20 +6703,20 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="64"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="53"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="55"/>
       <c r="M28" s="12">
         <v>5</v>
       </c>
       <c r="N28" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E65=0,"",'ROSMAIRA CLASSES'!E65)</f>
+        <f>IF('ROSMAIRA CLASSES'!E65="","",'ROSMAIRA CLASSES'!E65)</f>
         <v/>
       </c>
       <c r="O28" s="31" t="str">
@@ -6443,22 +6732,22 @@
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="64"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="52" t="s">
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="54" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="5">
         <v>1</v>
       </c>
       <c r="N29" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E10=0,"",'ROSMAIRA CLASSES'!E10)</f>
+        <f>IF('ROSMAIRA CLASSES'!E10="","",'ROSMAIRA CLASSES'!E10)</f>
         <v/>
       </c>
       <c r="O29" s="32" t="str">
@@ -6474,20 +6763,20 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="64"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="53"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="55"/>
       <c r="M30" s="12">
         <v>2</v>
       </c>
       <c r="N30" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E24=0,"",'ROSMAIRA CLASSES'!E24)</f>
+        <f>IF('ROSMAIRA CLASSES'!E24="","",'ROSMAIRA CLASSES'!E24)</f>
         <v>5</v>
       </c>
       <c r="O30" s="32" t="str">
@@ -6503,25 +6792,25 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="64"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="53"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="55"/>
       <c r="M31" s="12">
         <v>3</v>
       </c>
-      <c r="N31" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E38=0,"",'ROSMAIRA CLASSES'!E38)</f>
-        <v/>
+      <c r="N31" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E38="","",'ROSMAIRA CLASSES'!E38)</f>
+        <v>0</v>
       </c>
       <c r="O31" s="31" t="str">
         <f>IF(N31="","",'ROSMAIRA CLASSES'!F38)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -6532,25 +6821,25 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="64"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="53"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="55"/>
       <c r="M32" s="12">
         <v>4</v>
       </c>
-      <c r="N32" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E52=0,"",'ROSMAIRA CLASSES'!E52)</f>
-        <v/>
+      <c r="N32" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E52="","",'ROSMAIRA CLASSES'!E52)</f>
+        <v>6</v>
       </c>
       <c r="O32" s="31" t="str">
         <f>IF(N32="","",'ROSMAIRA CLASSES'!F52)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -6561,20 +6850,20 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="58"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="64"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="53"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="55"/>
       <c r="M33" s="12">
         <v>5</v>
       </c>
       <c r="N33" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E66=0,"",'ROSMAIRA CLASSES'!E66)</f>
+        <f>IF('ROSMAIRA CLASSES'!E66="","",'ROSMAIRA CLASSES'!E66)</f>
         <v/>
       </c>
       <c r="O33" s="31" t="str">
@@ -6590,22 +6879,22 @@
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="58"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="64"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="52" t="s">
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="54" t="s">
         <v>28</v>
       </c>
       <c r="M34" s="5">
         <v>1</v>
       </c>
       <c r="N34" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E11=0,"",'ROSMAIRA CLASSES'!E11)</f>
+        <f>IF('ROSMAIRA CLASSES'!E11="","",'ROSMAIRA CLASSES'!E11)</f>
         <v/>
       </c>
       <c r="O34" s="32" t="str">
@@ -6621,20 +6910,20 @@
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="64"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="53"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="55"/>
       <c r="M35" s="12">
         <v>2</v>
       </c>
       <c r="N35" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E25=0,"",'ROSMAIRA CLASSES'!E25)</f>
+        <f>IF('ROSMAIRA CLASSES'!E25="","",'ROSMAIRA CLASSES'!E25)</f>
         <v>5</v>
       </c>
       <c r="O35" s="32" t="str">
@@ -6650,25 +6939,25 @@
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="64"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="53"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="55"/>
       <c r="M36" s="12">
         <v>3</v>
       </c>
-      <c r="N36" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E39=0,"",'ROSMAIRA CLASSES'!E39)</f>
-        <v/>
+      <c r="N36" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E39="","",'ROSMAIRA CLASSES'!E39)</f>
+        <v>0</v>
       </c>
       <c r="O36" s="31" t="str">
         <f>IF(N36="","",'ROSMAIRA CLASSES'!F39)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -6679,25 +6968,25 @@
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="64"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="53"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="55"/>
       <c r="M37" s="12">
         <v>4</v>
       </c>
-      <c r="N37" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E53=0,"",'ROSMAIRA CLASSES'!E53)</f>
-        <v/>
+      <c r="N37" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E53="","",'ROSMAIRA CLASSES'!E53)</f>
+        <v>6</v>
       </c>
       <c r="O37" s="31" t="str">
         <f>IF(N37="","",'ROSMAIRA CLASSES'!F53)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -6708,20 +6997,20 @@
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="64"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="53"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="55"/>
       <c r="M38" s="12">
         <v>5</v>
       </c>
       <c r="N38" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E67=0,"",'ROSMAIRA CLASSES'!E67)</f>
+        <f>IF('ROSMAIRA CLASSES'!E67="","",'ROSMAIRA CLASSES'!E67)</f>
         <v/>
       </c>
       <c r="O38" s="31" t="str">
@@ -6737,22 +7026,22 @@
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="64"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="52" t="s">
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="54" t="s">
         <v>47</v>
       </c>
       <c r="M39" s="5">
         <v>1</v>
       </c>
       <c r="N39" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E12=0,"",'ROSMAIRA CLASSES'!E12)</f>
+        <f>IF('ROSMAIRA CLASSES'!E12="","",'ROSMAIRA CLASSES'!E12)</f>
         <v/>
       </c>
       <c r="O39" s="32" t="str">
@@ -6768,20 +7057,20 @@
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
       <c r="F40" s="64"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="53"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="55"/>
       <c r="M40" s="12">
         <v>2</v>
       </c>
       <c r="N40" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E26=0,"",'ROSMAIRA CLASSES'!E26)</f>
+        <f>IF('ROSMAIRA CLASSES'!E26="","",'ROSMAIRA CLASSES'!E26)</f>
         <v>5</v>
       </c>
       <c r="O40" s="32" t="str">
@@ -6797,25 +7086,25 @@
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="64"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="53"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="55"/>
       <c r="M41" s="12">
         <v>3</v>
       </c>
-      <c r="N41" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E40=0,"",'ROSMAIRA CLASSES'!E40)</f>
-        <v/>
+      <c r="N41" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E40="","",'ROSMAIRA CLASSES'!E40)</f>
+        <v>0</v>
       </c>
       <c r="O41" s="31" t="str">
         <f>IF(N41="","",'ROSMAIRA CLASSES'!F40)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -6826,25 +7115,25 @@
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
       <c r="F42" s="64"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="53"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="55"/>
       <c r="M42" s="12">
         <v>4</v>
       </c>
-      <c r="N42" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E54=0,"",'ROSMAIRA CLASSES'!E54)</f>
-        <v/>
+      <c r="N42" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E54="","",'ROSMAIRA CLASSES'!E54)</f>
+        <v>6</v>
       </c>
       <c r="O42" s="31" t="str">
         <f>IF(N42="","",'ROSMAIRA CLASSES'!F54)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -6855,24 +7144,24 @@
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="58"/>
       <c r="C43" s="58"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="64"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="53"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="55"/>
       <c r="M43" s="12">
         <v>5</v>
       </c>
       <c r="N43" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E68=0,"",'ROSMAIRA CLASSES'!E68)</f>
+        <f>IF('ROSMAIRA CLASSES'!E68="","",'ROSMAIRA CLASSES'!E68)</f>
         <v/>
       </c>
       <c r="O43" s="31" t="str">
-        <f>IF(N43="","Día de mes siguiente",'ROSMAIRA CLASSES'!F67)</f>
+        <f>IF(N43="","Día de mes siguiente",'ROSMAIRA CLASSES'!F68)</f>
         <v>Día de mes siguiente</v>
       </c>
       <c r="P43" s="1"/>
@@ -6884,22 +7173,22 @@
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
       <c r="F44" s="64"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="60" t="s">
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="66" t="s">
         <v>48</v>
       </c>
       <c r="M44" s="5">
         <v>1</v>
       </c>
       <c r="N44" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E13=0,"",'ROSMAIRA CLASSES'!E13)</f>
+        <f>IF('ROSMAIRA CLASSES'!E13="","",'ROSMAIRA CLASSES'!E13)</f>
         <v>6</v>
       </c>
       <c r="O44" s="32" t="str">
@@ -6915,20 +7204,20 @@
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="58"/>
       <c r="C45" s="58"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="64"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="67"/>
       <c r="M45" s="12">
         <v>2</v>
       </c>
       <c r="N45" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E27=0,"",'ROSMAIRA CLASSES'!E27)</f>
+        <f>IF('ROSMAIRA CLASSES'!E27="","",'ROSMAIRA CLASSES'!E27)</f>
         <v>5</v>
       </c>
       <c r="O45" s="32" t="str">
@@ -6944,25 +7233,25 @@
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="58"/>
       <c r="C46" s="58"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="64"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="67"/>
       <c r="M46" s="12">
         <v>3</v>
       </c>
-      <c r="N46" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E41=0,"",'ROSMAIRA CLASSES'!E41)</f>
-        <v/>
+      <c r="N46" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E41="","",'ROSMAIRA CLASSES'!E41)</f>
+        <v>0</v>
       </c>
       <c r="O46" s="31" t="str">
         <f>IF(N46="","",'ROSMAIRA CLASSES'!F41)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -6973,25 +7262,25 @@
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="58"/>
       <c r="C47" s="58"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="64"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="67"/>
       <c r="M47" s="12">
         <v>4</v>
       </c>
-      <c r="N47" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E55=0,"",'ROSMAIRA CLASSES'!E55)</f>
-        <v/>
+      <c r="N47" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E55="","",'ROSMAIRA CLASSES'!E55)</f>
+        <v>6</v>
       </c>
       <c r="O47" s="31" t="str">
         <f>IF(N47="","",'ROSMAIRA CLASSES'!F55)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -7002,20 +7291,20 @@
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
       <c r="F48" s="64"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="67"/>
       <c r="M48" s="12">
         <v>5</v>
       </c>
       <c r="N48" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E69=0,"",'ROSMAIRA CLASSES'!E69)</f>
+        <f>IF('ROSMAIRA CLASSES'!E69="","",'ROSMAIRA CLASSES'!E69)</f>
         <v/>
       </c>
       <c r="O48" s="31" t="str">
@@ -7031,22 +7320,22 @@
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="64"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="52" t="s">
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="54" t="s">
         <v>25</v>
       </c>
       <c r="M49" s="5">
         <v>1</v>
       </c>
       <c r="N49" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E14=0,"",'ROSMAIRA CLASSES'!E14)</f>
+        <f>IF('ROSMAIRA CLASSES'!E14="","",'ROSMAIRA CLASSES'!E14)</f>
         <v/>
       </c>
       <c r="O49" s="32" t="str">
@@ -7062,20 +7351,20 @@
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="58"/>
       <c r="C50" s="58"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="64"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="53"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="55"/>
       <c r="M50" s="12">
         <v>2</v>
       </c>
       <c r="N50" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E28=0,"",'ROSMAIRA CLASSES'!E28)</f>
+        <f>IF('ROSMAIRA CLASSES'!E28="","",'ROSMAIRA CLASSES'!E28)</f>
         <v>5</v>
       </c>
       <c r="O50" s="32" t="str">
@@ -7091,25 +7380,25 @@
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="58"/>
       <c r="C51" s="58"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="64"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="53"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="55"/>
       <c r="M51" s="12">
         <v>3</v>
       </c>
-      <c r="N51" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E42=0,"",'ROSMAIRA CLASSES'!E42)</f>
-        <v/>
+      <c r="N51" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E42="","",'ROSMAIRA CLASSES'!E42)</f>
+        <v>0</v>
       </c>
       <c r="O51" s="32" t="str">
         <f>IF(N51="","",'ROSMAIRA CLASSES'!F42)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -7120,25 +7409,25 @@
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="64"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="53"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="55"/>
       <c r="M52" s="12">
         <v>4</v>
       </c>
-      <c r="N52" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E56=0,"",'ROSMAIRA CLASSES'!E56)</f>
-        <v/>
+      <c r="N52" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E56="","",'ROSMAIRA CLASSES'!E56)</f>
+        <v>6</v>
       </c>
       <c r="O52" s="32" t="str">
         <f>IF(N52="","",'ROSMAIRA CLASSES'!F56)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -7149,20 +7438,20 @@
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="58"/>
       <c r="C53" s="58"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="64"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="53"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="55"/>
       <c r="M53" s="12">
         <v>5</v>
       </c>
       <c r="N53" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E70=0,"",'ROSMAIRA CLASSES'!E70)</f>
+        <f>IF('ROSMAIRA CLASSES'!E70="","",'ROSMAIRA CLASSES'!E70)</f>
         <v/>
       </c>
       <c r="O53" s="32" t="str">
@@ -7178,22 +7467,22 @@
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
       <c r="F54" s="64"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="52" t="s">
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="54" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="5">
         <v>1</v>
       </c>
       <c r="N54" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E15=0,"",'ROSMAIRA CLASSES'!E15)</f>
+        <f>IF('ROSMAIRA CLASSES'!E15="","",'ROSMAIRA CLASSES'!E15)</f>
         <v/>
       </c>
       <c r="O54" s="32" t="str">
@@ -7209,20 +7498,20 @@
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="64"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="53"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="55"/>
       <c r="M55" s="12">
         <v>2</v>
       </c>
       <c r="N55" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E29=0,"",'ROSMAIRA CLASSES'!E29)</f>
+        <f>IF('ROSMAIRA CLASSES'!E29="","",'ROSMAIRA CLASSES'!E29)</f>
         <v>5</v>
       </c>
       <c r="O55" s="32" t="str">
@@ -7238,25 +7527,25 @@
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
       <c r="F56" s="64"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="53"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="55"/>
       <c r="M56" s="12">
         <v>3</v>
       </c>
-      <c r="N56" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E43=0,"",'ROSMAIRA CLASSES'!E43)</f>
-        <v/>
+      <c r="N56" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E43="","",'ROSMAIRA CLASSES'!E43)</f>
+        <v>0</v>
       </c>
       <c r="O56" s="32" t="str">
         <f>IF(N56="","",'ROSMAIRA CLASSES'!F43)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -7267,25 +7556,25 @@
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
       <c r="F57" s="64"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="53"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="55"/>
       <c r="M57" s="12">
         <v>4</v>
       </c>
-      <c r="N57" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E57=0,"",'ROSMAIRA CLASSES'!E57)</f>
-        <v/>
+      <c r="N57" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E57="","",'ROSMAIRA CLASSES'!E57)</f>
+        <v>6</v>
       </c>
       <c r="O57" s="32" t="str">
         <f>IF(N57="","",'ROSMAIRA CLASSES'!F57)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -7296,20 +7585,20 @@
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="58"/>
       <c r="C58" s="58"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
       <c r="F58" s="64"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="53"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="55"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
       <c r="N58" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E71=0,"",'ROSMAIRA CLASSES'!E71)</f>
+        <f>IF('ROSMAIRA CLASSES'!E71="","",'ROSMAIRA CLASSES'!E71)</f>
         <v/>
       </c>
       <c r="O58" s="32" t="str">
@@ -7325,22 +7614,22 @@
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="58"/>
       <c r="C59" s="58"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="64"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="52" t="s">
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="54" t="s">
         <v>49</v>
       </c>
       <c r="M59" s="5">
         <v>1</v>
       </c>
       <c r="N59" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E16=0,"",'ROSMAIRA CLASSES'!E16)</f>
+        <f>IF('ROSMAIRA CLASSES'!E16="","",'ROSMAIRA CLASSES'!E16)</f>
         <v/>
       </c>
       <c r="O59" s="32" t="str">
@@ -7356,20 +7645,20 @@
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="64"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="53"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="55"/>
       <c r="M60" s="12">
         <v>2</v>
       </c>
       <c r="N60" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E30=0,"",'ROSMAIRA CLASSES'!E30)</f>
+        <f>IF('ROSMAIRA CLASSES'!E30="","",'ROSMAIRA CLASSES'!E30)</f>
         <v>5</v>
       </c>
       <c r="O60" s="32" t="str">
@@ -7385,25 +7674,25 @@
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
       <c r="F61" s="64"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="53"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="55"/>
       <c r="M61" s="12">
         <v>3</v>
       </c>
-      <c r="N61" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E44=0,"",'ROSMAIRA CLASSES'!E44)</f>
-        <v/>
+      <c r="N61" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E44="","",'ROSMAIRA CLASSES'!E44)</f>
+        <v>0</v>
       </c>
       <c r="O61" s="32" t="str">
         <f>IF(N61="","",'ROSMAIRA CLASSES'!F44)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -7414,25 +7703,25 @@
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
       <c r="F62" s="64"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="53"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="55"/>
       <c r="M62" s="12">
         <v>4</v>
       </c>
-      <c r="N62" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E58=0,"",'ROSMAIRA CLASSES'!E58)</f>
-        <v/>
+      <c r="N62" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E58="","",'ROSMAIRA CLASSES'!E58)</f>
+        <v>6</v>
       </c>
       <c r="O62" s="32" t="str">
         <f>IF(N62="","",'ROSMAIRA CLASSES'!F58)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -7443,20 +7732,20 @@
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
       <c r="F63" s="64"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="53"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="55"/>
       <c r="M63" s="12">
         <v>5</v>
       </c>
       <c r="N63" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E72=0,"",'ROSMAIRA CLASSES'!E72)</f>
+        <f>IF('ROSMAIRA CLASSES'!E72="","",'ROSMAIRA CLASSES'!E72)</f>
         <v/>
       </c>
       <c r="O63" s="31" t="str">
@@ -7472,22 +7761,22 @@
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="64"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="52" t="s">
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="54" t="s">
         <v>50</v>
       </c>
       <c r="M64" s="5">
         <v>1</v>
       </c>
       <c r="N64" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E17=0,"",'ROSMAIRA CLASSES'!E17)</f>
+        <f>IF('ROSMAIRA CLASSES'!E17="","",'ROSMAIRA CLASSES'!E17)</f>
         <v>6</v>
       </c>
       <c r="O64" s="31" t="str">
@@ -7503,20 +7792,20 @@
     <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
       <c r="F65" s="64"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="53"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="55"/>
       <c r="M65" s="12">
         <v>2</v>
       </c>
       <c r="N65" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E31=0,"",'ROSMAIRA CLASSES'!E31)</f>
+        <f>IF('ROSMAIRA CLASSES'!E31="","",'ROSMAIRA CLASSES'!E31)</f>
         <v>5</v>
       </c>
       <c r="O65" s="31" t="str">
@@ -7532,25 +7821,25 @@
     <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="64"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="53"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="55"/>
       <c r="M66" s="12">
         <v>3</v>
       </c>
-      <c r="N66" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E45=0,"",'ROSMAIRA CLASSES'!E45)</f>
-        <v/>
+      <c r="N66" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E45="","",'ROSMAIRA CLASSES'!E45)</f>
+        <v>0</v>
       </c>
       <c r="O66" s="31" t="str">
         <f>IF(N66="","",'ROSMAIRA CLASSES'!F45)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -7561,25 +7850,25 @@
     <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="58"/>
       <c r="C67" s="58"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
       <c r="F67" s="64"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="53"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="55"/>
       <c r="M67" s="12">
         <v>4</v>
       </c>
-      <c r="N67" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E59=0,"",'ROSMAIRA CLASSES'!E59)</f>
-        <v/>
+      <c r="N67" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E59="","",'ROSMAIRA CLASSES'!E59)</f>
+        <v>6</v>
       </c>
       <c r="O67" s="31" t="str">
         <f>IF(N67="","",'ROSMAIRA CLASSES'!F59)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -7590,20 +7879,20 @@
     <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
       <c r="F68" s="64"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="53"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="55"/>
       <c r="M68" s="12">
         <v>5</v>
       </c>
       <c r="N68" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E73=0,"",'ROSMAIRA CLASSES'!E73)</f>
+        <f>IF('ROSMAIRA CLASSES'!E73="","",'ROSMAIRA CLASSES'!E73)</f>
         <v/>
       </c>
       <c r="O68" s="31" t="str">
@@ -7619,22 +7908,22 @@
     <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="58"/>
       <c r="C69" s="58"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
       <c r="F69" s="64"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="52" t="s">
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="54" t="s">
         <v>23</v>
       </c>
       <c r="M69" s="5">
         <v>1</v>
       </c>
       <c r="N69" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E18=0,"",'ROSMAIRA CLASSES'!E18)</f>
+        <f>IF('ROSMAIRA CLASSES'!E18="","",'ROSMAIRA CLASSES'!E18)</f>
         <v/>
       </c>
       <c r="O69" s="31" t="str">
@@ -7645,20 +7934,20 @@
     <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="58"/>
       <c r="C70" s="58"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
       <c r="F70" s="64"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="53"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="55"/>
       <c r="M70" s="12">
         <v>2</v>
       </c>
       <c r="N70" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E32=0,"",'ROSMAIRA CLASSES'!E32)</f>
+        <f>IF('ROSMAIRA CLASSES'!E32="","",'ROSMAIRA CLASSES'!E32)</f>
         <v>5</v>
       </c>
       <c r="O70" s="31" t="str">
@@ -7669,68 +7958,68 @@
     <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="58"/>
       <c r="C71" s="58"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
       <c r="F71" s="64"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="53"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="55"/>
       <c r="M71" s="12">
         <v>3</v>
       </c>
-      <c r="N71" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E46=0,"",'ROSMAIRA CLASSES'!E46)</f>
-        <v/>
+      <c r="N71" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E46="","",'ROSMAIRA CLASSES'!E46)</f>
+        <v>0</v>
       </c>
       <c r="O71" s="31" t="str">
         <f>IF(N71="","",'ROSMAIRA CLASSES'!F46)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
       <c r="F72" s="64"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="53"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="55"/>
       <c r="M72" s="12">
         <v>4</v>
       </c>
-      <c r="N72" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E60=0,"",'ROSMAIRA CLASSES'!E60)</f>
-        <v/>
+      <c r="N72" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E60="","",'ROSMAIRA CLASSES'!E60)</f>
+        <v>6</v>
       </c>
       <c r="O72" s="31" t="str">
         <f>IF(N72="","",'ROSMAIRA CLASSES'!F60)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="58"/>
       <c r="C73" s="58"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
       <c r="F73" s="64"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="53"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="55"/>
       <c r="M73" s="12">
         <v>5</v>
       </c>
       <c r="N73" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E74=0,"",'ROSMAIRA CLASSES'!E74)</f>
+        <f>IF('ROSMAIRA CLASSES'!E74="","",'ROSMAIRA CLASSES'!E74)</f>
         <v/>
       </c>
       <c r="O73" s="31" t="str">
@@ -7741,22 +8030,22 @@
     <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="58"/>
       <c r="C74" s="58"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
       <c r="F74" s="64"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="52" t="s">
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="54" t="s">
         <v>24</v>
       </c>
       <c r="M74" s="5">
         <v>1</v>
       </c>
       <c r="N74" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E19=0,"",'ROSMAIRA CLASSES'!E19)</f>
+        <f>IF('ROSMAIRA CLASSES'!E19="","",'ROSMAIRA CLASSES'!E19)</f>
         <v/>
       </c>
       <c r="O74" s="31" t="str">
@@ -7767,20 +8056,20 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="58"/>
       <c r="C75" s="58"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
       <c r="F75" s="64"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="53"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="55"/>
       <c r="M75" s="12">
         <v>2</v>
       </c>
       <c r="N75" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E33=0,"",'ROSMAIRA CLASSES'!E33)</f>
+        <f>IF('ROSMAIRA CLASSES'!E33="","",'ROSMAIRA CLASSES'!E33)</f>
         <v>5</v>
       </c>
       <c r="O75" s="31" t="str">
@@ -7791,44 +8080,44 @@
     <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
       <c r="F76" s="64"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="53"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="55"/>
       <c r="M76" s="12">
         <v>3</v>
       </c>
-      <c r="N76" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E47=0,"",'ROSMAIRA CLASSES'!E47)</f>
-        <v/>
+      <c r="N76" s="30">
+        <f>IF('ROSMAIRA CLASSES'!E47="","",'ROSMAIRA CLASSES'!E47)</f>
+        <v>0</v>
       </c>
       <c r="O76" s="31" t="str">
         <f>IF(N76="","",'ROSMAIRA CLASSES'!F47)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="58"/>
       <c r="C77" s="58"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
       <c r="F77" s="64"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="53"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="55"/>
       <c r="M77" s="12">
         <v>4</v>
       </c>
       <c r="N77" s="30">
-        <f>IF('ROSMAIRA CLASSES'!E61=0,"",'ROSMAIRA CLASSES'!E61)</f>
+        <f>IF('ROSMAIRA CLASSES'!E61="","",'ROSMAIRA CLASSES'!E61)</f>
         <v>6</v>
       </c>
       <c r="O77" s="31" t="str">
@@ -7839,20 +8128,20 @@
     <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="65"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="53"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="55"/>
       <c r="M78" s="12">
         <v>5</v>
       </c>
       <c r="N78" s="30" t="str">
-        <f>IF('ROSMAIRA CLASSES'!E75=0,"",'ROSMAIRA CLASSES'!E75)</f>
+        <f>IF('ROSMAIRA CLASSES'!E75="","",'ROSMAIRA CLASSES'!E75)</f>
         <v/>
       </c>
       <c r="O78" s="31" t="str">
@@ -7861,45 +8150,45 @@
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="54" t="s">
+      <c r="B79" s="73" t="s">
         <v>70</v>
       </c>
       <c r="C79" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="49" t="str">
+      <c r="E79" s="60" t="str">
         <f>E9</f>
         <v>JULIO</v>
       </c>
       <c r="F79" s="63">
         <v>1</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="49" t="s">
+      <c r="H79" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="49" t="s">
+      <c r="I79" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J79" s="49" t="s">
+      <c r="J79" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K79" s="49" t="s">
+      <c r="K79" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L79" s="52" t="s">
+      <c r="L79" s="54" t="s">
         <v>55</v>
       </c>
       <c r="M79" s="5">
         <v>1</v>
       </c>
       <c r="N79" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E6=0,"",'JIMMY CLASSES'!E6)</f>
+        <f>IF('JIMMY CLASSES'!E6="","",'JIMMY CLASSES'!E6)</f>
         <v/>
       </c>
       <c r="O79" s="31" t="str">
@@ -7908,22 +8197,22 @@
       </c>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="55"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="58"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
       <c r="F80" s="64"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="53"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="55"/>
       <c r="M80" s="12">
         <v>2</v>
       </c>
       <c r="N80" s="30">
-        <f>IF('JIMMY CLASSES'!E20=0,"",'JIMMY CLASSES'!E20)</f>
+        <f>IF('JIMMY CLASSES'!E20="","",'JIMMY CLASSES'!E20)</f>
         <v>5</v>
       </c>
       <c r="O80" s="32" t="str">
@@ -7932,22 +8221,22 @@
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="55"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="58"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
       <c r="F81" s="64"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="53"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="55"/>
       <c r="M81" s="12">
         <v>3</v>
       </c>
       <c r="N81" s="30">
-        <f>IF('JIMMY CLASSES'!E34=0,"",'JIMMY CLASSES'!E34)</f>
+        <f>IF('JIMMY CLASSES'!E34="","",'JIMMY CLASSES'!E34)</f>
         <v>4</v>
       </c>
       <c r="O81" s="31" t="str">
@@ -7956,22 +8245,22 @@
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="55"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="58"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
       <c r="F82" s="64"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="53"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="55"/>
       <c r="M82" s="12">
         <v>4</v>
       </c>
       <c r="N82" s="30">
-        <f>IF('JIMMY CLASSES'!E48=0,"",'JIMMY CLASSES'!E48)</f>
+        <f>IF('JIMMY CLASSES'!E48="","",'JIMMY CLASSES'!E48)</f>
         <v>5</v>
       </c>
       <c r="O82" s="31" t="str">
@@ -7980,22 +8269,22 @@
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="55"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="58"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="64"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="53"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="55"/>
       <c r="M83" s="12">
         <v>5</v>
       </c>
       <c r="N83" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E62=0,"",'JIMMY CLASSES'!E62)</f>
+        <f>IF('JIMMY CLASSES'!E62="","",'JIMMY CLASSES'!E62)</f>
         <v/>
       </c>
       <c r="O83" s="31" t="str">
@@ -8004,24 +8293,24 @@
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="55"/>
+      <c r="B84" s="74"/>
       <c r="C84" s="58"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
       <c r="F84" s="64"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="52" t="s">
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="54" t="s">
         <v>18</v>
       </c>
       <c r="M84" s="5">
         <v>1</v>
       </c>
       <c r="N84" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E7=0,"",'JIMMY CLASSES'!E7)</f>
+        <f>IF('JIMMY CLASSES'!E7="","",'JIMMY CLASSES'!E7)</f>
         <v/>
       </c>
       <c r="O84" s="31" t="str">
@@ -8030,22 +8319,22 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="55"/>
+      <c r="B85" s="74"/>
       <c r="C85" s="58"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
       <c r="F85" s="64"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="53"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="55"/>
       <c r="M85" s="12">
         <v>2</v>
       </c>
       <c r="N85" s="30">
-        <f>IF('JIMMY CLASSES'!E21=0,"",'JIMMY CLASSES'!E21)</f>
+        <f>IF('JIMMY CLASSES'!E21="","",'JIMMY CLASSES'!E21)</f>
         <v>5</v>
       </c>
       <c r="O85" s="31" t="str">
@@ -8054,22 +8343,22 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="55"/>
+      <c r="B86" s="74"/>
       <c r="C86" s="58"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
       <c r="F86" s="64"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="53"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="55"/>
       <c r="M86" s="12">
         <v>3</v>
       </c>
       <c r="N86" s="30">
-        <f>IF('JIMMY CLASSES'!E35=0,"",'JIMMY CLASSES'!E35)</f>
+        <f>IF('JIMMY CLASSES'!E35="","",'JIMMY CLASSES'!E35)</f>
         <v>4</v>
       </c>
       <c r="O86" s="31" t="str">
@@ -8078,46 +8367,46 @@
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="55"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="58"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
       <c r="F87" s="64"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="53"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="55"/>
       <c r="M87" s="12">
         <v>4</v>
       </c>
-      <c r="N87" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E49=0,"",'JIMMY CLASSES'!E49)</f>
-        <v/>
+      <c r="N87" s="30">
+        <f>IF('JIMMY CLASSES'!E49="","",'JIMMY CLASSES'!E49)</f>
+        <v>5</v>
       </c>
       <c r="O87" s="31" t="str">
         <f>IF(N87="","",'JIMMY CLASSES'!F49)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="55"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="58"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
       <c r="F88" s="64"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="53"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="55"/>
       <c r="M88" s="12">
         <v>5</v>
       </c>
       <c r="N88" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E63=0,"",'JIMMY CLASSES'!E63)</f>
+        <f>IF('JIMMY CLASSES'!E63="","",'JIMMY CLASSES'!E63)</f>
         <v/>
       </c>
       <c r="O88" s="31" t="str">
@@ -8126,24 +8415,24 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="55"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="58"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="64"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="52" t="s">
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="54" t="s">
         <v>19</v>
       </c>
       <c r="M89" s="5">
         <v>1</v>
       </c>
       <c r="N89" s="30">
-        <f>IF('JIMMY CLASSES'!E8=0,"",'JIMMY CLASSES'!E8)</f>
+        <f>IF('JIMMY CLASSES'!E8="","",'JIMMY CLASSES'!E8)</f>
         <v>5</v>
       </c>
       <c r="O89" s="31" t="str">
@@ -8152,22 +8441,22 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="58"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
       <c r="F90" s="64"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="53"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="55"/>
       <c r="M90" s="12">
         <v>2</v>
       </c>
       <c r="N90" s="30">
-        <f>IF('JIMMY CLASSES'!E22=0,"",'JIMMY CLASSES'!E22)</f>
+        <f>IF('JIMMY CLASSES'!E22="","",'JIMMY CLASSES'!E22)</f>
         <v>5</v>
       </c>
       <c r="O90" s="31" t="str">
@@ -8176,22 +8465,22 @@
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="55"/>
+      <c r="B91" s="74"/>
       <c r="C91" s="58"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="64"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="53"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="55"/>
       <c r="M91" s="12">
         <v>3</v>
       </c>
       <c r="N91" s="30">
-        <f>IF('JIMMY CLASSES'!E36=0,"",'JIMMY CLASSES'!E36)</f>
+        <f>IF('JIMMY CLASSES'!E36="","",'JIMMY CLASSES'!E36)</f>
         <v>4</v>
       </c>
       <c r="O91" s="31" t="str">
@@ -8200,46 +8489,46 @@
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="55"/>
+      <c r="B92" s="74"/>
       <c r="C92" s="58"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
       <c r="F92" s="64"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="53"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="55"/>
       <c r="M92" s="12">
         <v>4</v>
       </c>
-      <c r="N92" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E50=0,"",'JIMMY CLASSES'!E50)</f>
-        <v/>
+      <c r="N92" s="30">
+        <f>IF('JIMMY CLASSES'!E50="","",'JIMMY CLASSES'!E50)</f>
+        <v>5</v>
       </c>
       <c r="O92" s="31" t="str">
         <f>IF(N92="","",'JIMMY CLASSES'!F50)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="55"/>
+      <c r="B93" s="74"/>
       <c r="C93" s="58"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
       <c r="F93" s="64"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="53"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="55"/>
       <c r="M93" s="12">
         <v>5</v>
       </c>
       <c r="N93" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E64=0,"",'JIMMY CLASSES'!E64)</f>
+        <f>IF('JIMMY CLASSES'!E64="","",'JIMMY CLASSES'!E64)</f>
         <v/>
       </c>
       <c r="O93" s="31" t="str">
@@ -8248,24 +8537,24 @@
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="55"/>
+      <c r="B94" s="74"/>
       <c r="C94" s="58"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
       <c r="F94" s="64"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="52" t="s">
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="61"/>
+      <c r="L94" s="54" t="s">
         <v>17</v>
       </c>
       <c r="M94" s="5">
         <v>1</v>
       </c>
       <c r="N94" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E9=0,"",'JIMMY CLASSES'!E9)</f>
+        <f>IF('JIMMY CLASSES'!E9="","",'JIMMY CLASSES'!E9)</f>
         <v/>
       </c>
       <c r="O94" s="31" t="str">
@@ -8274,22 +8563,22 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="55"/>
+      <c r="B95" s="74"/>
       <c r="C95" s="58"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
       <c r="F95" s="64"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="53"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="61"/>
+      <c r="L95" s="55"/>
       <c r="M95" s="12">
         <v>2</v>
       </c>
       <c r="N95" s="30">
-        <f>IF('JIMMY CLASSES'!E23=0,"",'JIMMY CLASSES'!E23)</f>
+        <f>IF('JIMMY CLASSES'!E23="","",'JIMMY CLASSES'!E23)</f>
         <v>5</v>
       </c>
       <c r="O95" s="31" t="str">
@@ -8298,22 +8587,22 @@
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="55"/>
+      <c r="B96" s="74"/>
       <c r="C96" s="58"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
       <c r="F96" s="64"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="53"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="61"/>
+      <c r="L96" s="55"/>
       <c r="M96" s="12">
         <v>3</v>
       </c>
       <c r="N96" s="30">
-        <f>IF('JIMMY CLASSES'!E37=0,"",'JIMMY CLASSES'!E37)</f>
+        <f>IF('JIMMY CLASSES'!E37="","",'JIMMY CLASSES'!E37)</f>
         <v>4</v>
       </c>
       <c r="O96" s="31" t="str">
@@ -8322,46 +8611,46 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="55"/>
+      <c r="B97" s="74"/>
       <c r="C97" s="58"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
       <c r="F97" s="64"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="53"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="55"/>
       <c r="M97" s="12">
         <v>4</v>
       </c>
-      <c r="N97" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E51=0,"",'JIMMY CLASSES'!E51)</f>
-        <v/>
+      <c r="N97" s="30">
+        <f>IF('JIMMY CLASSES'!E51="","",'JIMMY CLASSES'!E51)</f>
+        <v>5</v>
       </c>
       <c r="O97" s="31" t="str">
         <f>IF(N97="","",'JIMMY CLASSES'!F51)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="55"/>
+      <c r="B98" s="74"/>
       <c r="C98" s="58"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
       <c r="F98" s="64"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="53"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="61"/>
+      <c r="L98" s="55"/>
       <c r="M98" s="12">
         <v>5</v>
       </c>
       <c r="N98" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E65=0,"",'JIMMY CLASSES'!E65)</f>
+        <f>IF('JIMMY CLASSES'!E65="","",'JIMMY CLASSES'!E65)</f>
         <v/>
       </c>
       <c r="O98" s="31" t="str">
@@ -8370,24 +8659,24 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="55"/>
+      <c r="B99" s="74"/>
       <c r="C99" s="58"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="64"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="52" t="s">
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="54" t="s">
         <v>34</v>
       </c>
       <c r="M99" s="5">
         <v>1</v>
       </c>
       <c r="N99" s="30">
-        <f>IF('JIMMY CLASSES'!E10=0,"",'JIMMY CLASSES'!E10)</f>
+        <f>IF('JIMMY CLASSES'!E10="","",'JIMMY CLASSES'!E10)</f>
         <v>5</v>
       </c>
       <c r="O99" s="31" t="str">
@@ -8396,22 +8685,22 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="55"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="58"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
       <c r="F100" s="64"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="50"/>
-      <c r="L100" s="53"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="L100" s="55"/>
       <c r="M100" s="12">
         <v>2</v>
       </c>
       <c r="N100" s="30">
-        <f>IF('JIMMY CLASSES'!E24=0,"",'JIMMY CLASSES'!E24)</f>
+        <f>IF('JIMMY CLASSES'!E24="","",'JIMMY CLASSES'!E24)</f>
         <v>5</v>
       </c>
       <c r="O100" s="31" t="str">
@@ -8420,22 +8709,22 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="55"/>
+      <c r="B101" s="74"/>
       <c r="C101" s="58"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
       <c r="F101" s="64"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="50"/>
-      <c r="L101" s="53"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="55"/>
       <c r="M101" s="12">
         <v>3</v>
       </c>
       <c r="N101" s="30">
-        <f>IF('JIMMY CLASSES'!E38=0,"",'JIMMY CLASSES'!E38)</f>
+        <f>IF('JIMMY CLASSES'!E38="","",'JIMMY CLASSES'!E38)</f>
         <v>4</v>
       </c>
       <c r="O101" s="31" t="str">
@@ -8444,46 +8733,46 @@
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="55"/>
+      <c r="B102" s="74"/>
       <c r="C102" s="58"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
       <c r="F102" s="64"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="53"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="61"/>
+      <c r="K102" s="61"/>
+      <c r="L102" s="55"/>
       <c r="M102" s="12">
         <v>4</v>
       </c>
-      <c r="N102" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E52=0,"",'JIMMY CLASSES'!E52)</f>
-        <v/>
+      <c r="N102" s="30">
+        <f>IF('JIMMY CLASSES'!E52="","",'JIMMY CLASSES'!E52)</f>
+        <v>5</v>
       </c>
       <c r="O102" s="31" t="str">
         <f>IF(N102="","",'JIMMY CLASSES'!F52)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="55"/>
+      <c r="B103" s="74"/>
       <c r="C103" s="58"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
       <c r="F103" s="64"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="53"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="55"/>
       <c r="M103" s="12">
         <v>5</v>
       </c>
       <c r="N103" s="30" t="str">
-        <f>IF('JIMMY CLASSES'!E66=0,"",'JIMMY CLASSES'!E66)</f>
+        <f>IF('JIMMY CLASSES'!E66="","",'JIMMY CLASSES'!E66)</f>
         <v/>
       </c>
       <c r="O103" s="31" t="str">
@@ -8492,832 +8781,1102 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="55"/>
+      <c r="B104" s="74"/>
       <c r="C104" s="58"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
       <c r="F104" s="64"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="52" t="s">
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="54" t="s">
         <v>56</v>
       </c>
       <c r="M104" s="5">
         <v>1</v>
       </c>
-      <c r="N104" s="30"/>
-      <c r="O104" s="31"/>
+      <c r="N104" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E11="","",'JIMMY CLASSES'!E11)</f>
+        <v/>
+      </c>
+      <c r="O104" s="31" t="str">
+        <f>IF(N104="","Día de mes anterior",'JIMMY CLASSES'!F11)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="55"/>
+      <c r="B105" s="74"/>
       <c r="C105" s="58"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
       <c r="F105" s="64"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="53"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="55"/>
       <c r="M105" s="12">
         <v>2</v>
       </c>
-      <c r="N105" s="30"/>
-      <c r="O105" s="31"/>
+      <c r="N105" s="30">
+        <f>IF('JIMMY CLASSES'!E25="","",'JIMMY CLASSES'!E25)</f>
+        <v>5</v>
+      </c>
+      <c r="O105" s="31" t="str">
+        <f>IF(N105="","",'JIMMY CLASSES'!F25)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="55"/>
+      <c r="B106" s="74"/>
       <c r="C106" s="58"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
       <c r="F106" s="64"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="53"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="61"/>
+      <c r="K106" s="61"/>
+      <c r="L106" s="55"/>
       <c r="M106" s="12">
         <v>3</v>
       </c>
-      <c r="N106" s="30"/>
-      <c r="O106" s="31"/>
+      <c r="N106" s="30">
+        <f>IF('JIMMY CLASSES'!E39="","",'JIMMY CLASSES'!E39)</f>
+        <v>4</v>
+      </c>
+      <c r="O106" s="31" t="str">
+        <f>IF(N106="","",'JIMMY CLASSES'!F39)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="55"/>
+      <c r="B107" s="74"/>
       <c r="C107" s="58"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="50"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
       <c r="F107" s="64"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="53"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="61"/>
+      <c r="L107" s="55"/>
       <c r="M107" s="12">
         <v>4</v>
       </c>
-      <c r="N107" s="30"/>
-      <c r="O107" s="31"/>
+      <c r="N107" s="30">
+        <f>IF('JIMMY CLASSES'!E53="","",'JIMMY CLASSES'!E53)</f>
+        <v>5</v>
+      </c>
+      <c r="O107" s="31" t="str">
+        <f>IF(N107="","",'JIMMY CLASSES'!F53)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="55"/>
+      <c r="B108" s="74"/>
       <c r="C108" s="58"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="50"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
       <c r="F108" s="64"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="50"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="50"/>
-      <c r="L108" s="53"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="55"/>
       <c r="M108" s="12">
         <v>5</v>
       </c>
-      <c r="N108" s="30"/>
-      <c r="O108" s="31"/>
+      <c r="N108" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E67="","",'JIMMY CLASSES'!E67)</f>
+        <v/>
+      </c>
+      <c r="O108" s="31" t="str">
+        <f>IF(N108="","Día de mes siguiente",'JIMMY CLASSES'!F67)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="55"/>
+      <c r="B109" s="74"/>
       <c r="C109" s="58"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="50"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
       <c r="F109" s="64"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="52" t="s">
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="54" t="s">
         <v>57</v>
       </c>
       <c r="M109" s="5">
         <v>1</v>
       </c>
-      <c r="N109" s="30"/>
-      <c r="O109" s="31"/>
+      <c r="N109" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E12="","",'JIMMY CLASSES'!E12)</f>
+        <v/>
+      </c>
+      <c r="O109" s="31" t="str">
+        <f>IF(N109="","Día de mes anterior",'JIMMY CLASSES'!F12)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="55"/>
+      <c r="B110" s="74"/>
       <c r="C110" s="58"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="50"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
       <c r="F110" s="64"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="53"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="55"/>
       <c r="M110" s="12">
         <v>2</v>
       </c>
-      <c r="N110" s="30"/>
-      <c r="O110" s="31"/>
+      <c r="N110" s="30">
+        <f>IF('JIMMY CLASSES'!E26="","",'JIMMY CLASSES'!E26)</f>
+        <v>5</v>
+      </c>
+      <c r="O110" s="31" t="str">
+        <f>IF(N110="","",'JIMMY CLASSES'!F26)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="55"/>
+      <c r="B111" s="74"/>
       <c r="C111" s="58"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="64"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="53"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="55"/>
       <c r="M111" s="12">
         <v>3</v>
       </c>
-      <c r="N111" s="30"/>
-      <c r="O111" s="31"/>
+      <c r="N111" s="30">
+        <f>IF('JIMMY CLASSES'!E40="","",'JIMMY CLASSES'!E40)</f>
+        <v>4</v>
+      </c>
+      <c r="O111" s="31" t="str">
+        <f>IF(N111="","",'JIMMY CLASSES'!F40)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="55"/>
+      <c r="B112" s="74"/>
       <c r="C112" s="58"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
       <c r="F112" s="64"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="53"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="61"/>
+      <c r="L112" s="55"/>
       <c r="M112" s="12">
         <v>4</v>
       </c>
-      <c r="N112" s="30"/>
-      <c r="O112" s="31"/>
+      <c r="N112" s="30">
+        <f>IF('JIMMY CLASSES'!E54="","",'JIMMY CLASSES'!E54)</f>
+        <v>5</v>
+      </c>
+      <c r="O112" s="31">
+        <f>IF(N112="","",'JIMMY CLASSES'!F54)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="55"/>
+      <c r="B113" s="74"/>
       <c r="C113" s="58"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="50"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
       <c r="F113" s="64"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="50"/>
-      <c r="I113" s="50"/>
-      <c r="J113" s="50"/>
-      <c r="K113" s="50"/>
-      <c r="L113" s="53"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
+      <c r="L113" s="55"/>
       <c r="M113" s="12">
         <v>5</v>
       </c>
-      <c r="N113" s="30"/>
-      <c r="O113" s="31"/>
+      <c r="N113" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E68="","",'JIMMY CLASSES'!E68)</f>
+        <v/>
+      </c>
+      <c r="O113" s="31" t="str">
+        <f>IF(N113="","Día de mes siguiente",'JIMMY CLASSES'!F68)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B114" s="55"/>
+      <c r="B114" s="74"/>
       <c r="C114" s="58"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
       <c r="F114" s="64"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="50"/>
-      <c r="J114" s="50"/>
-      <c r="K114" s="50"/>
-      <c r="L114" s="60" t="s">
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="66" t="s">
         <v>58</v>
       </c>
       <c r="M114" s="5">
         <v>1</v>
       </c>
-      <c r="N114" s="30"/>
-      <c r="O114" s="31"/>
+      <c r="N114" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E13="","",'JIMMY CLASSES'!E13)</f>
+        <v/>
+      </c>
+      <c r="O114" s="31" t="str">
+        <f>IF(N114="","Día de mes anterior",'JIMMY CLASSES'!F13)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B115" s="55"/>
+      <c r="B115" s="74"/>
       <c r="C115" s="58"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="50"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="61"/>
       <c r="F115" s="64"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="50"/>
-      <c r="I115" s="50"/>
-      <c r="J115" s="50"/>
-      <c r="K115" s="50"/>
-      <c r="L115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="61"/>
+      <c r="L115" s="67"/>
       <c r="M115" s="12">
         <v>2</v>
       </c>
-      <c r="N115" s="30"/>
-      <c r="O115" s="31"/>
+      <c r="N115" s="30">
+        <f>IF('JIMMY CLASSES'!E27="","",'JIMMY CLASSES'!E27)</f>
+        <v>5</v>
+      </c>
+      <c r="O115" s="31" t="str">
+        <f>IF(N115="","",'JIMMY CLASSES'!F27)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B116" s="55"/>
+      <c r="B116" s="74"/>
       <c r="C116" s="58"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="61"/>
       <c r="F116" s="64"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="50"/>
-      <c r="I116" s="50"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="61"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="61"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="61"/>
+      <c r="L116" s="67"/>
       <c r="M116" s="12">
         <v>3</v>
       </c>
-      <c r="N116" s="30"/>
-      <c r="O116" s="31"/>
+      <c r="N116" s="30">
+        <f>IF('JIMMY CLASSES'!E41="","",'JIMMY CLASSES'!E41)</f>
+        <v>4</v>
+      </c>
+      <c r="O116" s="31" t="str">
+        <f>IF(N116="","",'JIMMY CLASSES'!F41)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="55"/>
+      <c r="B117" s="74"/>
       <c r="C117" s="58"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50"/>
+      <c r="D117" s="61"/>
+      <c r="E117" s="61"/>
       <c r="F117" s="64"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="50"/>
-      <c r="L117" s="61"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="61"/>
+      <c r="L117" s="67"/>
       <c r="M117" s="12">
         <v>4</v>
       </c>
-      <c r="N117" s="30"/>
-      <c r="O117" s="31"/>
+      <c r="N117" s="30">
+        <f>IF('JIMMY CLASSES'!E55="","",'JIMMY CLASSES'!E55)</f>
+        <v>5</v>
+      </c>
+      <c r="O117" s="31" t="str">
+        <f>IF(N117="","",'JIMMY CLASSES'!F55)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="55"/>
+      <c r="B118" s="74"/>
       <c r="C118" s="58"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
       <c r="F118" s="64"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="50"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="61"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="61"/>
+      <c r="J118" s="61"/>
+      <c r="K118" s="61"/>
+      <c r="L118" s="67"/>
       <c r="M118" s="12">
         <v>5</v>
       </c>
-      <c r="N118" s="30"/>
-      <c r="O118" s="31"/>
+      <c r="N118" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E69="","",'JIMMY CLASSES'!E69)</f>
+        <v/>
+      </c>
+      <c r="O118" s="31" t="str">
+        <f>IF(N118="","Día de mes siguiente",'JIMMY CLASSES'!F69)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" s="55"/>
+      <c r="B119" s="74"/>
       <c r="C119" s="58"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
       <c r="F119" s="64"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="60" t="s">
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="61"/>
+      <c r="K119" s="61"/>
+      <c r="L119" s="66" t="s">
         <v>59</v>
       </c>
       <c r="M119" s="5">
         <v>1</v>
       </c>
-      <c r="N119" s="30"/>
-      <c r="O119" s="31"/>
+      <c r="N119" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E14="","",'JIMMY CLASSES'!E14)</f>
+        <v/>
+      </c>
+      <c r="O119" s="31" t="str">
+        <f>IF(N119="","Día de mes anterior",'JIMMY CLASSES'!F14)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="55"/>
+      <c r="B120" s="74"/>
       <c r="C120" s="58"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
       <c r="F120" s="64"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50"/>
-      <c r="I120" s="50"/>
-      <c r="J120" s="50"/>
-      <c r="K120" s="50"/>
-      <c r="L120" s="61"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="61"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="61"/>
+      <c r="K120" s="61"/>
+      <c r="L120" s="67"/>
       <c r="M120" s="12">
         <v>2</v>
       </c>
-      <c r="N120" s="30"/>
-      <c r="O120" s="31"/>
+      <c r="N120" s="30">
+        <f>IF('JIMMY CLASSES'!E28="","",'JIMMY CLASSES'!E28)</f>
+        <v>5</v>
+      </c>
+      <c r="O120" s="31" t="str">
+        <f>IF(N120="","",'JIMMY CLASSES'!F28)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="55"/>
+      <c r="B121" s="74"/>
       <c r="C121" s="58"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="61"/>
       <c r="F121" s="64"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="50"/>
-      <c r="K121" s="50"/>
-      <c r="L121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
+      <c r="L121" s="67"/>
       <c r="M121" s="12">
         <v>3</v>
       </c>
-      <c r="N121" s="30"/>
-      <c r="O121" s="31"/>
+      <c r="N121" s="30">
+        <f>IF('JIMMY CLASSES'!E42="","",'JIMMY CLASSES'!E42)</f>
+        <v>4</v>
+      </c>
+      <c r="O121" s="31" t="str">
+        <f>IF(N121="","",'JIMMY CLASSES'!F42)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="55"/>
+      <c r="B122" s="74"/>
       <c r="C122" s="58"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
       <c r="F122" s="64"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="50"/>
-      <c r="I122" s="50"/>
-      <c r="J122" s="50"/>
-      <c r="K122" s="50"/>
-      <c r="L122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="61"/>
+      <c r="K122" s="61"/>
+      <c r="L122" s="67"/>
       <c r="M122" s="12">
         <v>4</v>
       </c>
-      <c r="N122" s="30"/>
-      <c r="O122" s="31"/>
+      <c r="N122" s="30">
+        <f>IF('JIMMY CLASSES'!E56="","",'JIMMY CLASSES'!E56)</f>
+        <v>5</v>
+      </c>
+      <c r="O122" s="31" t="str">
+        <f>IF(N122="","",'JIMMY CLASSES'!F56)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="55"/>
+      <c r="B123" s="74"/>
       <c r="C123" s="58"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="50"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
       <c r="F123" s="64"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
-      <c r="L123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
+      <c r="L123" s="67"/>
       <c r="M123" s="12">
         <v>5</v>
       </c>
-      <c r="N123" s="30"/>
-      <c r="O123" s="31"/>
+      <c r="N123" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E70="","",'JIMMY CLASSES'!E70)</f>
+        <v/>
+      </c>
+      <c r="O123" s="31" t="str">
+        <f>IF(N123="","Día de mes siguiente",'JIMMY CLASSES'!F70)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="55"/>
+      <c r="B124" s="74"/>
       <c r="C124" s="58"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61"/>
       <c r="F124" s="64"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="50"/>
-      <c r="I124" s="50"/>
-      <c r="J124" s="50"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="52" t="s">
+      <c r="G124" s="61"/>
+      <c r="H124" s="61"/>
+      <c r="I124" s="61"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="61"/>
+      <c r="L124" s="54" t="s">
         <v>35</v>
       </c>
       <c r="M124" s="5">
         <v>1</v>
       </c>
-      <c r="N124" s="30"/>
-      <c r="O124" s="31"/>
+      <c r="N124" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E15="","",'JIMMY CLASSES'!E15)</f>
+        <v/>
+      </c>
+      <c r="O124" s="31" t="str">
+        <f>IF(N124="","Día de mes anterior",'JIMMY CLASSES'!F15)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="55"/>
+      <c r="B125" s="74"/>
       <c r="C125" s="58"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
       <c r="F125" s="64"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="50"/>
-      <c r="J125" s="50"/>
-      <c r="K125" s="50"/>
-      <c r="L125" s="53"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
+      <c r="L125" s="55"/>
       <c r="M125" s="12">
         <v>2</v>
       </c>
-      <c r="N125" s="30"/>
-      <c r="O125" s="31"/>
+      <c r="N125" s="30">
+        <f>IF('JIMMY CLASSES'!E29="","",'JIMMY CLASSES'!E29)</f>
+        <v>4</v>
+      </c>
+      <c r="O125" s="31" t="str">
+        <f>IF(N125="","",'JIMMY CLASSES'!F29)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="55"/>
+      <c r="B126" s="74"/>
       <c r="C126" s="58"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
       <c r="F126" s="64"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
-      <c r="I126" s="50"/>
-      <c r="J126" s="50"/>
-      <c r="K126" s="50"/>
-      <c r="L126" s="53"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="61"/>
+      <c r="L126" s="55"/>
       <c r="M126" s="12">
         <v>3</v>
       </c>
-      <c r="N126" s="30"/>
-      <c r="O126" s="31"/>
+      <c r="N126" s="30">
+        <f>IF('JIMMY CLASSES'!E43="","",'JIMMY CLASSES'!E43)</f>
+        <v>5</v>
+      </c>
+      <c r="O126" s="31" t="str">
+        <f>IF(N126="","",'JIMMY CLASSES'!F43)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="55"/>
+      <c r="B127" s="74"/>
       <c r="C127" s="58"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
       <c r="F127" s="64"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="50"/>
-      <c r="I127" s="50"/>
-      <c r="J127" s="50"/>
-      <c r="K127" s="50"/>
-      <c r="L127" s="53"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="61"/>
+      <c r="L127" s="55"/>
       <c r="M127" s="12">
         <v>4</v>
       </c>
-      <c r="N127" s="30"/>
-      <c r="O127" s="31"/>
+      <c r="N127" s="30">
+        <f>IF('JIMMY CLASSES'!E57="","",'JIMMY CLASSES'!E57)</f>
+        <v>5</v>
+      </c>
+      <c r="O127" s="31" t="str">
+        <f>IF(N127="","",'JIMMY CLASSES'!F57)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="55"/>
+      <c r="B128" s="74"/>
       <c r="C128" s="58"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="50"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
       <c r="F128" s="64"/>
-      <c r="G128" s="50"/>
-      <c r="H128" s="50"/>
-      <c r="I128" s="50"/>
-      <c r="J128" s="50"/>
-      <c r="K128" s="50"/>
-      <c r="L128" s="53"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="61"/>
+      <c r="L128" s="55"/>
       <c r="M128" s="12">
         <v>5</v>
       </c>
-      <c r="N128" s="30"/>
-      <c r="O128" s="31"/>
+      <c r="N128" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E71="","",'JIMMY CLASSES'!E71)</f>
+        <v/>
+      </c>
+      <c r="O128" s="31" t="str">
+        <f>IF(N128="","Día de mes siguiente",'JIMMY CLASSES'!F71)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="55"/>
+      <c r="B129" s="74"/>
       <c r="C129" s="58"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="50"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="61"/>
       <c r="F129" s="64"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="50"/>
-      <c r="I129" s="50"/>
-      <c r="J129" s="50"/>
-      <c r="K129" s="50"/>
-      <c r="L129" s="52" t="s">
+      <c r="G129" s="61"/>
+      <c r="H129" s="61"/>
+      <c r="I129" s="61"/>
+      <c r="J129" s="61"/>
+      <c r="K129" s="61"/>
+      <c r="L129" s="54" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="5">
         <v>1</v>
       </c>
-      <c r="N129" s="30"/>
-      <c r="O129" s="31"/>
+      <c r="N129" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E16="","",'JIMMY CLASSES'!E16)</f>
+        <v/>
+      </c>
+      <c r="O129" s="31" t="str">
+        <f>IF(N129="","Día de mes anterior",'JIMMY CLASSES'!F16)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="55"/>
+      <c r="B130" s="74"/>
       <c r="C130" s="58"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="50"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="61"/>
       <c r="F130" s="64"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="50"/>
-      <c r="I130" s="50"/>
-      <c r="J130" s="50"/>
-      <c r="K130" s="50"/>
-      <c r="L130" s="53"/>
+      <c r="G130" s="61"/>
+      <c r="H130" s="61"/>
+      <c r="I130" s="61"/>
+      <c r="J130" s="61"/>
+      <c r="K130" s="61"/>
+      <c r="L130" s="55"/>
       <c r="M130" s="12">
         <v>2</v>
       </c>
-      <c r="N130" s="30"/>
-      <c r="O130" s="31"/>
+      <c r="N130" s="30">
+        <f>IF('JIMMY CLASSES'!E30="","",'JIMMY CLASSES'!E30)</f>
+        <v>4</v>
+      </c>
+      <c r="O130" s="31" t="str">
+        <f>IF(N130="","",'JIMMY CLASSES'!F30)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="55"/>
+      <c r="B131" s="74"/>
       <c r="C131" s="58"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="50"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
       <c r="F131" s="64"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="50"/>
-      <c r="I131" s="50"/>
-      <c r="J131" s="50"/>
-      <c r="K131" s="50"/>
-      <c r="L131" s="53"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="61"/>
+      <c r="K131" s="61"/>
+      <c r="L131" s="55"/>
       <c r="M131" s="12">
         <v>3</v>
       </c>
-      <c r="N131" s="30"/>
-      <c r="O131" s="31"/>
+      <c r="N131" s="30">
+        <f>IF('JIMMY CLASSES'!E44="","",'JIMMY CLASSES'!E44)</f>
+        <v>5</v>
+      </c>
+      <c r="O131" s="31" t="str">
+        <f>IF(N131="","",'JIMMY CLASSES'!F44)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="55"/>
+      <c r="B132" s="74"/>
       <c r="C132" s="58"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="61"/>
       <c r="F132" s="64"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
-      <c r="I132" s="50"/>
-      <c r="J132" s="50"/>
-      <c r="K132" s="50"/>
-      <c r="L132" s="53"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="61"/>
+      <c r="L132" s="55"/>
       <c r="M132" s="12">
         <v>4</v>
       </c>
-      <c r="N132" s="30"/>
-      <c r="O132" s="31"/>
+      <c r="N132" s="30">
+        <f>IF('JIMMY CLASSES'!E58="","",'JIMMY CLASSES'!E58)</f>
+        <v>5</v>
+      </c>
+      <c r="O132" s="31" t="str">
+        <f>IF(N132="","",'JIMMY CLASSES'!F58)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" s="55"/>
+      <c r="B133" s="74"/>
       <c r="C133" s="58"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
+      <c r="D133" s="61"/>
+      <c r="E133" s="61"/>
       <c r="F133" s="64"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
-      <c r="J133" s="50"/>
-      <c r="K133" s="50"/>
-      <c r="L133" s="53"/>
+      <c r="G133" s="61"/>
+      <c r="H133" s="61"/>
+      <c r="I133" s="61"/>
+      <c r="J133" s="61"/>
+      <c r="K133" s="61"/>
+      <c r="L133" s="55"/>
       <c r="M133" s="12">
         <v>5</v>
       </c>
-      <c r="N133" s="30"/>
-      <c r="O133" s="31"/>
+      <c r="N133" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E72="","",'JIMMY CLASSES'!E72)</f>
+        <v/>
+      </c>
+      <c r="O133" s="31" t="str">
+        <f>IF(N133="","Día de mes siguiente",'JIMMY CLASSES'!F72)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" s="55"/>
+      <c r="B134" s="74"/>
       <c r="C134" s="58"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="64"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
-      <c r="J134" s="50"/>
-      <c r="K134" s="50"/>
-      <c r="L134" s="52" t="s">
+      <c r="G134" s="61"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="61"/>
+      <c r="J134" s="61"/>
+      <c r="K134" s="61"/>
+      <c r="L134" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M134" s="5">
         <v>1</v>
       </c>
-      <c r="N134" s="30"/>
-      <c r="O134" s="31"/>
+      <c r="N134" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E17="","",'JIMMY CLASSES'!E17)</f>
+        <v/>
+      </c>
+      <c r="O134" s="31" t="str">
+        <f>IF(N134="","Día de mes anterior",'JIMMY CLASSES'!F17)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="55"/>
+      <c r="B135" s="74"/>
       <c r="C135" s="58"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
       <c r="F135" s="64"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
-      <c r="J135" s="50"/>
-      <c r="K135" s="50"/>
-      <c r="L135" s="53"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="61"/>
+      <c r="I135" s="61"/>
+      <c r="J135" s="61"/>
+      <c r="K135" s="61"/>
+      <c r="L135" s="55"/>
       <c r="M135" s="12">
         <v>2</v>
       </c>
-      <c r="N135" s="30"/>
-      <c r="O135" s="31"/>
+      <c r="N135" s="30">
+        <f>IF('JIMMY CLASSES'!E31="","",'JIMMY CLASSES'!E31)</f>
+        <v>5</v>
+      </c>
+      <c r="O135" s="31" t="str">
+        <f>IF(N135="","",'JIMMY CLASSES'!F31)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="55"/>
+      <c r="B136" s="74"/>
       <c r="C136" s="58"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="61"/>
       <c r="F136" s="64"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
-      <c r="J136" s="50"/>
-      <c r="K136" s="50"/>
-      <c r="L136" s="53"/>
+      <c r="G136" s="61"/>
+      <c r="H136" s="61"/>
+      <c r="I136" s="61"/>
+      <c r="J136" s="61"/>
+      <c r="K136" s="61"/>
+      <c r="L136" s="55"/>
       <c r="M136" s="12">
         <v>3</v>
       </c>
-      <c r="N136" s="30"/>
-      <c r="O136" s="31"/>
+      <c r="N136" s="30">
+        <f>IF('JIMMY CLASSES'!E45="","",'JIMMY CLASSES'!E45)</f>
+        <v>4</v>
+      </c>
+      <c r="O136" s="31" t="str">
+        <f>IF(N136="","",'JIMMY CLASSES'!F45)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="55"/>
+      <c r="B137" s="74"/>
       <c r="C137" s="58"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
       <c r="F137" s="64"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
-      <c r="J137" s="50"/>
-      <c r="K137" s="50"/>
-      <c r="L137" s="53"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="61"/>
+      <c r="I137" s="61"/>
+      <c r="J137" s="61"/>
+      <c r="K137" s="61"/>
+      <c r="L137" s="55"/>
       <c r="M137" s="12">
         <v>4</v>
       </c>
-      <c r="N137" s="30"/>
-      <c r="O137" s="31"/>
+      <c r="N137" s="30">
+        <f>IF('JIMMY CLASSES'!E59="","",'JIMMY CLASSES'!E59)</f>
+        <v>5</v>
+      </c>
+      <c r="O137" s="31" t="str">
+        <f>IF(N137="","",'JIMMY CLASSES'!F59)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="55"/>
+      <c r="B138" s="74"/>
       <c r="C138" s="58"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
+      <c r="D138" s="61"/>
+      <c r="E138" s="61"/>
       <c r="F138" s="64"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
-      <c r="J138" s="50"/>
-      <c r="K138" s="50"/>
-      <c r="L138" s="53"/>
+      <c r="G138" s="61"/>
+      <c r="H138" s="61"/>
+      <c r="I138" s="61"/>
+      <c r="J138" s="61"/>
+      <c r="K138" s="61"/>
+      <c r="L138" s="55"/>
       <c r="M138" s="12">
         <v>5</v>
       </c>
-      <c r="N138" s="30"/>
-      <c r="O138" s="31"/>
+      <c r="N138" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E73="","",'JIMMY CLASSES'!E73)</f>
+        <v/>
+      </c>
+      <c r="O138" s="31" t="str">
+        <f>IF(N138="","Día de mes siguiente",'JIMMY CLASSES'!F73)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="55"/>
+      <c r="B139" s="74"/>
       <c r="C139" s="58"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="61"/>
       <c r="F139" s="64"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="50"/>
-      <c r="I139" s="50"/>
-      <c r="J139" s="50"/>
-      <c r="K139" s="50"/>
-      <c r="L139" s="52" t="s">
+      <c r="G139" s="61"/>
+      <c r="H139" s="61"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="61"/>
+      <c r="K139" s="61"/>
+      <c r="L139" s="54" t="s">
         <v>37</v>
       </c>
       <c r="M139" s="5">
         <v>1</v>
       </c>
-      <c r="N139" s="30"/>
-      <c r="O139" s="31"/>
+      <c r="N139" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E18="","",'JIMMY CLASSES'!E18)</f>
+        <v/>
+      </c>
+      <c r="O139" s="31" t="str">
+        <f>IF(N139="","Día de mes anterior",'JIMMY CLASSES'!F18)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="55"/>
+      <c r="B140" s="74"/>
       <c r="C140" s="58"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
+      <c r="D140" s="61"/>
+      <c r="E140" s="61"/>
       <c r="F140" s="64"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
-      <c r="J140" s="50"/>
-      <c r="K140" s="50"/>
-      <c r="L140" s="53"/>
+      <c r="G140" s="61"/>
+      <c r="H140" s="61"/>
+      <c r="I140" s="61"/>
+      <c r="J140" s="61"/>
+      <c r="K140" s="61"/>
+      <c r="L140" s="55"/>
       <c r="M140" s="12">
         <v>2</v>
       </c>
-      <c r="N140" s="30"/>
-      <c r="O140" s="31"/>
+      <c r="N140" s="30">
+        <f>IF('JIMMY CLASSES'!E32="","",'JIMMY CLASSES'!E32)</f>
+        <v>5</v>
+      </c>
+      <c r="O140" s="31" t="str">
+        <f>IF(N140="","",'JIMMY CLASSES'!F32)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" s="55"/>
+      <c r="B141" s="74"/>
       <c r="C141" s="58"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="61"/>
       <c r="F141" s="64"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="50"/>
-      <c r="K141" s="50"/>
-      <c r="L141" s="53"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="61"/>
+      <c r="I141" s="61"/>
+      <c r="J141" s="61"/>
+      <c r="K141" s="61"/>
+      <c r="L141" s="55"/>
       <c r="M141" s="12">
         <v>3</v>
       </c>
-      <c r="N141" s="30"/>
-      <c r="O141" s="31"/>
+      <c r="N141" s="30">
+        <f>IF('JIMMY CLASSES'!E46="","",'JIMMY CLASSES'!E46)</f>
+        <v>4</v>
+      </c>
+      <c r="O141" s="31" t="str">
+        <f>IF(N141="","",'JIMMY CLASSES'!F46)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="55"/>
+      <c r="B142" s="74"/>
       <c r="C142" s="58"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="61"/>
       <c r="F142" s="64"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="50"/>
-      <c r="K142" s="50"/>
-      <c r="L142" s="53"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="61"/>
+      <c r="I142" s="61"/>
+      <c r="J142" s="61"/>
+      <c r="K142" s="61"/>
+      <c r="L142" s="55"/>
       <c r="M142" s="12">
         <v>4</v>
       </c>
-      <c r="N142" s="30"/>
-      <c r="O142" s="31"/>
+      <c r="N142" s="30">
+        <f>IF('JIMMY CLASSES'!E60="","",'JIMMY CLASSES'!E60)</f>
+        <v>5</v>
+      </c>
+      <c r="O142" s="31" t="str">
+        <f>IF(N142="","",'JIMMY CLASSES'!F60)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="55"/>
+      <c r="B143" s="74"/>
       <c r="C143" s="58"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
       <c r="F143" s="64"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
-      <c r="I143" s="50"/>
-      <c r="J143" s="50"/>
-      <c r="K143" s="50"/>
-      <c r="L143" s="53"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="55"/>
       <c r="M143" s="12">
         <v>5</v>
       </c>
-      <c r="N143" s="30"/>
-      <c r="O143" s="31"/>
+      <c r="N143" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E74="","",'JIMMY CLASSES'!E74)</f>
+        <v/>
+      </c>
+      <c r="O143" s="31" t="str">
+        <f>IF(N143="","Día de mes siguiente",'JIMMY CLASSES'!F74)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="55"/>
+      <c r="B144" s="74"/>
       <c r="C144" s="58"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
       <c r="F144" s="64"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="50"/>
-      <c r="I144" s="50"/>
-      <c r="J144" s="50"/>
-      <c r="K144" s="50"/>
-      <c r="L144" s="52" t="s">
+      <c r="G144" s="61"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="61"/>
+      <c r="J144" s="61"/>
+      <c r="K144" s="61"/>
+      <c r="L144" s="54" t="s">
         <v>61</v>
       </c>
       <c r="M144" s="5">
         <v>1</v>
       </c>
-      <c r="N144" s="30"/>
-      <c r="O144" s="16"/>
+      <c r="N144" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E19="","",'JIMMY CLASSES'!E19)</f>
+        <v/>
+      </c>
+      <c r="O144" s="16" t="str">
+        <f>IF(N144="","Día de mes anterior",'JIMMY CLASSES'!F19)</f>
+        <v>Día de mes anterior</v>
+      </c>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B145" s="55"/>
+      <c r="B145" s="74"/>
       <c r="C145" s="58"/>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="61"/>
       <c r="F145" s="64"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="50"/>
-      <c r="I145" s="50"/>
-      <c r="J145" s="50"/>
-      <c r="K145" s="50"/>
-      <c r="L145" s="53"/>
+      <c r="G145" s="61"/>
+      <c r="H145" s="61"/>
+      <c r="I145" s="61"/>
+      <c r="J145" s="61"/>
+      <c r="K145" s="61"/>
+      <c r="L145" s="55"/>
       <c r="M145" s="12">
         <v>2</v>
       </c>
-      <c r="N145" s="30"/>
-      <c r="O145" s="31"/>
+      <c r="N145" s="30">
+        <f>IF('JIMMY CLASSES'!E33="","",'JIMMY CLASSES'!E33)</f>
+        <v>5</v>
+      </c>
+      <c r="O145" s="31" t="str">
+        <f>IF(N145="","",'JIMMY CLASSES'!F33)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B146" s="55"/>
+      <c r="B146" s="74"/>
       <c r="C146" s="58"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="61"/>
       <c r="F146" s="64"/>
-      <c r="G146" s="50"/>
-      <c r="H146" s="50"/>
-      <c r="I146" s="50"/>
-      <c r="J146" s="50"/>
-      <c r="K146" s="50"/>
-      <c r="L146" s="53"/>
+      <c r="G146" s="61"/>
+      <c r="H146" s="61"/>
+      <c r="I146" s="61"/>
+      <c r="J146" s="61"/>
+      <c r="K146" s="61"/>
+      <c r="L146" s="55"/>
       <c r="M146" s="12">
         <v>3</v>
       </c>
-      <c r="N146" s="30"/>
-      <c r="O146" s="31"/>
+      <c r="N146" s="30">
+        <f>IF('JIMMY CLASSES'!E47="","",'JIMMY CLASSES'!E47)</f>
+        <v>4</v>
+      </c>
+      <c r="O146" s="31" t="str">
+        <f>IF(N146="","",'JIMMY CLASSES'!F47)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B147" s="55"/>
+      <c r="B147" s="74"/>
       <c r="C147" s="58"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
       <c r="F147" s="64"/>
-      <c r="G147" s="50"/>
-      <c r="H147" s="50"/>
-      <c r="I147" s="50"/>
-      <c r="J147" s="50"/>
-      <c r="K147" s="50"/>
-      <c r="L147" s="53"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="61"/>
+      <c r="L147" s="55"/>
       <c r="M147" s="12">
         <v>4</v>
       </c>
-      <c r="N147" s="30"/>
-      <c r="O147" s="31"/>
+      <c r="N147" s="30">
+        <f>IF('JIMMY CLASSES'!E61="","",'JIMMY CLASSES'!E61)</f>
+        <v>5</v>
+      </c>
+      <c r="O147" s="31" t="str">
+        <f>IF(N147="","",'JIMMY CLASSES'!F61)</f>
+        <v>Sí</v>
+      </c>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B148" s="56"/>
+      <c r="B148" s="75"/>
       <c r="C148" s="59"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="62"/>
       <c r="F148" s="65"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="51"/>
-      <c r="J148" s="51"/>
-      <c r="K148" s="51"/>
-      <c r="L148" s="53"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="62"/>
+      <c r="J148" s="62"/>
+      <c r="K148" s="62"/>
+      <c r="L148" s="55"/>
       <c r="M148" s="12">
         <v>5</v>
       </c>
-      <c r="N148" s="30"/>
-      <c r="O148" s="31"/>
+      <c r="N148" s="30" t="str">
+        <f>IF('JIMMY CLASSES'!E75="","",'JIMMY CLASSES'!E75)</f>
+        <v/>
+      </c>
+      <c r="O148" s="31" t="str">
+        <f>IF(N148="","Día de mes siguiente",'JIMMY CLASSES'!F75)</f>
+        <v>Día de mes siguiente</v>
+      </c>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B149" s="57" t="s">
@@ -9326,39 +9885,45 @@
       <c r="C149" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D149" s="49" t="s">
+      <c r="D149" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="49" t="str">
+      <c r="E149" s="60" t="str">
         <f>E79</f>
         <v>JULIO</v>
       </c>
       <c r="F149" s="63">
         <v>1</v>
       </c>
-      <c r="G149" s="49" t="s">
+      <c r="G149" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H149" s="49" t="s">
+      <c r="H149" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I149" s="49" t="s">
+      <c r="I149" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J149" s="49" t="s">
+      <c r="J149" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K149" s="49" t="s">
+      <c r="K149" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L149" s="52" t="s">
+      <c r="L149" s="54" t="s">
         <v>30</v>
       </c>
       <c r="M149" s="5">
         <v>1</v>
       </c>
-      <c r="N149" s="30"/>
-      <c r="O149" s="31"/>
+      <c r="N149" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E6="","",'MANUEL CLASSES'!E6)</f>
+        <v/>
+      </c>
+      <c r="O149" s="31" t="str">
+        <f>IF(N149="","Día de mes anterior",'MANUEL CLASSES'!F6)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -9368,20 +9933,26 @@
     <row r="150" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B150" s="58"/>
       <c r="C150" s="58"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="61"/>
       <c r="F150" s="64"/>
-      <c r="G150" s="50"/>
-      <c r="H150" s="50"/>
-      <c r="I150" s="50"/>
-      <c r="J150" s="50"/>
-      <c r="K150" s="50"/>
-      <c r="L150" s="53"/>
+      <c r="G150" s="61"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="61"/>
+      <c r="J150" s="61"/>
+      <c r="K150" s="61"/>
+      <c r="L150" s="55"/>
       <c r="M150" s="12">
         <v>2</v>
       </c>
-      <c r="N150" s="30"/>
-      <c r="O150" s="31"/>
+      <c r="N150" s="30">
+        <f>IF('MANUEL CLASSES'!E16="","",'MANUEL CLASSES'!E16)</f>
+        <v>1</v>
+      </c>
+      <c r="O150" s="31" t="str">
+        <f>IF(N150="","",'MANUEL CLASSES'!F16)</f>
+        <v>Sí</v>
+      </c>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -9391,20 +9962,26 @@
     <row r="151" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B151" s="58"/>
       <c r="C151" s="58"/>
-      <c r="D151" s="50"/>
-      <c r="E151" s="50"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="61"/>
       <c r="F151" s="64"/>
-      <c r="G151" s="50"/>
-      <c r="H151" s="50"/>
-      <c r="I151" s="50"/>
-      <c r="J151" s="50"/>
-      <c r="K151" s="50"/>
-      <c r="L151" s="53"/>
+      <c r="G151" s="61"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="61"/>
+      <c r="J151" s="61"/>
+      <c r="K151" s="61"/>
+      <c r="L151" s="55"/>
       <c r="M151" s="12">
         <v>3</v>
       </c>
-      <c r="N151" s="30"/>
-      <c r="O151" s="31"/>
+      <c r="N151" s="30">
+        <f>IF('MANUEL CLASSES'!E26="","",'MANUEL CLASSES'!E26)</f>
+        <v>2</v>
+      </c>
+      <c r="O151" s="31" t="str">
+        <f>IF(N151="","",'MANUEL CLASSES'!F26)</f>
+        <v>Sí</v>
+      </c>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -9414,20 +9991,26 @@
     <row r="152" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B152" s="58"/>
       <c r="C152" s="58"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="50"/>
+      <c r="D152" s="61"/>
+      <c r="E152" s="61"/>
       <c r="F152" s="64"/>
-      <c r="G152" s="50"/>
-      <c r="H152" s="50"/>
-      <c r="I152" s="50"/>
-      <c r="J152" s="50"/>
-      <c r="K152" s="50"/>
-      <c r="L152" s="53"/>
+      <c r="G152" s="61"/>
+      <c r="H152" s="61"/>
+      <c r="I152" s="61"/>
+      <c r="J152" s="61"/>
+      <c r="K152" s="61"/>
+      <c r="L152" s="55"/>
       <c r="M152" s="12">
         <v>4</v>
       </c>
-      <c r="N152" s="30"/>
-      <c r="O152" s="31"/>
+      <c r="N152" s="30">
+        <f>IF('MANUEL CLASSES'!E36="","",'MANUEL CLASSES'!E36)</f>
+        <v>2</v>
+      </c>
+      <c r="O152" s="31" t="str">
+        <f>IF(N152="","",'MANUEL CLASSES'!F36)</f>
+        <v>Sí</v>
+      </c>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -9437,20 +10020,26 @@
     <row r="153" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B153" s="58"/>
       <c r="C153" s="58"/>
-      <c r="D153" s="50"/>
-      <c r="E153" s="50"/>
+      <c r="D153" s="61"/>
+      <c r="E153" s="61"/>
       <c r="F153" s="64"/>
-      <c r="G153" s="50"/>
-      <c r="H153" s="50"/>
-      <c r="I153" s="50"/>
-      <c r="J153" s="50"/>
-      <c r="K153" s="50"/>
-      <c r="L153" s="53"/>
+      <c r="G153" s="61"/>
+      <c r="H153" s="61"/>
+      <c r="I153" s="61"/>
+      <c r="J153" s="61"/>
+      <c r="K153" s="61"/>
+      <c r="L153" s="55"/>
       <c r="M153" s="12">
         <v>5</v>
       </c>
-      <c r="N153" s="30"/>
-      <c r="O153" s="31"/>
+      <c r="N153" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E46="","",'MANUEL CLASSES'!E46)</f>
+        <v/>
+      </c>
+      <c r="O153" s="31" t="str">
+        <f>IF(N153="","Día de mes siguiente",'MANUEL CLASSES'!F46)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -9460,22 +10049,28 @@
     <row r="154" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B154" s="58"/>
       <c r="C154" s="58"/>
-      <c r="D154" s="50"/>
-      <c r="E154" s="50"/>
+      <c r="D154" s="61"/>
+      <c r="E154" s="61"/>
       <c r="F154" s="64"/>
-      <c r="G154" s="50"/>
-      <c r="H154" s="50"/>
-      <c r="I154" s="50"/>
-      <c r="J154" s="50"/>
-      <c r="K154" s="50"/>
-      <c r="L154" s="52" t="s">
+      <c r="G154" s="61"/>
+      <c r="H154" s="61"/>
+      <c r="I154" s="61"/>
+      <c r="J154" s="61"/>
+      <c r="K154" s="61"/>
+      <c r="L154" s="54" t="s">
         <v>31</v>
       </c>
       <c r="M154" s="5">
         <v>1</v>
       </c>
-      <c r="N154" s="30"/>
-      <c r="O154" s="32"/>
+      <c r="N154" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E7="","",'MANUEL CLASSES'!E7)</f>
+        <v/>
+      </c>
+      <c r="O154" s="32" t="str">
+        <f>IF(N154="","Día de mes anterior",'MANUEL CLASSES'!F7)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -9485,20 +10080,26 @@
     <row r="155" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B155" s="58"/>
       <c r="C155" s="58"/>
-      <c r="D155" s="50"/>
-      <c r="E155" s="50"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
       <c r="F155" s="64"/>
-      <c r="G155" s="50"/>
-      <c r="H155" s="50"/>
-      <c r="I155" s="50"/>
-      <c r="J155" s="50"/>
-      <c r="K155" s="50"/>
-      <c r="L155" s="53"/>
+      <c r="G155" s="61"/>
+      <c r="H155" s="61"/>
+      <c r="I155" s="61"/>
+      <c r="J155" s="61"/>
+      <c r="K155" s="61"/>
+      <c r="L155" s="55"/>
       <c r="M155" s="12">
         <v>2</v>
       </c>
-      <c r="N155" s="30"/>
-      <c r="O155" s="32"/>
+      <c r="N155" s="30">
+        <f>IF('MANUEL CLASSES'!E17="","",'MANUEL CLASSES'!E17)</f>
+        <v>1</v>
+      </c>
+      <c r="O155" s="32" t="str">
+        <f>IF(N155="","",'MANUEL CLASSES'!F17)</f>
+        <v>Sí</v>
+      </c>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -9508,20 +10109,26 @@
     <row r="156" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B156" s="58"/>
       <c r="C156" s="58"/>
-      <c r="D156" s="50"/>
-      <c r="E156" s="50"/>
+      <c r="D156" s="61"/>
+      <c r="E156" s="61"/>
       <c r="F156" s="64"/>
-      <c r="G156" s="50"/>
-      <c r="H156" s="50"/>
-      <c r="I156" s="50"/>
-      <c r="J156" s="50"/>
-      <c r="K156" s="50"/>
-      <c r="L156" s="53"/>
+      <c r="G156" s="61"/>
+      <c r="H156" s="61"/>
+      <c r="I156" s="61"/>
+      <c r="J156" s="61"/>
+      <c r="K156" s="61"/>
+      <c r="L156" s="55"/>
       <c r="M156" s="12">
         <v>3</v>
       </c>
-      <c r="N156" s="30"/>
-      <c r="O156" s="31"/>
+      <c r="N156" s="30">
+        <f>IF('MANUEL CLASSES'!E27="","",'MANUEL CLASSES'!E27)</f>
+        <v>2</v>
+      </c>
+      <c r="O156" s="31" t="str">
+        <f>IF(N156="","",'MANUEL CLASSES'!F27)</f>
+        <v>Sí</v>
+      </c>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -9531,20 +10138,26 @@
     <row r="157" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B157" s="58"/>
       <c r="C157" s="58"/>
-      <c r="D157" s="50"/>
-      <c r="E157" s="50"/>
+      <c r="D157" s="61"/>
+      <c r="E157" s="61"/>
       <c r="F157" s="64"/>
-      <c r="G157" s="50"/>
-      <c r="H157" s="50"/>
-      <c r="I157" s="50"/>
-      <c r="J157" s="50"/>
-      <c r="K157" s="50"/>
-      <c r="L157" s="53"/>
+      <c r="G157" s="61"/>
+      <c r="H157" s="61"/>
+      <c r="I157" s="61"/>
+      <c r="J157" s="61"/>
+      <c r="K157" s="61"/>
+      <c r="L157" s="55"/>
       <c r="M157" s="12">
         <v>4</v>
       </c>
-      <c r="N157" s="30"/>
-      <c r="O157" s="31"/>
+      <c r="N157" s="30">
+        <f>IF('MANUEL CLASSES'!E37="","",'MANUEL CLASSES'!E37)</f>
+        <v>2</v>
+      </c>
+      <c r="O157" s="31" t="str">
+        <f>IF(N157="","",'MANUEL CLASSES'!F37)</f>
+        <v>Sí</v>
+      </c>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
@@ -9554,20 +10167,26 @@
     <row r="158" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B158" s="58"/>
       <c r="C158" s="58"/>
-      <c r="D158" s="50"/>
-      <c r="E158" s="50"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="61"/>
       <c r="F158" s="64"/>
-      <c r="G158" s="50"/>
-      <c r="H158" s="50"/>
-      <c r="I158" s="50"/>
-      <c r="J158" s="50"/>
-      <c r="K158" s="50"/>
-      <c r="L158" s="53"/>
+      <c r="G158" s="61"/>
+      <c r="H158" s="61"/>
+      <c r="I158" s="61"/>
+      <c r="J158" s="61"/>
+      <c r="K158" s="61"/>
+      <c r="L158" s="55"/>
       <c r="M158" s="12">
         <v>5</v>
       </c>
-      <c r="N158" s="30"/>
-      <c r="O158" s="31"/>
+      <c r="N158" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E47="","",'MANUEL CLASSES'!E47)</f>
+        <v/>
+      </c>
+      <c r="O158" s="31" t="str">
+        <f>IF(N158="","Día de mes siguiente",'MANUEL CLASSES'!F47)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
@@ -9577,22 +10196,28 @@
     <row r="159" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B159" s="58"/>
       <c r="C159" s="58"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="50"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="61"/>
       <c r="F159" s="64"/>
-      <c r="G159" s="50"/>
-      <c r="H159" s="50"/>
-      <c r="I159" s="50"/>
-      <c r="J159" s="50"/>
-      <c r="K159" s="50"/>
-      <c r="L159" s="52" t="s">
+      <c r="G159" s="61"/>
+      <c r="H159" s="61"/>
+      <c r="I159" s="61"/>
+      <c r="J159" s="61"/>
+      <c r="K159" s="61"/>
+      <c r="L159" s="54" t="s">
         <v>62</v>
       </c>
       <c r="M159" s="5">
         <v>1</v>
       </c>
-      <c r="N159" s="30"/>
-      <c r="O159" s="31"/>
+      <c r="N159" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E8="","",'MANUEL CLASSES'!E8)</f>
+        <v/>
+      </c>
+      <c r="O159" s="31" t="str">
+        <f>IF(N159="","Día de mes anterior",'MANUEL CLASSES'!F8)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
@@ -9602,20 +10227,26 @@
     <row r="160" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B160" s="58"/>
       <c r="C160" s="58"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="61"/>
       <c r="F160" s="64"/>
-      <c r="G160" s="50"/>
-      <c r="H160" s="50"/>
-      <c r="I160" s="50"/>
-      <c r="J160" s="50"/>
-      <c r="K160" s="50"/>
-      <c r="L160" s="53"/>
+      <c r="G160" s="61"/>
+      <c r="H160" s="61"/>
+      <c r="I160" s="61"/>
+      <c r="J160" s="61"/>
+      <c r="K160" s="61"/>
+      <c r="L160" s="55"/>
       <c r="M160" s="12">
         <v>2</v>
       </c>
-      <c r="N160" s="30"/>
-      <c r="O160" s="31"/>
+      <c r="N160" s="30">
+        <f>IF('MANUEL CLASSES'!E18="","",'MANUEL CLASSES'!E18)</f>
+        <v>1</v>
+      </c>
+      <c r="O160" s="31" t="str">
+        <f>IF(N160="","",'MANUEL CLASSES'!F18)</f>
+        <v>Sí</v>
+      </c>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -9625,20 +10256,26 @@
     <row r="161" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B161" s="58"/>
       <c r="C161" s="58"/>
-      <c r="D161" s="50"/>
-      <c r="E161" s="50"/>
+      <c r="D161" s="61"/>
+      <c r="E161" s="61"/>
       <c r="F161" s="64"/>
-      <c r="G161" s="50"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="50"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="50"/>
-      <c r="L161" s="53"/>
+      <c r="G161" s="61"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="61"/>
+      <c r="J161" s="61"/>
+      <c r="K161" s="61"/>
+      <c r="L161" s="55"/>
       <c r="M161" s="12">
         <v>3</v>
       </c>
-      <c r="N161" s="30"/>
-      <c r="O161" s="31"/>
+      <c r="N161" s="30">
+        <f>IF('MANUEL CLASSES'!E28="","",'MANUEL CLASSES'!E28)</f>
+        <v>2</v>
+      </c>
+      <c r="O161" s="31" t="str">
+        <f>IF(N161="","",'MANUEL CLASSES'!F28)</f>
+        <v>Sí</v>
+      </c>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
@@ -9648,20 +10285,26 @@
     <row r="162" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B162" s="58"/>
       <c r="C162" s="58"/>
-      <c r="D162" s="50"/>
-      <c r="E162" s="50"/>
+      <c r="D162" s="61"/>
+      <c r="E162" s="61"/>
       <c r="F162" s="64"/>
-      <c r="G162" s="50"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="50"/>
-      <c r="J162" s="50"/>
-      <c r="K162" s="50"/>
-      <c r="L162" s="53"/>
+      <c r="G162" s="61"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="61"/>
+      <c r="J162" s="61"/>
+      <c r="K162" s="61"/>
+      <c r="L162" s="55"/>
       <c r="M162" s="12">
         <v>4</v>
       </c>
-      <c r="N162" s="30"/>
-      <c r="O162" s="31"/>
+      <c r="N162" s="30">
+        <f>IF('MANUEL CLASSES'!E38="","",'MANUEL CLASSES'!E38)</f>
+        <v>2</v>
+      </c>
+      <c r="O162" s="31" t="str">
+        <f>IF(N162="","",'MANUEL CLASSES'!F38)</f>
+        <v>Sí</v>
+      </c>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -9671,20 +10314,26 @@
     <row r="163" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B163" s="58"/>
       <c r="C163" s="58"/>
-      <c r="D163" s="50"/>
-      <c r="E163" s="50"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="61"/>
       <c r="F163" s="64"/>
-      <c r="G163" s="50"/>
-      <c r="H163" s="50"/>
-      <c r="I163" s="50"/>
-      <c r="J163" s="50"/>
-      <c r="K163" s="50"/>
-      <c r="L163" s="53"/>
+      <c r="G163" s="61"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="61"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="61"/>
+      <c r="L163" s="55"/>
       <c r="M163" s="12">
         <v>5</v>
       </c>
-      <c r="N163" s="30"/>
-      <c r="O163" s="31"/>
+      <c r="N163" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E48="","",'MANUEL CLASSES'!E48)</f>
+        <v/>
+      </c>
+      <c r="O163" s="31" t="str">
+        <f>IF(N163="","Día de mes siguiente",'MANUEL CLASSES'!F48)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -9694,22 +10343,28 @@
     <row r="164" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B164" s="58"/>
       <c r="C164" s="58"/>
-      <c r="D164" s="50"/>
-      <c r="E164" s="50"/>
+      <c r="D164" s="61"/>
+      <c r="E164" s="61"/>
       <c r="F164" s="64"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
-      <c r="I164" s="50"/>
-      <c r="J164" s="50"/>
-      <c r="K164" s="50"/>
-      <c r="L164" s="52" t="s">
+      <c r="G164" s="61"/>
+      <c r="H164" s="61"/>
+      <c r="I164" s="61"/>
+      <c r="J164" s="61"/>
+      <c r="K164" s="61"/>
+      <c r="L164" s="54" t="s">
         <v>63</v>
       </c>
       <c r="M164" s="5">
         <v>1</v>
       </c>
-      <c r="N164" s="30"/>
-      <c r="O164" s="32"/>
+      <c r="N164" s="30">
+        <f>IF('MANUEL CLASSES'!E9="","",'MANUEL CLASSES'!E9)</f>
+        <v>1</v>
+      </c>
+      <c r="O164" s="32" t="str">
+        <f>IF(N164="","Día de mes anterior",'MANUEL CLASSES'!F9)</f>
+        <v>Sí</v>
+      </c>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -9719,20 +10374,26 @@
     <row r="165" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B165" s="58"/>
       <c r="C165" s="58"/>
-      <c r="D165" s="50"/>
-      <c r="E165" s="50"/>
+      <c r="D165" s="61"/>
+      <c r="E165" s="61"/>
       <c r="F165" s="64"/>
-      <c r="G165" s="50"/>
-      <c r="H165" s="50"/>
-      <c r="I165" s="50"/>
-      <c r="J165" s="50"/>
-      <c r="K165" s="50"/>
-      <c r="L165" s="53"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="61"/>
+      <c r="I165" s="61"/>
+      <c r="J165" s="61"/>
+      <c r="K165" s="61"/>
+      <c r="L165" s="55"/>
       <c r="M165" s="12">
         <v>2</v>
       </c>
-      <c r="N165" s="30"/>
-      <c r="O165" s="32"/>
+      <c r="N165" s="30">
+        <f>IF('MANUEL CLASSES'!E19="","",'MANUEL CLASSES'!E19)</f>
+        <v>1</v>
+      </c>
+      <c r="O165" s="32" t="str">
+        <f>IF(N165="","",'MANUEL CLASSES'!F19)</f>
+        <v>Sí</v>
+      </c>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -9742,20 +10403,26 @@
     <row r="166" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B166" s="58"/>
       <c r="C166" s="58"/>
-      <c r="D166" s="50"/>
-      <c r="E166" s="50"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="61"/>
       <c r="F166" s="64"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="50"/>
-      <c r="I166" s="50"/>
-      <c r="J166" s="50"/>
-      <c r="K166" s="50"/>
-      <c r="L166" s="53"/>
+      <c r="G166" s="61"/>
+      <c r="H166" s="61"/>
+      <c r="I166" s="61"/>
+      <c r="J166" s="61"/>
+      <c r="K166" s="61"/>
+      <c r="L166" s="55"/>
       <c r="M166" s="12">
         <v>3</v>
       </c>
-      <c r="N166" s="30"/>
-      <c r="O166" s="31"/>
+      <c r="N166" s="30">
+        <f>IF('MANUEL CLASSES'!E29="","",'MANUEL CLASSES'!E29)</f>
+        <v>2</v>
+      </c>
+      <c r="O166" s="31" t="str">
+        <f>IF(N166="","",'MANUEL CLASSES'!F29)</f>
+        <v>Sí</v>
+      </c>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -9765,20 +10432,26 @@
     <row r="167" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B167" s="58"/>
       <c r="C167" s="58"/>
-      <c r="D167" s="50"/>
-      <c r="E167" s="50"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
       <c r="F167" s="64"/>
-      <c r="G167" s="50"/>
-      <c r="H167" s="50"/>
-      <c r="I167" s="50"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
-      <c r="L167" s="53"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="55"/>
       <c r="M167" s="12">
         <v>4</v>
       </c>
-      <c r="N167" s="30"/>
-      <c r="O167" s="31"/>
+      <c r="N167" s="30">
+        <f>IF('MANUEL CLASSES'!E39="","",'MANUEL CLASSES'!E39)</f>
+        <v>2</v>
+      </c>
+      <c r="O167" s="31" t="str">
+        <f>IF(N167="","",'MANUEL CLASSES'!F39)</f>
+        <v>Sí</v>
+      </c>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -9788,20 +10461,26 @@
     <row r="168" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B168" s="58"/>
       <c r="C168" s="58"/>
-      <c r="D168" s="50"/>
-      <c r="E168" s="50"/>
+      <c r="D168" s="61"/>
+      <c r="E168" s="61"/>
       <c r="F168" s="64"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="50"/>
-      <c r="I168" s="50"/>
-      <c r="J168" s="50"/>
-      <c r="K168" s="50"/>
-      <c r="L168" s="53"/>
+      <c r="G168" s="61"/>
+      <c r="H168" s="61"/>
+      <c r="I168" s="61"/>
+      <c r="J168" s="61"/>
+      <c r="K168" s="61"/>
+      <c r="L168" s="55"/>
       <c r="M168" s="12">
         <v>5</v>
       </c>
-      <c r="N168" s="30"/>
-      <c r="O168" s="31"/>
+      <c r="N168" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E49="","",'MANUEL CLASSES'!E49)</f>
+        <v/>
+      </c>
+      <c r="O168" s="31" t="str">
+        <f>IF(N168="","Día de mes siguiente",'MANUEL CLASSES'!F49)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -9811,22 +10490,28 @@
     <row r="169" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B169" s="58"/>
       <c r="C169" s="58"/>
-      <c r="D169" s="50"/>
-      <c r="E169" s="50"/>
+      <c r="D169" s="61"/>
+      <c r="E169" s="61"/>
       <c r="F169" s="64"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="50"/>
-      <c r="I169" s="50"/>
-      <c r="J169" s="50"/>
-      <c r="K169" s="50"/>
-      <c r="L169" s="52" t="s">
+      <c r="G169" s="61"/>
+      <c r="H169" s="61"/>
+      <c r="I169" s="61"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="61"/>
+      <c r="L169" s="54" t="s">
         <v>64</v>
       </c>
       <c r="M169" s="5">
         <v>1</v>
       </c>
-      <c r="N169" s="30"/>
-      <c r="O169" s="31"/>
+      <c r="N169" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E10="","",'MANUEL CLASSES'!E10)</f>
+        <v/>
+      </c>
+      <c r="O169" s="31" t="str">
+        <f>IF(N169="","Día de mes anterior",'MANUEL CLASSES'!F10)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -9836,20 +10521,26 @@
     <row r="170" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B170" s="58"/>
       <c r="C170" s="58"/>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
+      <c r="D170" s="61"/>
+      <c r="E170" s="61"/>
       <c r="F170" s="64"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="50"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="53"/>
+      <c r="G170" s="61"/>
+      <c r="H170" s="61"/>
+      <c r="I170" s="61"/>
+      <c r="J170" s="61"/>
+      <c r="K170" s="61"/>
+      <c r="L170" s="55"/>
       <c r="M170" s="12">
         <v>2</v>
       </c>
-      <c r="N170" s="30"/>
-      <c r="O170" s="32"/>
+      <c r="N170" s="30">
+        <f>IF('MANUEL CLASSES'!E20="","",'MANUEL CLASSES'!E20)</f>
+        <v>1</v>
+      </c>
+      <c r="O170" s="32" t="str">
+        <f>IF(N170="","",'MANUEL CLASSES'!F20)</f>
+        <v>Sí</v>
+      </c>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
@@ -9859,20 +10550,26 @@
     <row r="171" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B171" s="58"/>
       <c r="C171" s="58"/>
-      <c r="D171" s="50"/>
-      <c r="E171" s="50"/>
+      <c r="D171" s="61"/>
+      <c r="E171" s="61"/>
       <c r="F171" s="64"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="50"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="53"/>
+      <c r="G171" s="61"/>
+      <c r="H171" s="61"/>
+      <c r="I171" s="61"/>
+      <c r="J171" s="61"/>
+      <c r="K171" s="61"/>
+      <c r="L171" s="55"/>
       <c r="M171" s="12">
         <v>3</v>
       </c>
-      <c r="N171" s="30"/>
-      <c r="O171" s="31"/>
+      <c r="N171" s="30">
+        <f>IF('MANUEL CLASSES'!E30="","",'MANUEL CLASSES'!E30)</f>
+        <v>2</v>
+      </c>
+      <c r="O171" s="31" t="str">
+        <f>IF(N171="","",'MANUEL CLASSES'!F30)</f>
+        <v>Sí</v>
+      </c>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
@@ -9882,20 +10579,26 @@
     <row r="172" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B172" s="58"/>
       <c r="C172" s="58"/>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="61"/>
       <c r="F172" s="64"/>
-      <c r="G172" s="50"/>
-      <c r="H172" s="50"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="53"/>
+      <c r="G172" s="61"/>
+      <c r="H172" s="61"/>
+      <c r="I172" s="61"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="61"/>
+      <c r="L172" s="55"/>
       <c r="M172" s="12">
         <v>4</v>
       </c>
-      <c r="N172" s="30"/>
-      <c r="O172" s="31"/>
+      <c r="N172" s="30">
+        <f>IF('MANUEL CLASSES'!E40="","",'MANUEL CLASSES'!E40)</f>
+        <v>2</v>
+      </c>
+      <c r="O172" s="31" t="str">
+        <f>IF(N172="","",'MANUEL CLASSES'!F40)</f>
+        <v>Sí</v>
+      </c>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
@@ -9905,20 +10608,26 @@
     <row r="173" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B173" s="58"/>
       <c r="C173" s="58"/>
-      <c r="D173" s="50"/>
-      <c r="E173" s="50"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="61"/>
       <c r="F173" s="64"/>
-      <c r="G173" s="50"/>
-      <c r="H173" s="50"/>
-      <c r="I173" s="50"/>
-      <c r="J173" s="50"/>
-      <c r="K173" s="50"/>
-      <c r="L173" s="53"/>
+      <c r="G173" s="61"/>
+      <c r="H173" s="61"/>
+      <c r="I173" s="61"/>
+      <c r="J173" s="61"/>
+      <c r="K173" s="61"/>
+      <c r="L173" s="55"/>
       <c r="M173" s="12">
         <v>5</v>
       </c>
-      <c r="N173" s="30"/>
-      <c r="O173" s="31"/>
+      <c r="N173" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E50="","",'MANUEL CLASSES'!E50)</f>
+        <v/>
+      </c>
+      <c r="O173" s="31" t="str">
+        <f>IF(N173="","Día de mes siguiente",'MANUEL CLASSES'!F50)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -9928,22 +10637,28 @@
     <row r="174" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B174" s="58"/>
       <c r="C174" s="58"/>
-      <c r="D174" s="50"/>
-      <c r="E174" s="50"/>
+      <c r="D174" s="61"/>
+      <c r="E174" s="61"/>
       <c r="F174" s="64"/>
-      <c r="G174" s="50"/>
-      <c r="H174" s="50"/>
-      <c r="I174" s="50"/>
-      <c r="J174" s="50"/>
-      <c r="K174" s="50"/>
-      <c r="L174" s="52" t="s">
+      <c r="G174" s="61"/>
+      <c r="H174" s="61"/>
+      <c r="I174" s="61"/>
+      <c r="J174" s="61"/>
+      <c r="K174" s="61"/>
+      <c r="L174" s="54" t="s">
         <v>20</v>
       </c>
       <c r="M174" s="5">
         <v>1</v>
       </c>
-      <c r="N174" s="30"/>
-      <c r="O174" s="31"/>
+      <c r="N174" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E11="","",'MANUEL CLASSES'!E11)</f>
+        <v/>
+      </c>
+      <c r="O174" s="31" t="str">
+        <f>IF(N174="","Día de mes anterior",'MANUEL CLASSES'!F11)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -9953,20 +10668,26 @@
     <row r="175" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B175" s="58"/>
       <c r="C175" s="58"/>
-      <c r="D175" s="50"/>
-      <c r="E175" s="50"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
       <c r="F175" s="64"/>
-      <c r="G175" s="50"/>
-      <c r="H175" s="50"/>
-      <c r="I175" s="50"/>
-      <c r="J175" s="50"/>
-      <c r="K175" s="50"/>
-      <c r="L175" s="53"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="61"/>
+      <c r="L175" s="55"/>
       <c r="M175" s="12">
         <v>2</v>
       </c>
-      <c r="N175" s="30"/>
-      <c r="O175" s="32"/>
+      <c r="N175" s="30">
+        <f>IF('MANUEL CLASSES'!E21="","",'MANUEL CLASSES'!E21)</f>
+        <v>1</v>
+      </c>
+      <c r="O175" s="32" t="str">
+        <f>IF(N175="","",'MANUEL CLASSES'!F21)</f>
+        <v>Sí</v>
+      </c>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -9976,20 +10697,26 @@
     <row r="176" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B176" s="58"/>
       <c r="C176" s="58"/>
-      <c r="D176" s="50"/>
-      <c r="E176" s="50"/>
+      <c r="D176" s="61"/>
+      <c r="E176" s="61"/>
       <c r="F176" s="64"/>
-      <c r="G176" s="50"/>
-      <c r="H176" s="50"/>
-      <c r="I176" s="50"/>
-      <c r="J176" s="50"/>
-      <c r="K176" s="50"/>
-      <c r="L176" s="53"/>
+      <c r="G176" s="61"/>
+      <c r="H176" s="61"/>
+      <c r="I176" s="61"/>
+      <c r="J176" s="61"/>
+      <c r="K176" s="61"/>
+      <c r="L176" s="55"/>
       <c r="M176" s="12">
         <v>3</v>
       </c>
-      <c r="N176" s="30"/>
-      <c r="O176" s="31"/>
+      <c r="N176" s="30">
+        <f>IF('MANUEL CLASSES'!E31="","",'MANUEL CLASSES'!E31)</f>
+        <v>2</v>
+      </c>
+      <c r="O176" s="31" t="str">
+        <f>IF(N176="","",'MANUEL CLASSES'!F31)</f>
+        <v>Sí</v>
+      </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -9999,20 +10726,26 @@
     <row r="177" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B177" s="58"/>
       <c r="C177" s="58"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
+      <c r="D177" s="61"/>
+      <c r="E177" s="61"/>
       <c r="F177" s="64"/>
-      <c r="G177" s="50"/>
-      <c r="H177" s="50"/>
-      <c r="I177" s="50"/>
-      <c r="J177" s="50"/>
-      <c r="K177" s="50"/>
-      <c r="L177" s="53"/>
+      <c r="G177" s="61"/>
+      <c r="H177" s="61"/>
+      <c r="I177" s="61"/>
+      <c r="J177" s="61"/>
+      <c r="K177" s="61"/>
+      <c r="L177" s="55"/>
       <c r="M177" s="12">
         <v>4</v>
       </c>
-      <c r="N177" s="30"/>
-      <c r="O177" s="31"/>
+      <c r="N177" s="30">
+        <f>IF('MANUEL CLASSES'!E41="","",'MANUEL CLASSES'!E41)</f>
+        <v>2</v>
+      </c>
+      <c r="O177" s="31" t="str">
+        <f>IF(N177="","",'MANUEL CLASSES'!F41)</f>
+        <v>Sí</v>
+      </c>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -10022,20 +10755,26 @@
     <row r="178" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B178" s="58"/>
       <c r="C178" s="58"/>
-      <c r="D178" s="50"/>
-      <c r="E178" s="50"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="61"/>
       <c r="F178" s="64"/>
-      <c r="G178" s="50"/>
-      <c r="H178" s="50"/>
-      <c r="I178" s="50"/>
-      <c r="J178" s="50"/>
-      <c r="K178" s="50"/>
-      <c r="L178" s="53"/>
+      <c r="G178" s="61"/>
+      <c r="H178" s="61"/>
+      <c r="I178" s="61"/>
+      <c r="J178" s="61"/>
+      <c r="K178" s="61"/>
+      <c r="L178" s="55"/>
       <c r="M178" s="12">
         <v>5</v>
       </c>
-      <c r="N178" s="30"/>
-      <c r="O178" s="31"/>
+      <c r="N178" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E51="","",'MANUEL CLASSES'!E51)</f>
+        <v/>
+      </c>
+      <c r="O178" s="31" t="str">
+        <f>IF(N178="","Día de mes siguiente",'MANUEL CLASSES'!F51)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -10045,22 +10784,28 @@
     <row r="179" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B179" s="58"/>
       <c r="C179" s="58"/>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="61"/>
       <c r="F179" s="64"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
-      <c r="J179" s="50"/>
-      <c r="K179" s="50"/>
-      <c r="L179" s="52" t="s">
+      <c r="G179" s="61"/>
+      <c r="H179" s="61"/>
+      <c r="I179" s="61"/>
+      <c r="J179" s="61"/>
+      <c r="K179" s="61"/>
+      <c r="L179" s="54" t="s">
         <v>21</v>
       </c>
       <c r="M179" s="5">
         <v>1</v>
       </c>
-      <c r="N179" s="30"/>
-      <c r="O179" s="32"/>
+      <c r="N179" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E12="","",'MANUEL CLASSES'!E12)</f>
+        <v/>
+      </c>
+      <c r="O179" s="32" t="str">
+        <f>IF(N179="","Día de mes anterior",'MANUEL CLASSES'!F12)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -10070,20 +10815,26 @@
     <row r="180" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B180" s="58"/>
       <c r="C180" s="58"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
+      <c r="D180" s="61"/>
+      <c r="E180" s="61"/>
       <c r="F180" s="64"/>
-      <c r="G180" s="50"/>
-      <c r="H180" s="50"/>
-      <c r="I180" s="50"/>
-      <c r="J180" s="50"/>
-      <c r="K180" s="50"/>
-      <c r="L180" s="53"/>
+      <c r="G180" s="61"/>
+      <c r="H180" s="61"/>
+      <c r="I180" s="61"/>
+      <c r="J180" s="61"/>
+      <c r="K180" s="61"/>
+      <c r="L180" s="55"/>
       <c r="M180" s="12">
         <v>2</v>
       </c>
-      <c r="N180" s="30"/>
-      <c r="O180" s="32"/>
+      <c r="N180" s="30">
+        <f>IF('MANUEL CLASSES'!E22="","",'MANUEL CLASSES'!E22)</f>
+        <v>1</v>
+      </c>
+      <c r="O180" s="32" t="str">
+        <f>IF(N180="","",'MANUEL CLASSES'!F22)</f>
+        <v>Sí</v>
+      </c>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -10093,20 +10844,26 @@
     <row r="181" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B181" s="58"/>
       <c r="C181" s="58"/>
-      <c r="D181" s="50"/>
-      <c r="E181" s="50"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="61"/>
       <c r="F181" s="64"/>
-      <c r="G181" s="50"/>
-      <c r="H181" s="50"/>
-      <c r="I181" s="50"/>
-      <c r="J181" s="50"/>
-      <c r="K181" s="50"/>
-      <c r="L181" s="53"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="61"/>
+      <c r="I181" s="61"/>
+      <c r="J181" s="61"/>
+      <c r="K181" s="61"/>
+      <c r="L181" s="55"/>
       <c r="M181" s="12">
         <v>3</v>
       </c>
-      <c r="N181" s="30"/>
-      <c r="O181" s="31"/>
+      <c r="N181" s="30">
+        <f>IF('MANUEL CLASSES'!E32="","",'MANUEL CLASSES'!E32)</f>
+        <v>2</v>
+      </c>
+      <c r="O181" s="31" t="str">
+        <f>IF(N181="","",'MANUEL CLASSES'!F32)</f>
+        <v>Sí</v>
+      </c>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
@@ -10116,20 +10873,26 @@
     <row r="182" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B182" s="58"/>
       <c r="C182" s="58"/>
-      <c r="D182" s="50"/>
-      <c r="E182" s="50"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="61"/>
       <c r="F182" s="64"/>
-      <c r="G182" s="50"/>
-      <c r="H182" s="50"/>
-      <c r="I182" s="50"/>
-      <c r="J182" s="50"/>
-      <c r="K182" s="50"/>
-      <c r="L182" s="53"/>
+      <c r="G182" s="61"/>
+      <c r="H182" s="61"/>
+      <c r="I182" s="61"/>
+      <c r="J182" s="61"/>
+      <c r="K182" s="61"/>
+      <c r="L182" s="55"/>
       <c r="M182" s="12">
         <v>4</v>
       </c>
-      <c r="N182" s="30"/>
-      <c r="O182" s="31"/>
+      <c r="N182" s="30">
+        <f>IF('MANUEL CLASSES'!E42="","",'MANUEL CLASSES'!E42)</f>
+        <v>2</v>
+      </c>
+      <c r="O182" s="31" t="str">
+        <f>IF(N182="","",'MANUEL CLASSES'!F42)</f>
+        <v>Sí</v>
+      </c>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -10139,20 +10902,26 @@
     <row r="183" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B183" s="58"/>
       <c r="C183" s="58"/>
-      <c r="D183" s="50"/>
-      <c r="E183" s="50"/>
+      <c r="D183" s="61"/>
+      <c r="E183" s="61"/>
       <c r="F183" s="64"/>
-      <c r="G183" s="50"/>
-      <c r="H183" s="50"/>
-      <c r="I183" s="50"/>
-      <c r="J183" s="50"/>
-      <c r="K183" s="50"/>
-      <c r="L183" s="53"/>
+      <c r="G183" s="61"/>
+      <c r="H183" s="61"/>
+      <c r="I183" s="61"/>
+      <c r="J183" s="61"/>
+      <c r="K183" s="61"/>
+      <c r="L183" s="55"/>
       <c r="M183" s="12">
         <v>5</v>
       </c>
-      <c r="N183" s="30"/>
-      <c r="O183" s="31"/>
+      <c r="N183" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E52="","",'MANUEL CLASSES'!E52)</f>
+        <v/>
+      </c>
+      <c r="O183" s="31" t="str">
+        <f>IF(N183="","Día de mes siguiente",'MANUEL CLASSES'!F52)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
@@ -10162,22 +10931,28 @@
     <row r="184" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B184" s="58"/>
       <c r="C184" s="58"/>
-      <c r="D184" s="50"/>
-      <c r="E184" s="50"/>
+      <c r="D184" s="61"/>
+      <c r="E184" s="61"/>
       <c r="F184" s="64"/>
-      <c r="G184" s="50"/>
-      <c r="H184" s="50"/>
-      <c r="I184" s="50"/>
-      <c r="J184" s="50"/>
-      <c r="K184" s="50"/>
-      <c r="L184" s="60" t="s">
-        <v>65</v>
+      <c r="G184" s="61"/>
+      <c r="H184" s="61"/>
+      <c r="I184" s="61"/>
+      <c r="J184" s="61"/>
+      <c r="K184" s="61"/>
+      <c r="L184" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="M184" s="5">
         <v>1</v>
       </c>
-      <c r="N184" s="30"/>
-      <c r="O184" s="31"/>
+      <c r="N184" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E13="","",'MANUEL CLASSES'!E13)</f>
+        <v/>
+      </c>
+      <c r="O184" s="31" t="str">
+        <f>IF(N184="","Día de mes anterior",'MANUEL CLASSES'!F13)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
@@ -10187,20 +10962,26 @@
     <row r="185" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B185" s="58"/>
       <c r="C185" s="58"/>
-      <c r="D185" s="50"/>
-      <c r="E185" s="50"/>
+      <c r="D185" s="61"/>
+      <c r="E185" s="61"/>
       <c r="F185" s="64"/>
-      <c r="G185" s="50"/>
-      <c r="H185" s="50"/>
-      <c r="I185" s="50"/>
-      <c r="J185" s="50"/>
-      <c r="K185" s="50"/>
-      <c r="L185" s="61"/>
+      <c r="G185" s="61"/>
+      <c r="H185" s="61"/>
+      <c r="I185" s="61"/>
+      <c r="J185" s="61"/>
+      <c r="K185" s="61"/>
+      <c r="L185" s="55"/>
       <c r="M185" s="12">
         <v>2</v>
       </c>
-      <c r="N185" s="30"/>
-      <c r="O185" s="32"/>
+      <c r="N185" s="30">
+        <f>IF('MANUEL CLASSES'!E23="","",'MANUEL CLASSES'!E23)</f>
+        <v>1</v>
+      </c>
+      <c r="O185" s="32" t="str">
+        <f>IF(N185="","",'MANUEL CLASSES'!F23)</f>
+        <v>Sí</v>
+      </c>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
@@ -10210,20 +10991,26 @@
     <row r="186" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B186" s="58"/>
       <c r="C186" s="58"/>
-      <c r="D186" s="50"/>
-      <c r="E186" s="50"/>
+      <c r="D186" s="61"/>
+      <c r="E186" s="61"/>
       <c r="F186" s="64"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
-      <c r="I186" s="50"/>
-      <c r="J186" s="50"/>
-      <c r="K186" s="50"/>
-      <c r="L186" s="61"/>
+      <c r="G186" s="61"/>
+      <c r="H186" s="61"/>
+      <c r="I186" s="61"/>
+      <c r="J186" s="61"/>
+      <c r="K186" s="61"/>
+      <c r="L186" s="55"/>
       <c r="M186" s="12">
         <v>3</v>
       </c>
-      <c r="N186" s="30"/>
-      <c r="O186" s="31"/>
+      <c r="N186" s="30">
+        <f>IF('MANUEL CLASSES'!E33="","",'MANUEL CLASSES'!E33)</f>
+        <v>2</v>
+      </c>
+      <c r="O186" s="31" t="str">
+        <f>IF(N186="","",'MANUEL CLASSES'!F33)</f>
+        <v>Sí</v>
+      </c>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -10233,20 +11020,26 @@
     <row r="187" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B187" s="58"/>
       <c r="C187" s="58"/>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
+      <c r="D187" s="61"/>
+      <c r="E187" s="61"/>
       <c r="F187" s="64"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
-      <c r="I187" s="50"/>
-      <c r="J187" s="50"/>
-      <c r="K187" s="50"/>
-      <c r="L187" s="61"/>
+      <c r="G187" s="61"/>
+      <c r="H187" s="61"/>
+      <c r="I187" s="61"/>
+      <c r="J187" s="61"/>
+      <c r="K187" s="61"/>
+      <c r="L187" s="55"/>
       <c r="M187" s="12">
         <v>4</v>
       </c>
-      <c r="N187" s="30"/>
-      <c r="O187" s="31"/>
+      <c r="N187" s="30">
+        <f>IF('MANUEL CLASSES'!E43="","",'MANUEL CLASSES'!E43)</f>
+        <v>2</v>
+      </c>
+      <c r="O187" s="31" t="str">
+        <f>IF(N187="","",'MANUEL CLASSES'!F43)</f>
+        <v>Sí</v>
+      </c>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -10256,20 +11049,26 @@
     <row r="188" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B188" s="58"/>
       <c r="C188" s="58"/>
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
+      <c r="D188" s="61"/>
+      <c r="E188" s="61"/>
       <c r="F188" s="64"/>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50"/>
-      <c r="I188" s="50"/>
-      <c r="J188" s="50"/>
-      <c r="K188" s="50"/>
-      <c r="L188" s="61"/>
+      <c r="G188" s="61"/>
+      <c r="H188" s="61"/>
+      <c r="I188" s="61"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="61"/>
+      <c r="L188" s="55"/>
       <c r="M188" s="12">
         <v>5</v>
       </c>
-      <c r="N188" s="30"/>
-      <c r="O188" s="31"/>
+      <c r="N188" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E53="","",'MANUEL CLASSES'!E53)</f>
+        <v/>
+      </c>
+      <c r="O188" s="31" t="str">
+        <f>IF(N188="","Día de mes siguiente",'MANUEL CLASSES'!F53)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -10279,22 +11078,28 @@
     <row r="189" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B189" s="58"/>
       <c r="C189" s="58"/>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
+      <c r="D189" s="61"/>
+      <c r="E189" s="61"/>
       <c r="F189" s="64"/>
-      <c r="G189" s="50"/>
-      <c r="H189" s="50"/>
-      <c r="I189" s="50"/>
-      <c r="J189" s="50"/>
-      <c r="K189" s="50"/>
-      <c r="L189" s="52" t="s">
-        <v>66</v>
+      <c r="G189" s="61"/>
+      <c r="H189" s="61"/>
+      <c r="I189" s="61"/>
+      <c r="J189" s="61"/>
+      <c r="K189" s="61"/>
+      <c r="L189" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="M189" s="5">
         <v>1</v>
       </c>
-      <c r="N189" s="30"/>
-      <c r="O189" s="32"/>
+      <c r="N189" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E14="","",'MANUEL CLASSES'!E14)</f>
+        <v/>
+      </c>
+      <c r="O189" s="32" t="str">
+        <f>IF(N189="","Día de mes anterior",'MANUEL CLASSES'!F14)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -10304,20 +11109,26 @@
     <row r="190" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B190" s="58"/>
       <c r="C190" s="58"/>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
+      <c r="D190" s="61"/>
+      <c r="E190" s="61"/>
       <c r="F190" s="64"/>
-      <c r="G190" s="50"/>
-      <c r="H190" s="50"/>
-      <c r="I190" s="50"/>
-      <c r="J190" s="50"/>
-      <c r="K190" s="50"/>
-      <c r="L190" s="53"/>
+      <c r="G190" s="61"/>
+      <c r="H190" s="61"/>
+      <c r="I190" s="61"/>
+      <c r="J190" s="61"/>
+      <c r="K190" s="61"/>
+      <c r="L190" s="55"/>
       <c r="M190" s="12">
         <v>2</v>
       </c>
-      <c r="N190" s="30"/>
-      <c r="O190" s="32"/>
+      <c r="N190" s="30">
+        <f>IF('MANUEL CLASSES'!E24="","",'MANUEL CLASSES'!E24)</f>
+        <v>1</v>
+      </c>
+      <c r="O190" s="32" t="str">
+        <f>IF(N190="","",'MANUEL CLASSES'!F24)</f>
+        <v>Sí</v>
+      </c>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -10327,20 +11138,26 @@
     <row r="191" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B191" s="58"/>
       <c r="C191" s="58"/>
-      <c r="D191" s="50"/>
-      <c r="E191" s="50"/>
+      <c r="D191" s="61"/>
+      <c r="E191" s="61"/>
       <c r="F191" s="64"/>
-      <c r="G191" s="50"/>
-      <c r="H191" s="50"/>
-      <c r="I191" s="50"/>
-      <c r="J191" s="50"/>
-      <c r="K191" s="50"/>
-      <c r="L191" s="53"/>
+      <c r="G191" s="61"/>
+      <c r="H191" s="61"/>
+      <c r="I191" s="61"/>
+      <c r="J191" s="61"/>
+      <c r="K191" s="61"/>
+      <c r="L191" s="55"/>
       <c r="M191" s="12">
         <v>3</v>
       </c>
-      <c r="N191" s="30"/>
-      <c r="O191" s="31"/>
+      <c r="N191" s="30">
+        <f>IF('MANUEL CLASSES'!E34="","",'MANUEL CLASSES'!E34)</f>
+        <v>2</v>
+      </c>
+      <c r="O191" s="31" t="str">
+        <f>IF(N191="","",'MANUEL CLASSES'!F34)</f>
+        <v>Sí</v>
+      </c>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -10350,20 +11167,26 @@
     <row r="192" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B192" s="58"/>
       <c r="C192" s="58"/>
-      <c r="D192" s="50"/>
-      <c r="E192" s="50"/>
+      <c r="D192" s="61"/>
+      <c r="E192" s="61"/>
       <c r="F192" s="64"/>
-      <c r="G192" s="50"/>
-      <c r="H192" s="50"/>
-      <c r="I192" s="50"/>
-      <c r="J192" s="50"/>
-      <c r="K192" s="50"/>
-      <c r="L192" s="53"/>
+      <c r="G192" s="61"/>
+      <c r="H192" s="61"/>
+      <c r="I192" s="61"/>
+      <c r="J192" s="61"/>
+      <c r="K192" s="61"/>
+      <c r="L192" s="55"/>
       <c r="M192" s="12">
         <v>4</v>
       </c>
-      <c r="N192" s="30"/>
-      <c r="O192" s="31"/>
+      <c r="N192" s="30">
+        <f>IF('MANUEL CLASSES'!E44="","",'MANUEL CLASSES'!E44)</f>
+        <v>2</v>
+      </c>
+      <c r="O192" s="31" t="str">
+        <f>IF(N192="","",'MANUEL CLASSES'!F44)</f>
+        <v>Sí</v>
+      </c>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
@@ -10373,20 +11196,26 @@
     <row r="193" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B193" s="58"/>
       <c r="C193" s="58"/>
-      <c r="D193" s="50"/>
-      <c r="E193" s="50"/>
+      <c r="D193" s="61"/>
+      <c r="E193" s="61"/>
       <c r="F193" s="64"/>
-      <c r="G193" s="50"/>
-      <c r="H193" s="50"/>
-      <c r="I193" s="50"/>
-      <c r="J193" s="50"/>
-      <c r="K193" s="50"/>
-      <c r="L193" s="53"/>
+      <c r="G193" s="61"/>
+      <c r="H193" s="61"/>
+      <c r="I193" s="61"/>
+      <c r="J193" s="61"/>
+      <c r="K193" s="61"/>
+      <c r="L193" s="55"/>
       <c r="M193" s="12">
         <v>5</v>
       </c>
-      <c r="N193" s="30"/>
-      <c r="O193" s="31"/>
+      <c r="N193" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E54="","",'MANUEL CLASSES'!E54)</f>
+        <v/>
+      </c>
+      <c r="O193" s="31" t="str">
+        <f>IF(N193="","Día de mes siguiente",'MANUEL CLASSES'!F54)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -10396,22 +11225,28 @@
     <row r="194" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B194" s="58"/>
       <c r="C194" s="58"/>
-      <c r="D194" s="50"/>
-      <c r="E194" s="50"/>
+      <c r="D194" s="61"/>
+      <c r="E194" s="61"/>
       <c r="F194" s="64"/>
-      <c r="G194" s="50"/>
-      <c r="H194" s="50"/>
-      <c r="I194" s="50"/>
-      <c r="J194" s="50"/>
-      <c r="K194" s="50"/>
-      <c r="L194" s="52" t="s">
-        <v>67</v>
+      <c r="G194" s="61"/>
+      <c r="H194" s="61"/>
+      <c r="I194" s="61"/>
+      <c r="J194" s="61"/>
+      <c r="K194" s="61"/>
+      <c r="L194" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="M194" s="5">
         <v>1</v>
       </c>
-      <c r="N194" s="30"/>
-      <c r="O194" s="31"/>
+      <c r="N194" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E15="","",'MANUEL CLASSES'!E15)</f>
+        <v/>
+      </c>
+      <c r="O194" s="31" t="str">
+        <f>IF(N194="","Día de mes anterior",'MANUEL CLASSES'!F15)</f>
+        <v>Día de mes anterior</v>
+      </c>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -10421,20 +11256,26 @@
     <row r="195" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B195" s="58"/>
       <c r="C195" s="58"/>
-      <c r="D195" s="50"/>
-      <c r="E195" s="50"/>
+      <c r="D195" s="61"/>
+      <c r="E195" s="61"/>
       <c r="F195" s="64"/>
-      <c r="G195" s="50"/>
-      <c r="H195" s="50"/>
-      <c r="I195" s="50"/>
-      <c r="J195" s="50"/>
-      <c r="K195" s="50"/>
-      <c r="L195" s="53"/>
+      <c r="G195" s="61"/>
+      <c r="H195" s="61"/>
+      <c r="I195" s="61"/>
+      <c r="J195" s="61"/>
+      <c r="K195" s="61"/>
+      <c r="L195" s="55"/>
       <c r="M195" s="12">
         <v>2</v>
       </c>
-      <c r="N195" s="30"/>
-      <c r="O195" s="32"/>
+      <c r="N195" s="30">
+        <f>IF('MANUEL CLASSES'!E25="","",'MANUEL CLASSES'!E25)</f>
+        <v>1</v>
+      </c>
+      <c r="O195" s="32" t="str">
+        <f>IF(N195="","",'MANUEL CLASSES'!F25)</f>
+        <v>Sí</v>
+      </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -10444,20 +11285,26 @@
     <row r="196" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B196" s="58"/>
       <c r="C196" s="58"/>
-      <c r="D196" s="50"/>
-      <c r="E196" s="50"/>
+      <c r="D196" s="61"/>
+      <c r="E196" s="61"/>
       <c r="F196" s="64"/>
-      <c r="G196" s="50"/>
-      <c r="H196" s="50"/>
-      <c r="I196" s="50"/>
-      <c r="J196" s="50"/>
-      <c r="K196" s="50"/>
-      <c r="L196" s="53"/>
+      <c r="G196" s="61"/>
+      <c r="H196" s="61"/>
+      <c r="I196" s="61"/>
+      <c r="J196" s="61"/>
+      <c r="K196" s="61"/>
+      <c r="L196" s="55"/>
       <c r="M196" s="12">
         <v>3</v>
       </c>
-      <c r="N196" s="30"/>
-      <c r="O196" s="31"/>
+      <c r="N196" s="30">
+        <f>IF('MANUEL CLASSES'!E35="","",'MANUEL CLASSES'!E35)</f>
+        <v>2</v>
+      </c>
+      <c r="O196" s="31" t="str">
+        <f>IF(N196="","",'MANUEL CLASSES'!F35)</f>
+        <v>Sí</v>
+      </c>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
@@ -10467,20 +11314,26 @@
     <row r="197" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B197" s="58"/>
       <c r="C197" s="58"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
+      <c r="D197" s="61"/>
+      <c r="E197" s="61"/>
       <c r="F197" s="64"/>
-      <c r="G197" s="50"/>
-      <c r="H197" s="50"/>
-      <c r="I197" s="50"/>
-      <c r="J197" s="50"/>
-      <c r="K197" s="50"/>
-      <c r="L197" s="53"/>
+      <c r="G197" s="61"/>
+      <c r="H197" s="61"/>
+      <c r="I197" s="61"/>
+      <c r="J197" s="61"/>
+      <c r="K197" s="61"/>
+      <c r="L197" s="55"/>
       <c r="M197" s="12">
         <v>4</v>
       </c>
-      <c r="N197" s="30"/>
-      <c r="O197" s="31"/>
+      <c r="N197" s="30">
+        <f>IF('MANUEL CLASSES'!E45="","",'MANUEL CLASSES'!E45)</f>
+        <v>2</v>
+      </c>
+      <c r="O197" s="31" t="str">
+        <f>IF(N197="","",'MANUEL CLASSES'!F45)</f>
+        <v>Sí</v>
+      </c>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
@@ -10490,20 +11343,26 @@
     <row r="198" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B198" s="59"/>
       <c r="C198" s="59"/>
-      <c r="D198" s="51"/>
-      <c r="E198" s="51"/>
+      <c r="D198" s="62"/>
+      <c r="E198" s="62"/>
       <c r="F198" s="65"/>
-      <c r="G198" s="51"/>
-      <c r="H198" s="51"/>
-      <c r="I198" s="51"/>
-      <c r="J198" s="51"/>
-      <c r="K198" s="51"/>
-      <c r="L198" s="53"/>
+      <c r="G198" s="62"/>
+      <c r="H198" s="62"/>
+      <c r="I198" s="62"/>
+      <c r="J198" s="62"/>
+      <c r="K198" s="62"/>
+      <c r="L198" s="55"/>
       <c r="M198" s="12">
         <v>5</v>
       </c>
-      <c r="N198" s="30"/>
-      <c r="O198" s="31"/>
+      <c r="N198" s="30" t="str">
+        <f>IF('MANUEL CLASSES'!E55="","",'MANUEL CLASSES'!E55)</f>
+        <v/>
+      </c>
+      <c r="O198" s="31" t="str">
+        <f>IF(N198="","Día de mes siguiente",'MANUEL CLASSES'!F55)</f>
+        <v>Día de mes siguiente</v>
+      </c>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
@@ -10512,59 +11371,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="L179:L183"/>
-    <mergeCell ref="L184:L188"/>
-    <mergeCell ref="L189:L193"/>
-    <mergeCell ref="L194:L198"/>
-    <mergeCell ref="B149:B198"/>
-    <mergeCell ref="C149:C198"/>
-    <mergeCell ref="D149:D198"/>
-    <mergeCell ref="E149:E198"/>
-    <mergeCell ref="F149:F198"/>
-    <mergeCell ref="G149:G198"/>
-    <mergeCell ref="L164:L168"/>
-    <mergeCell ref="L149:L153"/>
-    <mergeCell ref="L154:L158"/>
-    <mergeCell ref="L159:L163"/>
-    <mergeCell ref="L174:L178"/>
-    <mergeCell ref="L124:L128"/>
-    <mergeCell ref="L99:L103"/>
-    <mergeCell ref="L104:L108"/>
-    <mergeCell ref="L109:L113"/>
-    <mergeCell ref="L114:L118"/>
-    <mergeCell ref="L129:L133"/>
-    <mergeCell ref="L134:L138"/>
-    <mergeCell ref="L139:L143"/>
-    <mergeCell ref="L144:L148"/>
-    <mergeCell ref="L169:L173"/>
-    <mergeCell ref="F79:F148"/>
-    <mergeCell ref="G79:G148"/>
-    <mergeCell ref="H79:H148"/>
-    <mergeCell ref="I79:I148"/>
-    <mergeCell ref="J79:J148"/>
-    <mergeCell ref="H9:H78"/>
-    <mergeCell ref="I9:I78"/>
-    <mergeCell ref="J9:J78"/>
-    <mergeCell ref="K9:K78"/>
-    <mergeCell ref="H149:H198"/>
-    <mergeCell ref="I149:I198"/>
-    <mergeCell ref="J149:J198"/>
-    <mergeCell ref="K149:K198"/>
-    <mergeCell ref="K79:K148"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="L74:L78"/>
-    <mergeCell ref="L89:L93"/>
-    <mergeCell ref="L84:L88"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L59:L63"/>
     <mergeCell ref="O14:O18"/>
     <mergeCell ref="G9:G78"/>
     <mergeCell ref="L34:L38"/>
@@ -10581,6 +11387,59 @@
     <mergeCell ref="L94:L98"/>
     <mergeCell ref="L79:L83"/>
     <mergeCell ref="L64:L68"/>
+    <mergeCell ref="L69:L73"/>
+    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="L89:L93"/>
+    <mergeCell ref="L84:L88"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="H9:H78"/>
+    <mergeCell ref="I9:I78"/>
+    <mergeCell ref="J9:J78"/>
+    <mergeCell ref="K9:K78"/>
+    <mergeCell ref="H149:H198"/>
+    <mergeCell ref="I149:I198"/>
+    <mergeCell ref="J149:J198"/>
+    <mergeCell ref="K149:K198"/>
+    <mergeCell ref="K79:K148"/>
+    <mergeCell ref="F79:F148"/>
+    <mergeCell ref="G79:G148"/>
+    <mergeCell ref="H79:H148"/>
+    <mergeCell ref="I79:I148"/>
+    <mergeCell ref="J79:J148"/>
+    <mergeCell ref="L129:L133"/>
+    <mergeCell ref="L134:L138"/>
+    <mergeCell ref="L139:L143"/>
+    <mergeCell ref="L144:L148"/>
+    <mergeCell ref="L169:L173"/>
+    <mergeCell ref="L124:L128"/>
+    <mergeCell ref="L99:L103"/>
+    <mergeCell ref="L104:L108"/>
+    <mergeCell ref="L109:L113"/>
+    <mergeCell ref="L114:L118"/>
+    <mergeCell ref="L179:L183"/>
+    <mergeCell ref="L184:L188"/>
+    <mergeCell ref="L189:L193"/>
+    <mergeCell ref="L194:L198"/>
+    <mergeCell ref="B149:B198"/>
+    <mergeCell ref="C149:C198"/>
+    <mergeCell ref="D149:D198"/>
+    <mergeCell ref="E149:E198"/>
+    <mergeCell ref="F149:F198"/>
+    <mergeCell ref="G149:G198"/>
+    <mergeCell ref="L164:L168"/>
+    <mergeCell ref="L149:L153"/>
+    <mergeCell ref="L154:L158"/>
+    <mergeCell ref="L159:L163"/>
+    <mergeCell ref="L174:L178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>

--- a/informeMensualJulio2022.xlsx
+++ b/informeMensualJulio2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F997C98-9A1F-4419-876A-3A25A3E73648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CEF67B-9C2B-4BB6-A3EA-AE79001A2880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,42 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Manuel</author>
-  </authors>
-  <commentList>
-    <comment ref="F54" authorId="0" shapeId="0" xr:uid="{D9164912-C7FF-4124-8D22-C4DA9258175A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Aniversario de la facultad. Video constará la próxima semana.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="98">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -427,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -513,19 +479,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -626,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -744,9 +697,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1187,8 +1137,8 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
+      <pane ySplit="5" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,11 +1160,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="51">
         <f ca="1">NOW()</f>
-        <v>44768.866413310185</v>
-      </c>
-      <c r="K3" s="53"/>
+        <v>44770.914198148152</v>
+      </c>
+      <c r="K3" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -2647,12 +2597,22 @@
         <f>C60+1</f>
         <v>5</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="D62" s="19">
+        <v>1</v>
+      </c>
+      <c r="E62" s="19">
+        <v>5</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
+      <c r="H62" s="19">
+        <v>1</v>
+      </c>
+      <c r="I62" s="19">
+        <v>1</v>
+      </c>
       <c r="J62" s="19"/>
     </row>
     <row r="63" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,12 +2641,22 @@
         <f>$C$62</f>
         <v>5</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="D64" s="19">
+        <v>1</v>
+      </c>
+      <c r="E64" s="19">
+        <v>5</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="H64" s="19">
+        <v>1</v>
+      </c>
+      <c r="I64" s="19">
+        <v>1</v>
+      </c>
       <c r="J64" s="19"/>
     </row>
     <row r="65" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2701,12 +2671,22 @@
         <f t="shared" ref="C65:C75" si="8">$C$62</f>
         <v>5</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="D65" s="19">
+        <v>1</v>
+      </c>
+      <c r="E65" s="19">
+        <v>5</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
+      <c r="H65" s="19">
+        <v>1</v>
+      </c>
+      <c r="I65" s="19">
+        <v>1</v>
+      </c>
       <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,12 +2701,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="D66" s="19">
+        <v>1</v>
+      </c>
+      <c r="E66" s="19">
+        <v>5</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="H66" s="19">
+        <v>1</v>
+      </c>
+      <c r="I66" s="19">
+        <v>1</v>
+      </c>
       <c r="J66" s="19"/>
     </row>
     <row r="67" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,12 +2731,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="D67" s="19">
+        <v>1</v>
+      </c>
+      <c r="E67" s="19">
+        <v>5</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="H67" s="19">
+        <v>1</v>
+      </c>
+      <c r="I67" s="19">
+        <v>1</v>
+      </c>
       <c r="J67" s="19"/>
     </row>
     <row r="68" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,12 +2761,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="D68" s="19">
+        <v>1</v>
+      </c>
+      <c r="E68" s="19">
+        <v>5</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
+      <c r="H68" s="19">
+        <v>1</v>
+      </c>
+      <c r="I68" s="19">
+        <v>1</v>
+      </c>
       <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2801,12 +2811,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="D70" s="19">
+        <v>1</v>
+      </c>
+      <c r="E70" s="19">
+        <v>5</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="H70" s="19">
+        <v>1</v>
+      </c>
+      <c r="I70" s="19">
+        <v>1</v>
+      </c>
       <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2821,12 +2841,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
+      <c r="D71" s="19">
+        <v>1</v>
+      </c>
+      <c r="E71" s="19">
+        <v>5</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="H71" s="19">
+        <v>1</v>
+      </c>
+      <c r="I71" s="19">
+        <v>1</v>
+      </c>
       <c r="J71" s="19"/>
     </row>
     <row r="72" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2841,12 +2871,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="D72" s="19">
+        <v>1</v>
+      </c>
+      <c r="E72" s="19">
+        <v>5</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
+      <c r="H72" s="19">
+        <v>1</v>
+      </c>
+      <c r="I72" s="19">
+        <v>1</v>
+      </c>
       <c r="J72" s="19"/>
     </row>
     <row r="73" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,12 +2921,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="D74" s="19">
+        <v>1</v>
+      </c>
+      <c r="E74" s="19">
+        <v>5</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
+      <c r="H74" s="19">
+        <v>1</v>
+      </c>
+      <c r="I74" s="19">
+        <v>1</v>
+      </c>
       <c r="J74" s="19"/>
     </row>
     <row r="75" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2901,12 +2951,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="D75" s="19">
+        <v>1</v>
+      </c>
+      <c r="E75" s="19">
+        <v>5</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
+      <c r="H75" s="19">
+        <v>1</v>
+      </c>
+      <c r="I75" s="19">
+        <v>1</v>
+      </c>
       <c r="J75" s="19"/>
     </row>
   </sheetData>
@@ -2920,12 +2980,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5423BE2-B587-4DF7-A037-E70CF1D766CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5423BE2-B587-4DF7-A037-E70CF1D766CD}">
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
+      <pane ySplit="5" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2947,11 +3007,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="51">
         <f ca="1">NOW()</f>
-        <v>44768.866413310185</v>
-      </c>
-      <c r="K3" s="53"/>
+        <v>44770.914198148152</v>
+      </c>
+      <c r="K3" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -4260,7 +4320,9 @@
       <c r="E54" s="36">
         <v>5</v>
       </c>
-      <c r="F54" s="51"/>
+      <c r="F54" s="49" t="s">
+        <v>71</v>
+      </c>
       <c r="G54" s="36"/>
       <c r="H54" s="36">
         <v>1</v>
@@ -4480,12 +4542,22 @@
         <f>C60+1</f>
         <v>5</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="D62" s="24">
+        <v>1</v>
+      </c>
+      <c r="E62" s="19">
+        <v>5</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
+      <c r="H62" s="19">
+        <v>1</v>
+      </c>
+      <c r="I62" s="19">
+        <v>1</v>
+      </c>
       <c r="J62" s="19"/>
     </row>
     <row r="63" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4500,12 +4572,22 @@
         <f>$C$62</f>
         <v>5</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="D63" s="24">
+        <v>1</v>
+      </c>
+      <c r="E63" s="19">
+        <v>5</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="H63" s="19">
+        <v>1</v>
+      </c>
+      <c r="I63" s="19">
+        <v>1</v>
+      </c>
       <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4540,12 +4622,22 @@
         <f t="shared" ref="C65:C75" si="8">$C$62</f>
         <v>5</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="D65" s="24">
+        <v>1</v>
+      </c>
+      <c r="E65" s="19">
+        <v>5</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
+      <c r="H65" s="19">
+        <v>1</v>
+      </c>
+      <c r="I65" s="19">
+        <v>1</v>
+      </c>
       <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4580,12 +4672,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="D67" s="24">
+        <v>1</v>
+      </c>
+      <c r="E67" s="19">
+        <v>5</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="H67" s="19">
+        <v>1</v>
+      </c>
+      <c r="I67" s="19">
+        <v>1</v>
+      </c>
       <c r="J67" s="19"/>
     </row>
     <row r="68" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4600,12 +4702,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="D68" s="24">
+        <v>1</v>
+      </c>
+      <c r="E68" s="19">
+        <v>5</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
+      <c r="H68" s="19">
+        <v>1</v>
+      </c>
+      <c r="I68" s="19">
+        <v>1</v>
+      </c>
       <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4620,12 +4732,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="D69" s="24">
+        <v>1</v>
+      </c>
+      <c r="E69" s="19">
+        <v>5</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
+      <c r="H69" s="19">
+        <v>1</v>
+      </c>
+      <c r="I69" s="19">
+        <v>1</v>
+      </c>
       <c r="J69" s="19"/>
     </row>
     <row r="70" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4640,12 +4762,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="D70" s="24">
+        <v>1</v>
+      </c>
+      <c r="E70" s="19">
+        <v>5</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="H70" s="19">
+        <v>1</v>
+      </c>
+      <c r="I70" s="19">
+        <v>1</v>
+      </c>
       <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4660,12 +4792,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="D71" s="24">
+        <v>1</v>
+      </c>
+      <c r="E71" s="19">
+        <v>5</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1</v>
+      </c>
       <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="I71" s="19">
+        <v>1</v>
+      </c>
       <c r="J71" s="19"/>
     </row>
     <row r="72" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4680,12 +4822,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
+      <c r="D72" s="24">
+        <v>1</v>
+      </c>
+      <c r="E72" s="19">
+        <v>5</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1</v>
+      </c>
       <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
+      <c r="I72" s="19">
+        <v>1</v>
+      </c>
       <c r="J72" s="19"/>
     </row>
     <row r="73" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4700,12 +4852,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="D73" s="24">
+        <v>1</v>
+      </c>
+      <c r="E73" s="19">
+        <v>5</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
+      <c r="H73" s="19">
+        <v>1</v>
+      </c>
+      <c r="I73" s="19">
+        <v>1</v>
+      </c>
       <c r="J73" s="19"/>
     </row>
     <row r="74" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4720,12 +4882,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="D74" s="24">
+        <v>1</v>
+      </c>
+      <c r="E74" s="19">
+        <v>4</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
+      <c r="H74" s="19">
+        <v>1</v>
+      </c>
+      <c r="I74" s="19">
+        <v>1</v>
+      </c>
       <c r="J74" s="19"/>
     </row>
     <row r="75" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4755,7 +4927,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4764,8 +4935,8 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4787,11 +4958,11 @@
       <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="51">
         <f ca="1">NOW()</f>
-        <v>44768.866413310185</v>
-      </c>
-      <c r="K3" s="53"/>
+        <v>44770.914198148152</v>
+      </c>
+      <c r="K3" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -5854,12 +6025,22 @@
         <f>C45+1</f>
         <v>5</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="19"/>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
+      <c r="E46" s="19">
+        <v>2</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1</v>
+      </c>
       <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="19">
+        <v>1</v>
+      </c>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5874,12 +6055,22 @@
         <f>$C$46</f>
         <v>5</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>2</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1</v>
+      </c>
       <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="I47" s="19">
+        <v>1</v>
+      </c>
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5894,12 +6085,22 @@
         <f>$C$46</f>
         <v>5</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+      <c r="D48" s="24">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19">
+        <v>2</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1</v>
+      </c>
       <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="I48" s="19">
+        <v>1</v>
+      </c>
       <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5934,12 +6135,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="D50" s="24">
+        <v>1</v>
+      </c>
+      <c r="E50" s="19">
+        <v>2</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1</v>
+      </c>
       <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="I50" s="19">
+        <v>1</v>
+      </c>
       <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5954,12 +6165,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="D51" s="24">
+        <v>1</v>
+      </c>
+      <c r="E51" s="19">
+        <v>2</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1</v>
+      </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="I51" s="19">
+        <v>1</v>
+      </c>
       <c r="J51" s="19"/>
     </row>
     <row r="52" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5974,12 +6195,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="D52" s="24">
+        <v>1</v>
+      </c>
+      <c r="E52" s="19">
+        <v>2</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1</v>
+      </c>
       <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="19">
+        <v>1</v>
+      </c>
       <c r="J52" s="19"/>
     </row>
     <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,12 +6225,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="D53" s="24">
+        <v>1</v>
+      </c>
+      <c r="E53" s="19">
+        <v>2</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1</v>
+      </c>
       <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="I53" s="19">
+        <v>1</v>
+      </c>
       <c r="J53" s="19"/>
     </row>
     <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,12 +6255,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="D54" s="24">
+        <v>1</v>
+      </c>
+      <c r="E54" s="19">
+        <v>2</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1</v>
+      </c>
       <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="I54" s="19">
+        <v>1</v>
+      </c>
       <c r="J54" s="19"/>
     </row>
     <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6034,12 +6285,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="D55" s="24">
+        <v>1</v>
+      </c>
+      <c r="E55" s="19">
+        <v>2</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1</v>
+      </c>
       <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="19">
+        <v>1</v>
+      </c>
       <c r="J55" s="19"/>
     </row>
   </sheetData>
@@ -6150,37 +6411,37 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="63">
-        <v>1</v>
-      </c>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="62">
+        <v>1</v>
+      </c>
+      <c r="G9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="53" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="5">
@@ -6201,17 +6462,17 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="55"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="12">
         <v>2</v>
       </c>
@@ -6230,17 +6491,17 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="55"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="12">
         <v>3</v>
       </c>
@@ -6259,17 +6520,17 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="55"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="12">
         <v>4</v>
       </c>
@@ -6288,27 +6549,27 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="55"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="12">
         <v>5</v>
       </c>
-      <c r="N13" s="12" t="str">
+      <c r="N13" s="12">
         <f>IF('ROSMAIRA CLASSES'!E62="","",'ROSMAIRA CLASSES'!E62)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O13" s="4" t="str">
         <f>IF(N13="","Día de mes siguiente",'ROSMAIRA CLASSES'!F62)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -6317,24 +6578,24 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="68" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="67" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="14">
         <v>1</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="70" t="s">
+      <c r="O14" s="69" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="1"/>
@@ -6344,22 +6605,22 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="69"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="68"/>
       <c r="M15" s="13">
         <v>2</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="71"/>
+      <c r="O15" s="70"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -6367,22 +6628,22 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="69"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="68"/>
       <c r="M16" s="13">
         <v>3</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="71"/>
+      <c r="O16" s="70"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6390,22 +6651,22 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="69"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="68"/>
       <c r="M17" s="13">
         <v>4</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="71"/>
+      <c r="O17" s="70"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6413,22 +6674,22 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="69"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="68"/>
       <c r="M18" s="13">
         <v>5</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="72"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6436,17 +6697,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="54" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="53" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="5">
@@ -6467,17 +6728,17 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="12">
         <v>2</v>
       </c>
@@ -6496,17 +6757,17 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="55"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="12">
         <v>3</v>
       </c>
@@ -6525,17 +6786,17 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="55"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="12">
         <v>4</v>
       </c>
@@ -6554,27 +6815,27 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="55"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="12">
         <v>5</v>
       </c>
-      <c r="N23" s="30" t="str">
+      <c r="N23" s="30">
         <f>IF('ROSMAIRA CLASSES'!E64="","",'ROSMAIRA CLASSES'!E64)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O23" s="31" t="str">
         <f>IF(N23="","Día de mes siguiente",'ROSMAIRA CLASSES'!F64)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -6583,17 +6844,17 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="54" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="53" t="s">
         <v>46</v>
       </c>
       <c r="M24" s="5">
@@ -6614,17 +6875,17 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="12">
         <v>2</v>
       </c>
@@ -6643,17 +6904,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="55"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="12">
         <v>3</v>
       </c>
@@ -6672,17 +6933,17 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="55"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="12">
         <v>4</v>
       </c>
@@ -6701,27 +6962,27 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="55"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="54"/>
       <c r="M28" s="12">
         <v>5</v>
       </c>
-      <c r="N28" s="30" t="str">
+      <c r="N28" s="30">
         <f>IF('ROSMAIRA CLASSES'!E65="","",'ROSMAIRA CLASSES'!E65)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O28" s="31" t="str">
         <f>IF(N28="","Día de mes siguiente",'ROSMAIRA CLASSES'!F65)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -6730,17 +6991,17 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="54" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="53" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="5">
@@ -6761,17 +7022,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="55"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="12">
         <v>2</v>
       </c>
@@ -6790,17 +7051,17 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="55"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="12">
         <v>3</v>
       </c>
@@ -6819,17 +7080,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="55"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="54"/>
       <c r="M32" s="12">
         <v>4</v>
       </c>
@@ -6848,27 +7109,27 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="55"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="12">
         <v>5</v>
       </c>
-      <c r="N33" s="30" t="str">
+      <c r="N33" s="30">
         <f>IF('ROSMAIRA CLASSES'!E66="","",'ROSMAIRA CLASSES'!E66)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O33" s="31" t="str">
         <f>IF(N33="","Día de mes siguiente",'ROSMAIRA CLASSES'!F66)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -6877,17 +7138,17 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="54" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="53" t="s">
         <v>28</v>
       </c>
       <c r="M34" s="5">
@@ -6908,17 +7169,17 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="55"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="54"/>
       <c r="M35" s="12">
         <v>2</v>
       </c>
@@ -6937,17 +7198,17 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="55"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="54"/>
       <c r="M36" s="12">
         <v>3</v>
       </c>
@@ -6966,17 +7227,17 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="55"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="54"/>
       <c r="M37" s="12">
         <v>4</v>
       </c>
@@ -6995,27 +7256,27 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="55"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="54"/>
       <c r="M38" s="12">
         <v>5</v>
       </c>
-      <c r="N38" s="30" t="str">
+      <c r="N38" s="30">
         <f>IF('ROSMAIRA CLASSES'!E67="","",'ROSMAIRA CLASSES'!E67)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O38" s="31" t="str">
         <f>IF(N38="","Día de mes siguiente",'ROSMAIRA CLASSES'!F67)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -7024,17 +7285,17 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="54" t="s">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="53" t="s">
         <v>47</v>
       </c>
       <c r="M39" s="5">
@@ -7055,17 +7316,17 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="55"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="54"/>
       <c r="M40" s="12">
         <v>2</v>
       </c>
@@ -7084,17 +7345,17 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="55"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="54"/>
       <c r="M41" s="12">
         <v>3</v>
       </c>
@@ -7113,17 +7374,17 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="55"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="54"/>
       <c r="M42" s="12">
         <v>4</v>
       </c>
@@ -7142,27 +7403,27 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="55"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="54"/>
       <c r="M43" s="12">
         <v>5</v>
       </c>
-      <c r="N43" s="30" t="str">
+      <c r="N43" s="30">
         <f>IF('ROSMAIRA CLASSES'!E68="","",'ROSMAIRA CLASSES'!E68)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O43" s="31" t="str">
         <f>IF(N43="","Día de mes siguiente",'ROSMAIRA CLASSES'!F68)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -7171,17 +7432,17 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="66" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="65" t="s">
         <v>48</v>
       </c>
       <c r="M44" s="5">
@@ -7202,17 +7463,17 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="67"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="66"/>
       <c r="M45" s="12">
         <v>2</v>
       </c>
@@ -7231,17 +7492,17 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="67"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="66"/>
       <c r="M46" s="12">
         <v>3</v>
       </c>
@@ -7260,17 +7521,17 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="67"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="66"/>
       <c r="M47" s="12">
         <v>4</v>
       </c>
@@ -7289,17 +7550,17 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="67"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="66"/>
       <c r="M48" s="12">
         <v>5</v>
       </c>
@@ -7318,17 +7579,17 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="54" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="53" t="s">
         <v>25</v>
       </c>
       <c r="M49" s="5">
@@ -7349,17 +7610,17 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="55"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="54"/>
       <c r="M50" s="12">
         <v>2</v>
       </c>
@@ -7378,17 +7639,17 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="55"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="54"/>
       <c r="M51" s="12">
         <v>3</v>
       </c>
@@ -7407,17 +7668,17 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="55"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="54"/>
       <c r="M52" s="12">
         <v>4</v>
       </c>
@@ -7436,27 +7697,27 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="55"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="54"/>
       <c r="M53" s="12">
         <v>5</v>
       </c>
-      <c r="N53" s="30" t="str">
+      <c r="N53" s="30">
         <f>IF('ROSMAIRA CLASSES'!E70="","",'ROSMAIRA CLASSES'!E70)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O53" s="32" t="str">
         <f>IF(N53="","Día de mes siguiente",'ROSMAIRA CLASSES'!F70)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -7465,17 +7726,17 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="54" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="53" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="5">
@@ -7496,17 +7757,17 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="55"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="54"/>
       <c r="M55" s="12">
         <v>2</v>
       </c>
@@ -7525,17 +7786,17 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="55"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="54"/>
       <c r="M56" s="12">
         <v>3</v>
       </c>
@@ -7554,17 +7815,17 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="55"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="54"/>
       <c r="M57" s="12">
         <v>4</v>
       </c>
@@ -7583,27 +7844,27 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="55"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="54"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
-      <c r="N58" s="30" t="str">
+      <c r="N58" s="30">
         <f>IF('ROSMAIRA CLASSES'!E71="","",'ROSMAIRA CLASSES'!E71)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O58" s="32" t="str">
         <f>IF(N58="","Día de mes siguiente",'ROSMAIRA CLASSES'!F71)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -7612,17 +7873,17 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="54" t="s">
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="53" t="s">
         <v>49</v>
       </c>
       <c r="M59" s="5">
@@ -7643,17 +7904,17 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="55"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="54"/>
       <c r="M60" s="12">
         <v>2</v>
       </c>
@@ -7672,17 +7933,17 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="55"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="54"/>
       <c r="M61" s="12">
         <v>3</v>
       </c>
@@ -7701,17 +7962,17 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="55"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="54"/>
       <c r="M62" s="12">
         <v>4</v>
       </c>
@@ -7730,27 +7991,27 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="55"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="54"/>
       <c r="M63" s="12">
         <v>5</v>
       </c>
-      <c r="N63" s="30" t="str">
+      <c r="N63" s="30">
         <f>IF('ROSMAIRA CLASSES'!E72="","",'ROSMAIRA CLASSES'!E72)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O63" s="31" t="str">
         <f>IF(N63="","Día de mes siguiente",'ROSMAIRA CLASSES'!F72)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -7759,17 +8020,17 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="54" t="s">
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="53" t="s">
         <v>50</v>
       </c>
       <c r="M64" s="5">
@@ -7790,17 +8051,17 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="55"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="54"/>
       <c r="M65" s="12">
         <v>2</v>
       </c>
@@ -7819,17 +8080,17 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="55"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="54"/>
       <c r="M66" s="12">
         <v>3</v>
       </c>
@@ -7848,17 +8109,17 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="55"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="54"/>
       <c r="M67" s="12">
         <v>4</v>
       </c>
@@ -7877,17 +8138,17 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="55"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="54"/>
       <c r="M68" s="12">
         <v>5</v>
       </c>
@@ -7906,17 +8167,17 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="54" t="s">
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="53" t="s">
         <v>23</v>
       </c>
       <c r="M69" s="5">
@@ -7932,17 +8193,17 @@
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="55"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="54"/>
       <c r="M70" s="12">
         <v>2</v>
       </c>
@@ -7956,17 +8217,17 @@
       </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="55"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="54"/>
       <c r="M71" s="12">
         <v>3</v>
       </c>
@@ -7980,17 +8241,17 @@
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="55"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="54"/>
       <c r="M72" s="12">
         <v>4</v>
       </c>
@@ -8004,41 +8265,41 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="55"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="54"/>
       <c r="M73" s="12">
         <v>5</v>
       </c>
-      <c r="N73" s="30" t="str">
+      <c r="N73" s="30">
         <f>IF('ROSMAIRA CLASSES'!E74="","",'ROSMAIRA CLASSES'!E74)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O73" s="31" t="str">
         <f>IF(N73="","Día de mes siguiente",'ROSMAIRA CLASSES'!F74)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="54" t="s">
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="53" t="s">
         <v>24</v>
       </c>
       <c r="M74" s="5">
@@ -8054,17 +8315,17 @@
       </c>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="55"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="54"/>
       <c r="M75" s="12">
         <v>2</v>
       </c>
@@ -8078,17 +8339,17 @@
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="55"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="54"/>
       <c r="M76" s="12">
         <v>3</v>
       </c>
@@ -8102,17 +8363,17 @@
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="55"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="54"/>
       <c r="M77" s="12">
         <v>4</v>
       </c>
@@ -8126,62 +8387,62 @@
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="55"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="54"/>
       <c r="M78" s="12">
         <v>5</v>
       </c>
-      <c r="N78" s="30" t="str">
+      <c r="N78" s="30">
         <f>IF('ROSMAIRA CLASSES'!E75="","",'ROSMAIRA CLASSES'!E75)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O78" s="31" t="str">
         <f>IF(N78="","Día de mes siguiente",'ROSMAIRA CLASSES'!F75)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="60" t="s">
+      <c r="D79" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="60" t="str">
+      <c r="E79" s="59" t="str">
         <f>E9</f>
         <v>JULIO</v>
       </c>
-      <c r="F79" s="63">
-        <v>1</v>
-      </c>
-      <c r="G79" s="60" t="s">
+      <c r="F79" s="62">
+        <v>1</v>
+      </c>
+      <c r="G79" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="60" t="s">
+      <c r="H79" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="60" t="s">
+      <c r="I79" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J79" s="60" t="s">
+      <c r="J79" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="K79" s="60" t="s">
+      <c r="K79" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="L79" s="54" t="s">
+      <c r="L79" s="53" t="s">
         <v>55</v>
       </c>
       <c r="M79" s="5">
@@ -8197,17 +8458,17 @@
       </c>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="74"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="55"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="54"/>
       <c r="M80" s="12">
         <v>2</v>
       </c>
@@ -8221,17 +8482,17 @@
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="74"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="55"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="54"/>
       <c r="M81" s="12">
         <v>3</v>
       </c>
@@ -8245,17 +8506,17 @@
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="74"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="55"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="54"/>
       <c r="M82" s="12">
         <v>4</v>
       </c>
@@ -8269,41 +8530,41 @@
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="74"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="55"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="54"/>
       <c r="M83" s="12">
         <v>5</v>
       </c>
-      <c r="N83" s="30" t="str">
+      <c r="N83" s="30">
         <f>IF('JIMMY CLASSES'!E62="","",'JIMMY CLASSES'!E62)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O83" s="31" t="str">
         <f>IF(N83="","Día de mes siguiente",'JIMMY CLASSES'!F62)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="74"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="54" t="s">
+      <c r="B84" s="73"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="53" t="s">
         <v>18</v>
       </c>
       <c r="M84" s="5">
@@ -8319,17 +8580,17 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="74"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="55"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="54"/>
       <c r="M85" s="12">
         <v>2</v>
       </c>
@@ -8343,17 +8604,17 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="74"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-      <c r="L86" s="55"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="54"/>
       <c r="M86" s="12">
         <v>3</v>
       </c>
@@ -8367,17 +8628,17 @@
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="74"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="55"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="54"/>
       <c r="M87" s="12">
         <v>4</v>
       </c>
@@ -8391,41 +8652,41 @@
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="74"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="55"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="54"/>
       <c r="M88" s="12">
         <v>5</v>
       </c>
-      <c r="N88" s="30" t="str">
+      <c r="N88" s="30">
         <f>IF('JIMMY CLASSES'!E63="","",'JIMMY CLASSES'!E63)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O88" s="31" t="str">
         <f>IF(N88="","Día de mes siguiente",'JIMMY CLASSES'!F63)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="74"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
-      <c r="L89" s="54" t="s">
+      <c r="B89" s="73"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="53" t="s">
         <v>19</v>
       </c>
       <c r="M89" s="5">
@@ -8441,17 +8702,17 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="74"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="55"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="54"/>
       <c r="M90" s="12">
         <v>2</v>
       </c>
@@ -8465,17 +8726,17 @@
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="74"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-      <c r="L91" s="55"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="54"/>
       <c r="M91" s="12">
         <v>3</v>
       </c>
@@ -8489,17 +8750,17 @@
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="74"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-      <c r="L92" s="55"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="54"/>
       <c r="M92" s="12">
         <v>4</v>
       </c>
@@ -8513,17 +8774,17 @@
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="74"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="55"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="54"/>
       <c r="M93" s="12">
         <v>5</v>
       </c>
@@ -8537,17 +8798,17 @@
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="74"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
-      <c r="L94" s="54" t="s">
+      <c r="B94" s="73"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="53" t="s">
         <v>17</v>
       </c>
       <c r="M94" s="5">
@@ -8563,17 +8824,17 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="74"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="61"/>
-      <c r="L95" s="55"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="54"/>
       <c r="M95" s="12">
         <v>2</v>
       </c>
@@ -8587,17 +8848,17 @@
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="74"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="61"/>
-      <c r="L96" s="55"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="54"/>
       <c r="M96" s="12">
         <v>3</v>
       </c>
@@ -8611,17 +8872,17 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="74"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="55"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="54"/>
       <c r="M97" s="12">
         <v>4</v>
       </c>
@@ -8635,41 +8896,41 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="74"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="55"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="54"/>
       <c r="M98" s="12">
         <v>5</v>
       </c>
-      <c r="N98" s="30" t="str">
+      <c r="N98" s="30">
         <f>IF('JIMMY CLASSES'!E65="","",'JIMMY CLASSES'!E65)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O98" s="31" t="str">
         <f>IF(N98="","Día de mes siguiente",'JIMMY CLASSES'!F65)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="74"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="61"/>
-      <c r="H99" s="61"/>
-      <c r="I99" s="61"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="61"/>
-      <c r="L99" s="54" t="s">
+      <c r="B99" s="73"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="60"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="53" t="s">
         <v>34</v>
       </c>
       <c r="M99" s="5">
@@ -8685,17 +8946,17 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="74"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-      <c r="L100" s="55"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="54"/>
       <c r="M100" s="12">
         <v>2</v>
       </c>
@@ -8709,17 +8970,17 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="74"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-      <c r="L101" s="55"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="54"/>
       <c r="M101" s="12">
         <v>3</v>
       </c>
@@ -8733,17 +8994,17 @@
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="74"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="61"/>
-      <c r="J102" s="61"/>
-      <c r="K102" s="61"/>
-      <c r="L102" s="55"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="60"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="54"/>
       <c r="M102" s="12">
         <v>4</v>
       </c>
@@ -8757,17 +9018,17 @@
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="74"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="61"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="61"/>
-      <c r="L103" s="55"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="54"/>
       <c r="M103" s="12">
         <v>5</v>
       </c>
@@ -8781,17 +9042,17 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="74"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="61"/>
-      <c r="L104" s="54" t="s">
+      <c r="B104" s="73"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="53" t="s">
         <v>56</v>
       </c>
       <c r="M104" s="5">
@@ -8807,17 +9068,17 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="74"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="61"/>
-      <c r="J105" s="61"/>
-      <c r="K105" s="61"/>
-      <c r="L105" s="55"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="54"/>
       <c r="M105" s="12">
         <v>2</v>
       </c>
@@ -8831,17 +9092,17 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="74"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="61"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="61"/>
-      <c r="L106" s="55"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="54"/>
       <c r="M106" s="12">
         <v>3</v>
       </c>
@@ -8855,17 +9116,17 @@
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="74"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="61"/>
-      <c r="I107" s="61"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="61"/>
-      <c r="L107" s="55"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="54"/>
       <c r="M107" s="12">
         <v>4</v>
       </c>
@@ -8879,41 +9140,41 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="74"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="61"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="61"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="61"/>
-      <c r="L108" s="55"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="54"/>
       <c r="M108" s="12">
         <v>5</v>
       </c>
-      <c r="N108" s="30" t="str">
+      <c r="N108" s="30">
         <f>IF('JIMMY CLASSES'!E67="","",'JIMMY CLASSES'!E67)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O108" s="31" t="str">
         <f>IF(N108="","Día de mes siguiente",'JIMMY CLASSES'!F67)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="74"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="61"/>
-      <c r="L109" s="54" t="s">
+      <c r="B109" s="73"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="60"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="60"/>
+      <c r="L109" s="53" t="s">
         <v>57</v>
       </c>
       <c r="M109" s="5">
@@ -8929,17 +9190,17 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="74"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="61"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="61"/>
-      <c r="J110" s="61"/>
-      <c r="K110" s="61"/>
-      <c r="L110" s="55"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="60"/>
+      <c r="J110" s="60"/>
+      <c r="K110" s="60"/>
+      <c r="L110" s="54"/>
       <c r="M110" s="12">
         <v>2</v>
       </c>
@@ -8953,17 +9214,17 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="74"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="61"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="61"/>
-      <c r="I111" s="61"/>
-      <c r="J111" s="61"/>
-      <c r="K111" s="61"/>
-      <c r="L111" s="55"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="60"/>
+      <c r="L111" s="54"/>
       <c r="M111" s="12">
         <v>3</v>
       </c>
@@ -8977,17 +9238,17 @@
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="74"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="61"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="61"/>
-      <c r="L112" s="55"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="60"/>
+      <c r="J112" s="60"/>
+      <c r="K112" s="60"/>
+      <c r="L112" s="54"/>
       <c r="M112" s="12">
         <v>4</v>
       </c>
@@ -8995,47 +9256,47 @@
         <f>IF('JIMMY CLASSES'!E54="","",'JIMMY CLASSES'!E54)</f>
         <v>5</v>
       </c>
-      <c r="O112" s="31">
+      <c r="O112" s="31" t="str">
         <f>IF(N112="","",'JIMMY CLASSES'!F54)</f>
-        <v>0</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="74"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="61"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61"/>
-      <c r="L113" s="55"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="54"/>
       <c r="M113" s="12">
         <v>5</v>
       </c>
-      <c r="N113" s="30" t="str">
+      <c r="N113" s="30">
         <f>IF('JIMMY CLASSES'!E68="","",'JIMMY CLASSES'!E68)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O113" s="31" t="str">
         <f>IF(N113="","Día de mes siguiente",'JIMMY CLASSES'!F68)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B114" s="74"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="61"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="61"/>
-      <c r="L114" s="66" t="s">
+      <c r="B114" s="73"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="65" t="s">
         <v>58</v>
       </c>
       <c r="M114" s="5">
@@ -9051,17 +9312,17 @@
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B115" s="74"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="61"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="61"/>
-      <c r="J115" s="61"/>
-      <c r="K115" s="61"/>
-      <c r="L115" s="67"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
+      <c r="L115" s="66"/>
       <c r="M115" s="12">
         <v>2</v>
       </c>
@@ -9075,17 +9336,17 @@
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B116" s="74"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="61"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="61"/>
-      <c r="H116" s="61"/>
-      <c r="I116" s="61"/>
-      <c r="J116" s="61"/>
-      <c r="K116" s="61"/>
-      <c r="L116" s="67"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="60"/>
+      <c r="J116" s="60"/>
+      <c r="K116" s="60"/>
+      <c r="L116" s="66"/>
       <c r="M116" s="12">
         <v>3</v>
       </c>
@@ -9099,17 +9360,17 @@
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="74"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="61"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="61"/>
-      <c r="L117" s="67"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
+      <c r="L117" s="66"/>
       <c r="M117" s="12">
         <v>4</v>
       </c>
@@ -9123,41 +9384,41 @@
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="74"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61"/>
-      <c r="J118" s="61"/>
-      <c r="K118" s="61"/>
-      <c r="L118" s="67"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="60"/>
+      <c r="I118" s="60"/>
+      <c r="J118" s="60"/>
+      <c r="K118" s="60"/>
+      <c r="L118" s="66"/>
       <c r="M118" s="12">
         <v>5</v>
       </c>
-      <c r="N118" s="30" t="str">
+      <c r="N118" s="30">
         <f>IF('JIMMY CLASSES'!E69="","",'JIMMY CLASSES'!E69)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O118" s="31" t="str">
         <f>IF(N118="","Día de mes siguiente",'JIMMY CLASSES'!F69)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" s="74"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="61"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="61"/>
-      <c r="J119" s="61"/>
-      <c r="K119" s="61"/>
-      <c r="L119" s="66" t="s">
+      <c r="B119" s="73"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="60"/>
+      <c r="J119" s="60"/>
+      <c r="K119" s="60"/>
+      <c r="L119" s="65" t="s">
         <v>59</v>
       </c>
       <c r="M119" s="5">
@@ -9173,17 +9434,17 @@
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="74"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="61"/>
-      <c r="E120" s="61"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="61"/>
-      <c r="H120" s="61"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="61"/>
-      <c r="K120" s="61"/>
-      <c r="L120" s="67"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="63"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="60"/>
+      <c r="I120" s="60"/>
+      <c r="J120" s="60"/>
+      <c r="K120" s="60"/>
+      <c r="L120" s="66"/>
       <c r="M120" s="12">
         <v>2</v>
       </c>
@@ -9197,17 +9458,17 @@
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="74"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="61"/>
-      <c r="E121" s="61"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
-      <c r="L121" s="67"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="66"/>
       <c r="M121" s="12">
         <v>3</v>
       </c>
@@ -9221,17 +9482,17 @@
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="74"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="61"/>
-      <c r="E122" s="61"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="61"/>
-      <c r="H122" s="61"/>
-      <c r="I122" s="61"/>
-      <c r="J122" s="61"/>
-      <c r="K122" s="61"/>
-      <c r="L122" s="67"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="60"/>
+      <c r="K122" s="60"/>
+      <c r="L122" s="66"/>
       <c r="M122" s="12">
         <v>4</v>
       </c>
@@ -9245,41 +9506,41 @@
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="74"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="61"/>
-      <c r="E123" s="61"/>
-      <c r="F123" s="64"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
-      <c r="L123" s="67"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
+      <c r="L123" s="66"/>
       <c r="M123" s="12">
         <v>5</v>
       </c>
-      <c r="N123" s="30" t="str">
+      <c r="N123" s="30">
         <f>IF('JIMMY CLASSES'!E70="","",'JIMMY CLASSES'!E70)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O123" s="31" t="str">
         <f>IF(N123="","Día de mes siguiente",'JIMMY CLASSES'!F70)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="74"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="54" t="s">
+      <c r="B124" s="73"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="53" t="s">
         <v>35</v>
       </c>
       <c r="M124" s="5">
@@ -9295,17 +9556,17 @@
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="74"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
-      <c r="L125" s="55"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
+      <c r="L125" s="54"/>
       <c r="M125" s="12">
         <v>2</v>
       </c>
@@ -9319,17 +9580,17 @@
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="74"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="61"/>
-      <c r="H126" s="61"/>
-      <c r="I126" s="61"/>
-      <c r="J126" s="61"/>
-      <c r="K126" s="61"/>
-      <c r="L126" s="55"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="60"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="60"/>
+      <c r="J126" s="60"/>
+      <c r="K126" s="60"/>
+      <c r="L126" s="54"/>
       <c r="M126" s="12">
         <v>3</v>
       </c>
@@ -9343,17 +9604,17 @@
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="74"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="61"/>
-      <c r="I127" s="61"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="61"/>
-      <c r="L127" s="55"/>
+      <c r="B127" s="73"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="60"/>
+      <c r="H127" s="60"/>
+      <c r="I127" s="60"/>
+      <c r="J127" s="60"/>
+      <c r="K127" s="60"/>
+      <c r="L127" s="54"/>
       <c r="M127" s="12">
         <v>4</v>
       </c>
@@ -9367,41 +9628,41 @@
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="74"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="61"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="61"/>
-      <c r="L128" s="55"/>
+      <c r="B128" s="73"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="60"/>
+      <c r="I128" s="60"/>
+      <c r="J128" s="60"/>
+      <c r="K128" s="60"/>
+      <c r="L128" s="54"/>
       <c r="M128" s="12">
         <v>5</v>
       </c>
-      <c r="N128" s="30" t="str">
+      <c r="N128" s="30">
         <f>IF('JIMMY CLASSES'!E71="","",'JIMMY CLASSES'!E71)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O128" s="31" t="str">
         <f>IF(N128="","Día de mes siguiente",'JIMMY CLASSES'!F71)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="74"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="61"/>
-      <c r="E129" s="61"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="61"/>
-      <c r="H129" s="61"/>
-      <c r="I129" s="61"/>
-      <c r="J129" s="61"/>
-      <c r="K129" s="61"/>
-      <c r="L129" s="54" t="s">
+      <c r="B129" s="73"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="60"/>
+      <c r="L129" s="53" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="5">
@@ -9417,17 +9678,17 @@
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="74"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="61"/>
-      <c r="E130" s="61"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="61"/>
-      <c r="H130" s="61"/>
-      <c r="I130" s="61"/>
-      <c r="J130" s="61"/>
-      <c r="K130" s="61"/>
-      <c r="L130" s="55"/>
+      <c r="B130" s="73"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="60"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
+      <c r="L130" s="54"/>
       <c r="M130" s="12">
         <v>2</v>
       </c>
@@ -9441,17 +9702,17 @@
       </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="74"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="61"/>
-      <c r="J131" s="61"/>
-      <c r="K131" s="61"/>
-      <c r="L131" s="55"/>
+      <c r="B131" s="73"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="60"/>
+      <c r="J131" s="60"/>
+      <c r="K131" s="60"/>
+      <c r="L131" s="54"/>
       <c r="M131" s="12">
         <v>3</v>
       </c>
@@ -9465,17 +9726,17 @@
       </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="74"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="61"/>
-      <c r="E132" s="61"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61"/>
-      <c r="I132" s="61"/>
-      <c r="J132" s="61"/>
-      <c r="K132" s="61"/>
-      <c r="L132" s="55"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="60"/>
+      <c r="J132" s="60"/>
+      <c r="K132" s="60"/>
+      <c r="L132" s="54"/>
       <c r="M132" s="12">
         <v>4</v>
       </c>
@@ -9489,41 +9750,41 @@
       </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" s="74"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="61"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="64"/>
-      <c r="G133" s="61"/>
-      <c r="H133" s="61"/>
-      <c r="I133" s="61"/>
-      <c r="J133" s="61"/>
-      <c r="K133" s="61"/>
-      <c r="L133" s="55"/>
+      <c r="B133" s="73"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="60"/>
+      <c r="J133" s="60"/>
+      <c r="K133" s="60"/>
+      <c r="L133" s="54"/>
       <c r="M133" s="12">
         <v>5</v>
       </c>
-      <c r="N133" s="30" t="str">
+      <c r="N133" s="30">
         <f>IF('JIMMY CLASSES'!E72="","",'JIMMY CLASSES'!E72)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O133" s="31" t="str">
         <f>IF(N133="","Día de mes siguiente",'JIMMY CLASSES'!F72)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" s="74"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="61"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="61"/>
-      <c r="H134" s="61"/>
-      <c r="I134" s="61"/>
-      <c r="J134" s="61"/>
-      <c r="K134" s="61"/>
-      <c r="L134" s="54" t="s">
+      <c r="B134" s="73"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="60"/>
+      <c r="I134" s="60"/>
+      <c r="J134" s="60"/>
+      <c r="K134" s="60"/>
+      <c r="L134" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M134" s="5">
@@ -9539,17 +9800,17 @@
       </c>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="74"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="61"/>
-      <c r="E135" s="61"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="61"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="61"/>
-      <c r="J135" s="61"/>
-      <c r="K135" s="61"/>
-      <c r="L135" s="55"/>
+      <c r="B135" s="73"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="60"/>
+      <c r="I135" s="60"/>
+      <c r="J135" s="60"/>
+      <c r="K135" s="60"/>
+      <c r="L135" s="54"/>
       <c r="M135" s="12">
         <v>2</v>
       </c>
@@ -9563,17 +9824,17 @@
       </c>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="74"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="61"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="61"/>
-      <c r="J136" s="61"/>
-      <c r="K136" s="61"/>
-      <c r="L136" s="55"/>
+      <c r="B136" s="73"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="60"/>
+      <c r="I136" s="60"/>
+      <c r="J136" s="60"/>
+      <c r="K136" s="60"/>
+      <c r="L136" s="54"/>
       <c r="M136" s="12">
         <v>3</v>
       </c>
@@ -9587,17 +9848,17 @@
       </c>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="74"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="64"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="61"/>
-      <c r="I137" s="61"/>
-      <c r="J137" s="61"/>
-      <c r="K137" s="61"/>
-      <c r="L137" s="55"/>
+      <c r="B137" s="73"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="60"/>
+      <c r="J137" s="60"/>
+      <c r="K137" s="60"/>
+      <c r="L137" s="54"/>
       <c r="M137" s="12">
         <v>4</v>
       </c>
@@ -9611,41 +9872,41 @@
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="74"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="61"/>
-      <c r="E138" s="61"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="61"/>
-      <c r="H138" s="61"/>
-      <c r="I138" s="61"/>
-      <c r="J138" s="61"/>
-      <c r="K138" s="61"/>
-      <c r="L138" s="55"/>
+      <c r="B138" s="73"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="60"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="54"/>
       <c r="M138" s="12">
         <v>5</v>
       </c>
-      <c r="N138" s="30" t="str">
+      <c r="N138" s="30">
         <f>IF('JIMMY CLASSES'!E73="","",'JIMMY CLASSES'!E73)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O138" s="31" t="str">
         <f>IF(N138="","Día de mes siguiente",'JIMMY CLASSES'!F73)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="74"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="61"/>
-      <c r="E139" s="61"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="61"/>
-      <c r="H139" s="61"/>
-      <c r="I139" s="61"/>
-      <c r="J139" s="61"/>
-      <c r="K139" s="61"/>
-      <c r="L139" s="54" t="s">
+      <c r="B139" s="73"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="63"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
+      <c r="L139" s="53" t="s">
         <v>37</v>
       </c>
       <c r="M139" s="5">
@@ -9661,17 +9922,17 @@
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="74"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="61"/>
-      <c r="E140" s="61"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="61"/>
-      <c r="I140" s="61"/>
-      <c r="J140" s="61"/>
-      <c r="K140" s="61"/>
-      <c r="L140" s="55"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="60"/>
+      <c r="I140" s="60"/>
+      <c r="J140" s="60"/>
+      <c r="K140" s="60"/>
+      <c r="L140" s="54"/>
       <c r="M140" s="12">
         <v>2</v>
       </c>
@@ -9685,17 +9946,17 @@
       </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" s="74"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="61"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="61"/>
-      <c r="I141" s="61"/>
-      <c r="J141" s="61"/>
-      <c r="K141" s="61"/>
-      <c r="L141" s="55"/>
+      <c r="B141" s="73"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="63"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="60"/>
+      <c r="J141" s="60"/>
+      <c r="K141" s="60"/>
+      <c r="L141" s="54"/>
       <c r="M141" s="12">
         <v>3</v>
       </c>
@@ -9709,17 +9970,17 @@
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="74"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="61"/>
-      <c r="H142" s="61"/>
-      <c r="I142" s="61"/>
-      <c r="J142" s="61"/>
-      <c r="K142" s="61"/>
-      <c r="L142" s="55"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="63"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="60"/>
+      <c r="I142" s="60"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
+      <c r="L142" s="54"/>
       <c r="M142" s="12">
         <v>4</v>
       </c>
@@ -9733,41 +9994,41 @@
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="74"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="61"/>
-      <c r="L143" s="55"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
+      <c r="J143" s="60"/>
+      <c r="K143" s="60"/>
+      <c r="L143" s="54"/>
       <c r="M143" s="12">
         <v>5</v>
       </c>
-      <c r="N143" s="30" t="str">
+      <c r="N143" s="30">
         <f>IF('JIMMY CLASSES'!E74="","",'JIMMY CLASSES'!E74)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O143" s="31" t="str">
         <f>IF(N143="","Día de mes siguiente",'JIMMY CLASSES'!F74)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="74"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="61"/>
-      <c r="K144" s="61"/>
-      <c r="L144" s="54" t="s">
+      <c r="B144" s="73"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="63"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="53" t="s">
         <v>61</v>
       </c>
       <c r="M144" s="5">
@@ -9783,17 +10044,17 @@
       </c>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B145" s="74"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="61"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="64"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="61"/>
-      <c r="I145" s="61"/>
-      <c r="J145" s="61"/>
-      <c r="K145" s="61"/>
-      <c r="L145" s="55"/>
+      <c r="B145" s="73"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
+      <c r="L145" s="54"/>
       <c r="M145" s="12">
         <v>2</v>
       </c>
@@ -9807,17 +10068,17 @@
       </c>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B146" s="74"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="61"/>
-      <c r="E146" s="61"/>
-      <c r="F146" s="64"/>
-      <c r="G146" s="61"/>
-      <c r="H146" s="61"/>
-      <c r="I146" s="61"/>
-      <c r="J146" s="61"/>
-      <c r="K146" s="61"/>
-      <c r="L146" s="55"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="60"/>
+      <c r="K146" s="60"/>
+      <c r="L146" s="54"/>
       <c r="M146" s="12">
         <v>3</v>
       </c>
@@ -9831,17 +10092,17 @@
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B147" s="74"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="61"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="64"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="61"/>
-      <c r="I147" s="61"/>
-      <c r="J147" s="61"/>
-      <c r="K147" s="61"/>
-      <c r="L147" s="55"/>
+      <c r="B147" s="73"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="63"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="60"/>
+      <c r="L147" s="54"/>
       <c r="M147" s="12">
         <v>4</v>
       </c>
@@ -9855,17 +10116,17 @@
       </c>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B148" s="75"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="65"/>
-      <c r="G148" s="62"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="62"/>
-      <c r="J148" s="62"/>
-      <c r="K148" s="62"/>
-      <c r="L148" s="55"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="61"/>
+      <c r="F148" s="64"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="61"/>
+      <c r="I148" s="61"/>
+      <c r="J148" s="61"/>
+      <c r="K148" s="61"/>
+      <c r="L148" s="54"/>
       <c r="M148" s="12">
         <v>5</v>
       </c>
@@ -9879,38 +10140,38 @@
       </c>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B149" s="57" t="s">
+      <c r="B149" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D149" s="60" t="s">
+      <c r="D149" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="60" t="str">
+      <c r="E149" s="59" t="str">
         <f>E79</f>
         <v>JULIO</v>
       </c>
-      <c r="F149" s="63">
-        <v>1</v>
-      </c>
-      <c r="G149" s="60" t="s">
+      <c r="F149" s="62">
+        <v>1</v>
+      </c>
+      <c r="G149" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="H149" s="60" t="s">
+      <c r="H149" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I149" s="60" t="s">
+      <c r="I149" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J149" s="60" t="s">
+      <c r="J149" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="K149" s="60" t="s">
+      <c r="K149" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="L149" s="54" t="s">
+      <c r="L149" s="53" t="s">
         <v>30</v>
       </c>
       <c r="M149" s="5">
@@ -9931,17 +10192,17 @@
       <c r="T149" s="1"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="64"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="61"/>
-      <c r="J150" s="61"/>
-      <c r="K150" s="61"/>
-      <c r="L150" s="55"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="63"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="60"/>
+      <c r="J150" s="60"/>
+      <c r="K150" s="60"/>
+      <c r="L150" s="54"/>
       <c r="M150" s="12">
         <v>2</v>
       </c>
@@ -9960,17 +10221,17 @@
       <c r="T150" s="1"/>
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B151" s="58"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="64"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="61"/>
-      <c r="K151" s="61"/>
-      <c r="L151" s="55"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="60"/>
+      <c r="H151" s="60"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="60"/>
+      <c r="K151" s="60"/>
+      <c r="L151" s="54"/>
       <c r="M151" s="12">
         <v>3</v>
       </c>
@@ -9989,17 +10250,17 @@
       <c r="T151" s="1"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="64"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="61"/>
-      <c r="I152" s="61"/>
-      <c r="J152" s="61"/>
-      <c r="K152" s="61"/>
-      <c r="L152" s="55"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="60"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="60"/>
+      <c r="K152" s="60"/>
+      <c r="L152" s="54"/>
       <c r="M152" s="12">
         <v>4</v>
       </c>
@@ -10018,27 +10279,27 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="61"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="64"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="61"/>
-      <c r="I153" s="61"/>
-      <c r="J153" s="61"/>
-      <c r="K153" s="61"/>
-      <c r="L153" s="55"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="63"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="54"/>
       <c r="M153" s="12">
         <v>5</v>
       </c>
-      <c r="N153" s="30" t="str">
+      <c r="N153" s="30">
         <f>IF('MANUEL CLASSES'!E46="","",'MANUEL CLASSES'!E46)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O153" s="31" t="str">
         <f>IF(N153="","Día de mes siguiente",'MANUEL CLASSES'!F46)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -10047,17 +10308,17 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="61"/>
-      <c r="E154" s="61"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="61"/>
-      <c r="H154" s="61"/>
-      <c r="I154" s="61"/>
-      <c r="J154" s="61"/>
-      <c r="K154" s="61"/>
-      <c r="L154" s="54" t="s">
+      <c r="B154" s="57"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="53" t="s">
         <v>31</v>
       </c>
       <c r="M154" s="5">
@@ -10078,17 +10339,17 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="61"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="61"/>
-      <c r="H155" s="61"/>
-      <c r="I155" s="61"/>
-      <c r="J155" s="61"/>
-      <c r="K155" s="61"/>
-      <c r="L155" s="55"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="60"/>
+      <c r="L155" s="54"/>
       <c r="M155" s="12">
         <v>2</v>
       </c>
@@ -10107,17 +10368,17 @@
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B156" s="58"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="61"/>
-      <c r="E156" s="61"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="61"/>
-      <c r="H156" s="61"/>
-      <c r="I156" s="61"/>
-      <c r="J156" s="61"/>
-      <c r="K156" s="61"/>
-      <c r="L156" s="55"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="60"/>
+      <c r="E156" s="60"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="60"/>
+      <c r="H156" s="60"/>
+      <c r="I156" s="60"/>
+      <c r="J156" s="60"/>
+      <c r="K156" s="60"/>
+      <c r="L156" s="54"/>
       <c r="M156" s="12">
         <v>3</v>
       </c>
@@ -10136,17 +10397,17 @@
       <c r="T156" s="1"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="61"/>
-      <c r="E157" s="61"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="61"/>
-      <c r="H157" s="61"/>
-      <c r="I157" s="61"/>
-      <c r="J157" s="61"/>
-      <c r="K157" s="61"/>
-      <c r="L157" s="55"/>
+      <c r="B157" s="57"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="60"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="60"/>
+      <c r="H157" s="60"/>
+      <c r="I157" s="60"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="60"/>
+      <c r="L157" s="54"/>
       <c r="M157" s="12">
         <v>4</v>
       </c>
@@ -10165,27 +10426,27 @@
       <c r="T157" s="1"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="61"/>
-      <c r="F158" s="64"/>
-      <c r="G158" s="61"/>
-      <c r="H158" s="61"/>
-      <c r="I158" s="61"/>
-      <c r="J158" s="61"/>
-      <c r="K158" s="61"/>
-      <c r="L158" s="55"/>
+      <c r="B158" s="57"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
+      <c r="L158" s="54"/>
       <c r="M158" s="12">
         <v>5</v>
       </c>
-      <c r="N158" s="30" t="str">
+      <c r="N158" s="30">
         <f>IF('MANUEL CLASSES'!E47="","",'MANUEL CLASSES'!E47)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O158" s="31" t="str">
         <f>IF(N158="","Día de mes siguiente",'MANUEL CLASSES'!F47)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -10194,17 +10455,17 @@
       <c r="T158" s="1"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="61"/>
-      <c r="E159" s="61"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="61"/>
-      <c r="H159" s="61"/>
-      <c r="I159" s="61"/>
-      <c r="J159" s="61"/>
-      <c r="K159" s="61"/>
-      <c r="L159" s="54" t="s">
+      <c r="B159" s="57"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="63"/>
+      <c r="G159" s="60"/>
+      <c r="H159" s="60"/>
+      <c r="I159" s="60"/>
+      <c r="J159" s="60"/>
+      <c r="K159" s="60"/>
+      <c r="L159" s="53" t="s">
         <v>62</v>
       </c>
       <c r="M159" s="5">
@@ -10225,17 +10486,17 @@
       <c r="T159" s="1"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B160" s="58"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="61"/>
-      <c r="E160" s="61"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="61"/>
-      <c r="H160" s="61"/>
-      <c r="I160" s="61"/>
-      <c r="J160" s="61"/>
-      <c r="K160" s="61"/>
-      <c r="L160" s="55"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="63"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="60"/>
+      <c r="L160" s="54"/>
       <c r="M160" s="12">
         <v>2</v>
       </c>
@@ -10254,17 +10515,17 @@
       <c r="T160" s="1"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B161" s="58"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="61"/>
-      <c r="E161" s="61"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="61"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="61"/>
-      <c r="J161" s="61"/>
-      <c r="K161" s="61"/>
-      <c r="L161" s="55"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="54"/>
       <c r="M161" s="12">
         <v>3</v>
       </c>
@@ -10283,17 +10544,17 @@
       <c r="T161" s="1"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B162" s="58"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="61"/>
-      <c r="E162" s="61"/>
-      <c r="F162" s="64"/>
-      <c r="G162" s="61"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="61"/>
-      <c r="J162" s="61"/>
-      <c r="K162" s="61"/>
-      <c r="L162" s="55"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="63"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
+      <c r="L162" s="54"/>
       <c r="M162" s="12">
         <v>4</v>
       </c>
@@ -10312,27 +10573,27 @@
       <c r="T162" s="1"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="61"/>
-      <c r="E163" s="61"/>
-      <c r="F163" s="64"/>
-      <c r="G163" s="61"/>
-      <c r="H163" s="61"/>
-      <c r="I163" s="61"/>
-      <c r="J163" s="61"/>
-      <c r="K163" s="61"/>
-      <c r="L163" s="55"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="60"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
+      <c r="L163" s="54"/>
       <c r="M163" s="12">
         <v>5</v>
       </c>
-      <c r="N163" s="30" t="str">
+      <c r="N163" s="30">
         <f>IF('MANUEL CLASSES'!E48="","",'MANUEL CLASSES'!E48)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O163" s="31" t="str">
         <f>IF(N163="","Día de mes siguiente",'MANUEL CLASSES'!F48)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -10341,17 +10602,17 @@
       <c r="T163" s="1"/>
     </row>
     <row r="164" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="61"/>
-      <c r="E164" s="61"/>
-      <c r="F164" s="64"/>
-      <c r="G164" s="61"/>
-      <c r="H164" s="61"/>
-      <c r="I164" s="61"/>
-      <c r="J164" s="61"/>
-      <c r="K164" s="61"/>
-      <c r="L164" s="54" t="s">
+      <c r="B164" s="57"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="60"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
+      <c r="L164" s="53" t="s">
         <v>63</v>
       </c>
       <c r="M164" s="5">
@@ -10372,17 +10633,17 @@
       <c r="T164" s="1"/>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="61"/>
-      <c r="E165" s="61"/>
-      <c r="F165" s="64"/>
-      <c r="G165" s="61"/>
-      <c r="H165" s="61"/>
-      <c r="I165" s="61"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="61"/>
-      <c r="L165" s="55"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="54"/>
       <c r="M165" s="12">
         <v>2</v>
       </c>
@@ -10401,17 +10662,17 @@
       <c r="T165" s="1"/>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="61"/>
-      <c r="E166" s="61"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="61"/>
-      <c r="H166" s="61"/>
-      <c r="I166" s="61"/>
-      <c r="J166" s="61"/>
-      <c r="K166" s="61"/>
-      <c r="L166" s="55"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="60"/>
+      <c r="F166" s="63"/>
+      <c r="G166" s="60"/>
+      <c r="H166" s="60"/>
+      <c r="I166" s="60"/>
+      <c r="J166" s="60"/>
+      <c r="K166" s="60"/>
+      <c r="L166" s="54"/>
       <c r="M166" s="12">
         <v>3</v>
       </c>
@@ -10430,17 +10691,17 @@
       <c r="T166" s="1"/>
     </row>
     <row r="167" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="61"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="64"/>
-      <c r="G167" s="61"/>
-      <c r="H167" s="61"/>
-      <c r="I167" s="61"/>
-      <c r="J167" s="61"/>
-      <c r="K167" s="61"/>
-      <c r="L167" s="55"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="60"/>
+      <c r="F167" s="63"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="60"/>
+      <c r="I167" s="60"/>
+      <c r="J167" s="60"/>
+      <c r="K167" s="60"/>
+      <c r="L167" s="54"/>
       <c r="M167" s="12">
         <v>4</v>
       </c>
@@ -10459,17 +10720,17 @@
       <c r="T167" s="1"/>
     </row>
     <row r="168" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="61"/>
-      <c r="E168" s="61"/>
-      <c r="F168" s="64"/>
-      <c r="G168" s="61"/>
-      <c r="H168" s="61"/>
-      <c r="I168" s="61"/>
-      <c r="J168" s="61"/>
-      <c r="K168" s="61"/>
-      <c r="L168" s="55"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="63"/>
+      <c r="G168" s="60"/>
+      <c r="H168" s="60"/>
+      <c r="I168" s="60"/>
+      <c r="J168" s="60"/>
+      <c r="K168" s="60"/>
+      <c r="L168" s="54"/>
       <c r="M168" s="12">
         <v>5</v>
       </c>
@@ -10488,17 +10749,17 @@
       <c r="T168" s="1"/>
     </row>
     <row r="169" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="64"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="61"/>
-      <c r="L169" s="54" t="s">
+      <c r="B169" s="57"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="63"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
+      <c r="L169" s="53" t="s">
         <v>64</v>
       </c>
       <c r="M169" s="5">
@@ -10519,17 +10780,17 @@
       <c r="T169" s="1"/>
     </row>
     <row r="170" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="61"/>
-      <c r="E170" s="61"/>
-      <c r="F170" s="64"/>
-      <c r="G170" s="61"/>
-      <c r="H170" s="61"/>
-      <c r="I170" s="61"/>
-      <c r="J170" s="61"/>
-      <c r="K170" s="61"/>
-      <c r="L170" s="55"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="60"/>
+      <c r="E170" s="60"/>
+      <c r="F170" s="63"/>
+      <c r="G170" s="60"/>
+      <c r="H170" s="60"/>
+      <c r="I170" s="60"/>
+      <c r="J170" s="60"/>
+      <c r="K170" s="60"/>
+      <c r="L170" s="54"/>
       <c r="M170" s="12">
         <v>2</v>
       </c>
@@ -10548,17 +10809,17 @@
       <c r="T170" s="1"/>
     </row>
     <row r="171" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B171" s="58"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="61"/>
-      <c r="E171" s="61"/>
-      <c r="F171" s="64"/>
-      <c r="G171" s="61"/>
-      <c r="H171" s="61"/>
-      <c r="I171" s="61"/>
-      <c r="J171" s="61"/>
-      <c r="K171" s="61"/>
-      <c r="L171" s="55"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="60"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="63"/>
+      <c r="G171" s="60"/>
+      <c r="H171" s="60"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="60"/>
+      <c r="K171" s="60"/>
+      <c r="L171" s="54"/>
       <c r="M171" s="12">
         <v>3</v>
       </c>
@@ -10577,17 +10838,17 @@
       <c r="T171" s="1"/>
     </row>
     <row r="172" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="61"/>
-      <c r="F172" s="64"/>
-      <c r="G172" s="61"/>
-      <c r="H172" s="61"/>
-      <c r="I172" s="61"/>
-      <c r="J172" s="61"/>
-      <c r="K172" s="61"/>
-      <c r="L172" s="55"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="60"/>
+      <c r="F172" s="63"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="60"/>
+      <c r="I172" s="60"/>
+      <c r="J172" s="60"/>
+      <c r="K172" s="60"/>
+      <c r="L172" s="54"/>
       <c r="M172" s="12">
         <v>4</v>
       </c>
@@ -10606,27 +10867,27 @@
       <c r="T172" s="1"/>
     </row>
     <row r="173" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B173" s="58"/>
-      <c r="C173" s="58"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="64"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="61"/>
-      <c r="I173" s="61"/>
-      <c r="J173" s="61"/>
-      <c r="K173" s="61"/>
-      <c r="L173" s="55"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="60"/>
+      <c r="F173" s="63"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="60"/>
+      <c r="I173" s="60"/>
+      <c r="J173" s="60"/>
+      <c r="K173" s="60"/>
+      <c r="L173" s="54"/>
       <c r="M173" s="12">
         <v>5</v>
       </c>
-      <c r="N173" s="30" t="str">
+      <c r="N173" s="30">
         <f>IF('MANUEL CLASSES'!E50="","",'MANUEL CLASSES'!E50)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O173" s="31" t="str">
         <f>IF(N173="","Día de mes siguiente",'MANUEL CLASSES'!F50)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
@@ -10635,17 +10896,17 @@
       <c r="T173" s="1"/>
     </row>
     <row r="174" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B174" s="58"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="61"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="64"/>
-      <c r="G174" s="61"/>
-      <c r="H174" s="61"/>
-      <c r="I174" s="61"/>
-      <c r="J174" s="61"/>
-      <c r="K174" s="61"/>
-      <c r="L174" s="54" t="s">
+      <c r="B174" s="57"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="60"/>
+      <c r="F174" s="63"/>
+      <c r="G174" s="60"/>
+      <c r="H174" s="60"/>
+      <c r="I174" s="60"/>
+      <c r="J174" s="60"/>
+      <c r="K174" s="60"/>
+      <c r="L174" s="53" t="s">
         <v>20</v>
       </c>
       <c r="M174" s="5">
@@ -10666,17 +10927,17 @@
       <c r="T174" s="1"/>
     </row>
     <row r="175" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B175" s="58"/>
-      <c r="C175" s="58"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="64"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
-      <c r="J175" s="61"/>
-      <c r="K175" s="61"/>
-      <c r="L175" s="55"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="60"/>
+      <c r="F175" s="63"/>
+      <c r="G175" s="60"/>
+      <c r="H175" s="60"/>
+      <c r="I175" s="60"/>
+      <c r="J175" s="60"/>
+      <c r="K175" s="60"/>
+      <c r="L175" s="54"/>
       <c r="M175" s="12">
         <v>2</v>
       </c>
@@ -10695,17 +10956,17 @@
       <c r="T175" s="1"/>
     </row>
     <row r="176" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="61"/>
-      <c r="E176" s="61"/>
-      <c r="F176" s="64"/>
-      <c r="G176" s="61"/>
-      <c r="H176" s="61"/>
-      <c r="I176" s="61"/>
-      <c r="J176" s="61"/>
-      <c r="K176" s="61"/>
-      <c r="L176" s="55"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="60"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="60"/>
+      <c r="H176" s="60"/>
+      <c r="I176" s="60"/>
+      <c r="J176" s="60"/>
+      <c r="K176" s="60"/>
+      <c r="L176" s="54"/>
       <c r="M176" s="12">
         <v>3</v>
       </c>
@@ -10724,17 +10985,17 @@
       <c r="T176" s="1"/>
     </row>
     <row r="177" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B177" s="58"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="61"/>
-      <c r="E177" s="61"/>
-      <c r="F177" s="64"/>
-      <c r="G177" s="61"/>
-      <c r="H177" s="61"/>
-      <c r="I177" s="61"/>
-      <c r="J177" s="61"/>
-      <c r="K177" s="61"/>
-      <c r="L177" s="55"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="60"/>
+      <c r="E177" s="60"/>
+      <c r="F177" s="63"/>
+      <c r="G177" s="60"/>
+      <c r="H177" s="60"/>
+      <c r="I177" s="60"/>
+      <c r="J177" s="60"/>
+      <c r="K177" s="60"/>
+      <c r="L177" s="54"/>
       <c r="M177" s="12">
         <v>4</v>
       </c>
@@ -10753,27 +11014,27 @@
       <c r="T177" s="1"/>
     </row>
     <row r="178" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
-      <c r="D178" s="61"/>
-      <c r="E178" s="61"/>
-      <c r="F178" s="64"/>
-      <c r="G178" s="61"/>
-      <c r="H178" s="61"/>
-      <c r="I178" s="61"/>
-      <c r="J178" s="61"/>
-      <c r="K178" s="61"/>
-      <c r="L178" s="55"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="60"/>
+      <c r="F178" s="63"/>
+      <c r="G178" s="60"/>
+      <c r="H178" s="60"/>
+      <c r="I178" s="60"/>
+      <c r="J178" s="60"/>
+      <c r="K178" s="60"/>
+      <c r="L178" s="54"/>
       <c r="M178" s="12">
         <v>5</v>
       </c>
-      <c r="N178" s="30" t="str">
+      <c r="N178" s="30">
         <f>IF('MANUEL CLASSES'!E51="","",'MANUEL CLASSES'!E51)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O178" s="31" t="str">
         <f>IF(N178="","Día de mes siguiente",'MANUEL CLASSES'!F51)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
@@ -10782,17 +11043,17 @@
       <c r="T178" s="1"/>
     </row>
     <row r="179" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
-      <c r="D179" s="61"/>
-      <c r="E179" s="61"/>
-      <c r="F179" s="64"/>
-      <c r="G179" s="61"/>
-      <c r="H179" s="61"/>
-      <c r="I179" s="61"/>
-      <c r="J179" s="61"/>
-      <c r="K179" s="61"/>
-      <c r="L179" s="54" t="s">
+      <c r="B179" s="57"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="60"/>
+      <c r="E179" s="60"/>
+      <c r="F179" s="63"/>
+      <c r="G179" s="60"/>
+      <c r="H179" s="60"/>
+      <c r="I179" s="60"/>
+      <c r="J179" s="60"/>
+      <c r="K179" s="60"/>
+      <c r="L179" s="53" t="s">
         <v>21</v>
       </c>
       <c r="M179" s="5">
@@ -10813,17 +11074,17 @@
       <c r="T179" s="1"/>
     </row>
     <row r="180" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="61"/>
-      <c r="E180" s="61"/>
-      <c r="F180" s="64"/>
-      <c r="G180" s="61"/>
-      <c r="H180" s="61"/>
-      <c r="I180" s="61"/>
-      <c r="J180" s="61"/>
-      <c r="K180" s="61"/>
-      <c r="L180" s="55"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="60"/>
+      <c r="H180" s="60"/>
+      <c r="I180" s="60"/>
+      <c r="J180" s="60"/>
+      <c r="K180" s="60"/>
+      <c r="L180" s="54"/>
       <c r="M180" s="12">
         <v>2</v>
       </c>
@@ -10842,17 +11103,17 @@
       <c r="T180" s="1"/>
     </row>
     <row r="181" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="64"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
-      <c r="I181" s="61"/>
-      <c r="J181" s="61"/>
-      <c r="K181" s="61"/>
-      <c r="L181" s="55"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="63"/>
+      <c r="G181" s="60"/>
+      <c r="H181" s="60"/>
+      <c r="I181" s="60"/>
+      <c r="J181" s="60"/>
+      <c r="K181" s="60"/>
+      <c r="L181" s="54"/>
       <c r="M181" s="12">
         <v>3</v>
       </c>
@@ -10871,17 +11132,17 @@
       <c r="T181" s="1"/>
     </row>
     <row r="182" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B182" s="58"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="61"/>
-      <c r="E182" s="61"/>
-      <c r="F182" s="64"/>
-      <c r="G182" s="61"/>
-      <c r="H182" s="61"/>
-      <c r="I182" s="61"/>
-      <c r="J182" s="61"/>
-      <c r="K182" s="61"/>
-      <c r="L182" s="55"/>
+      <c r="B182" s="57"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="60"/>
+      <c r="E182" s="60"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="60"/>
+      <c r="H182" s="60"/>
+      <c r="I182" s="60"/>
+      <c r="J182" s="60"/>
+      <c r="K182" s="60"/>
+      <c r="L182" s="54"/>
       <c r="M182" s="12">
         <v>4</v>
       </c>
@@ -10900,27 +11161,27 @@
       <c r="T182" s="1"/>
     </row>
     <row r="183" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="64"/>
-      <c r="G183" s="61"/>
-      <c r="H183" s="61"/>
-      <c r="I183" s="61"/>
-      <c r="J183" s="61"/>
-      <c r="K183" s="61"/>
-      <c r="L183" s="55"/>
+      <c r="B183" s="57"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="63"/>
+      <c r="G183" s="60"/>
+      <c r="H183" s="60"/>
+      <c r="I183" s="60"/>
+      <c r="J183" s="60"/>
+      <c r="K183" s="60"/>
+      <c r="L183" s="54"/>
       <c r="M183" s="12">
         <v>5</v>
       </c>
-      <c r="N183" s="30" t="str">
+      <c r="N183" s="30">
         <f>IF('MANUEL CLASSES'!E52="","",'MANUEL CLASSES'!E52)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O183" s="31" t="str">
         <f>IF(N183="","Día de mes siguiente",'MANUEL CLASSES'!F52)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -10929,17 +11190,17 @@
       <c r="T183" s="1"/>
     </row>
     <row r="184" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B184" s="58"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="61"/>
-      <c r="E184" s="61"/>
-      <c r="F184" s="64"/>
-      <c r="G184" s="61"/>
-      <c r="H184" s="61"/>
-      <c r="I184" s="61"/>
-      <c r="J184" s="61"/>
-      <c r="K184" s="61"/>
-      <c r="L184" s="54" t="s">
+      <c r="B184" s="57"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="60"/>
+      <c r="E184" s="60"/>
+      <c r="F184" s="63"/>
+      <c r="G184" s="60"/>
+      <c r="H184" s="60"/>
+      <c r="I184" s="60"/>
+      <c r="J184" s="60"/>
+      <c r="K184" s="60"/>
+      <c r="L184" s="53" t="s">
         <v>67</v>
       </c>
       <c r="M184" s="5">
@@ -10960,17 +11221,17 @@
       <c r="T184" s="1"/>
     </row>
     <row r="185" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B185" s="58"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="61"/>
-      <c r="E185" s="61"/>
-      <c r="F185" s="64"/>
-      <c r="G185" s="61"/>
-      <c r="H185" s="61"/>
-      <c r="I185" s="61"/>
-      <c r="J185" s="61"/>
-      <c r="K185" s="61"/>
-      <c r="L185" s="55"/>
+      <c r="B185" s="57"/>
+      <c r="C185" s="57"/>
+      <c r="D185" s="60"/>
+      <c r="E185" s="60"/>
+      <c r="F185" s="63"/>
+      <c r="G185" s="60"/>
+      <c r="H185" s="60"/>
+      <c r="I185" s="60"/>
+      <c r="J185" s="60"/>
+      <c r="K185" s="60"/>
+      <c r="L185" s="54"/>
       <c r="M185" s="12">
         <v>2</v>
       </c>
@@ -10989,17 +11250,17 @@
       <c r="T185" s="1"/>
     </row>
     <row r="186" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B186" s="58"/>
-      <c r="C186" s="58"/>
-      <c r="D186" s="61"/>
-      <c r="E186" s="61"/>
-      <c r="F186" s="64"/>
-      <c r="G186" s="61"/>
-      <c r="H186" s="61"/>
-      <c r="I186" s="61"/>
-      <c r="J186" s="61"/>
-      <c r="K186" s="61"/>
-      <c r="L186" s="55"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="60"/>
+      <c r="F186" s="63"/>
+      <c r="G186" s="60"/>
+      <c r="H186" s="60"/>
+      <c r="I186" s="60"/>
+      <c r="J186" s="60"/>
+      <c r="K186" s="60"/>
+      <c r="L186" s="54"/>
       <c r="M186" s="12">
         <v>3</v>
       </c>
@@ -11018,17 +11279,17 @@
       <c r="T186" s="1"/>
     </row>
     <row r="187" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B187" s="58"/>
-      <c r="C187" s="58"/>
-      <c r="D187" s="61"/>
-      <c r="E187" s="61"/>
-      <c r="F187" s="64"/>
-      <c r="G187" s="61"/>
-      <c r="H187" s="61"/>
-      <c r="I187" s="61"/>
-      <c r="J187" s="61"/>
-      <c r="K187" s="61"/>
-      <c r="L187" s="55"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="60"/>
+      <c r="E187" s="60"/>
+      <c r="F187" s="63"/>
+      <c r="G187" s="60"/>
+      <c r="H187" s="60"/>
+      <c r="I187" s="60"/>
+      <c r="J187" s="60"/>
+      <c r="K187" s="60"/>
+      <c r="L187" s="54"/>
       <c r="M187" s="12">
         <v>4</v>
       </c>
@@ -11047,27 +11308,27 @@
       <c r="T187" s="1"/>
     </row>
     <row r="188" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B188" s="58"/>
-      <c r="C188" s="58"/>
-      <c r="D188" s="61"/>
-      <c r="E188" s="61"/>
-      <c r="F188" s="64"/>
-      <c r="G188" s="61"/>
-      <c r="H188" s="61"/>
-      <c r="I188" s="61"/>
-      <c r="J188" s="61"/>
-      <c r="K188" s="61"/>
-      <c r="L188" s="55"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="60"/>
+      <c r="E188" s="60"/>
+      <c r="F188" s="63"/>
+      <c r="G188" s="60"/>
+      <c r="H188" s="60"/>
+      <c r="I188" s="60"/>
+      <c r="J188" s="60"/>
+      <c r="K188" s="60"/>
+      <c r="L188" s="54"/>
       <c r="M188" s="12">
         <v>5</v>
       </c>
-      <c r="N188" s="30" t="str">
+      <c r="N188" s="30">
         <f>IF('MANUEL CLASSES'!E53="","",'MANUEL CLASSES'!E53)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O188" s="31" t="str">
         <f>IF(N188="","Día de mes siguiente",'MANUEL CLASSES'!F53)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -11076,17 +11337,17 @@
       <c r="T188" s="1"/>
     </row>
     <row r="189" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B189" s="58"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="61"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="64"/>
-      <c r="G189" s="61"/>
-      <c r="H189" s="61"/>
-      <c r="I189" s="61"/>
-      <c r="J189" s="61"/>
-      <c r="K189" s="61"/>
-      <c r="L189" s="56" t="s">
+      <c r="B189" s="57"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="60"/>
+      <c r="E189" s="60"/>
+      <c r="F189" s="63"/>
+      <c r="G189" s="60"/>
+      <c r="H189" s="60"/>
+      <c r="I189" s="60"/>
+      <c r="J189" s="60"/>
+      <c r="K189" s="60"/>
+      <c r="L189" s="55" t="s">
         <v>65</v>
       </c>
       <c r="M189" s="5">
@@ -11107,17 +11368,17 @@
       <c r="T189" s="1"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
-      <c r="D190" s="61"/>
-      <c r="E190" s="61"/>
-      <c r="F190" s="64"/>
-      <c r="G190" s="61"/>
-      <c r="H190" s="61"/>
-      <c r="I190" s="61"/>
-      <c r="J190" s="61"/>
-      <c r="K190" s="61"/>
-      <c r="L190" s="55"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="60"/>
+      <c r="E190" s="60"/>
+      <c r="F190" s="63"/>
+      <c r="G190" s="60"/>
+      <c r="H190" s="60"/>
+      <c r="I190" s="60"/>
+      <c r="J190" s="60"/>
+      <c r="K190" s="60"/>
+      <c r="L190" s="54"/>
       <c r="M190" s="12">
         <v>2</v>
       </c>
@@ -11136,17 +11397,17 @@
       <c r="T190" s="1"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B191" s="58"/>
-      <c r="C191" s="58"/>
-      <c r="D191" s="61"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="64"/>
-      <c r="G191" s="61"/>
-      <c r="H191" s="61"/>
-      <c r="I191" s="61"/>
-      <c r="J191" s="61"/>
-      <c r="K191" s="61"/>
-      <c r="L191" s="55"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="60"/>
+      <c r="E191" s="60"/>
+      <c r="F191" s="63"/>
+      <c r="G191" s="60"/>
+      <c r="H191" s="60"/>
+      <c r="I191" s="60"/>
+      <c r="J191" s="60"/>
+      <c r="K191" s="60"/>
+      <c r="L191" s="54"/>
       <c r="M191" s="12">
         <v>3</v>
       </c>
@@ -11165,17 +11426,17 @@
       <c r="T191" s="1"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
-      <c r="D192" s="61"/>
-      <c r="E192" s="61"/>
-      <c r="F192" s="64"/>
-      <c r="G192" s="61"/>
-      <c r="H192" s="61"/>
-      <c r="I192" s="61"/>
-      <c r="J192" s="61"/>
-      <c r="K192" s="61"/>
-      <c r="L192" s="55"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="60"/>
+      <c r="E192" s="60"/>
+      <c r="F192" s="63"/>
+      <c r="G192" s="60"/>
+      <c r="H192" s="60"/>
+      <c r="I192" s="60"/>
+      <c r="J192" s="60"/>
+      <c r="K192" s="60"/>
+      <c r="L192" s="54"/>
       <c r="M192" s="12">
         <v>4</v>
       </c>
@@ -11194,27 +11455,27 @@
       <c r="T192" s="1"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B193" s="58"/>
-      <c r="C193" s="58"/>
-      <c r="D193" s="61"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="64"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="61"/>
-      <c r="I193" s="61"/>
-      <c r="J193" s="61"/>
-      <c r="K193" s="61"/>
-      <c r="L193" s="55"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="60"/>
+      <c r="E193" s="60"/>
+      <c r="F193" s="63"/>
+      <c r="G193" s="60"/>
+      <c r="H193" s="60"/>
+      <c r="I193" s="60"/>
+      <c r="J193" s="60"/>
+      <c r="K193" s="60"/>
+      <c r="L193" s="54"/>
       <c r="M193" s="12">
         <v>5</v>
       </c>
-      <c r="N193" s="30" t="str">
+      <c r="N193" s="30">
         <f>IF('MANUEL CLASSES'!E54="","",'MANUEL CLASSES'!E54)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O193" s="31" t="str">
         <f>IF(N193="","Día de mes siguiente",'MANUEL CLASSES'!F54)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
@@ -11223,17 +11484,17 @@
       <c r="T193" s="1"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="61"/>
-      <c r="E194" s="61"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="61"/>
-      <c r="H194" s="61"/>
-      <c r="I194" s="61"/>
-      <c r="J194" s="61"/>
-      <c r="K194" s="61"/>
-      <c r="L194" s="54" t="s">
+      <c r="B194" s="57"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="60"/>
+      <c r="E194" s="60"/>
+      <c r="F194" s="63"/>
+      <c r="G194" s="60"/>
+      <c r="H194" s="60"/>
+      <c r="I194" s="60"/>
+      <c r="J194" s="60"/>
+      <c r="K194" s="60"/>
+      <c r="L194" s="53" t="s">
         <v>66</v>
       </c>
       <c r="M194" s="5">
@@ -11254,17 +11515,17 @@
       <c r="T194" s="1"/>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B195" s="58"/>
-      <c r="C195" s="58"/>
-      <c r="D195" s="61"/>
-      <c r="E195" s="61"/>
-      <c r="F195" s="64"/>
-      <c r="G195" s="61"/>
-      <c r="H195" s="61"/>
-      <c r="I195" s="61"/>
-      <c r="J195" s="61"/>
-      <c r="K195" s="61"/>
-      <c r="L195" s="55"/>
+      <c r="B195" s="57"/>
+      <c r="C195" s="57"/>
+      <c r="D195" s="60"/>
+      <c r="E195" s="60"/>
+      <c r="F195" s="63"/>
+      <c r="G195" s="60"/>
+      <c r="H195" s="60"/>
+      <c r="I195" s="60"/>
+      <c r="J195" s="60"/>
+      <c r="K195" s="60"/>
+      <c r="L195" s="54"/>
       <c r="M195" s="12">
         <v>2</v>
       </c>
@@ -11283,17 +11544,17 @@
       <c r="T195" s="1"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="61"/>
-      <c r="E196" s="61"/>
-      <c r="F196" s="64"/>
-      <c r="G196" s="61"/>
-      <c r="H196" s="61"/>
-      <c r="I196" s="61"/>
-      <c r="J196" s="61"/>
-      <c r="K196" s="61"/>
-      <c r="L196" s="55"/>
+      <c r="B196" s="57"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="60"/>
+      <c r="E196" s="60"/>
+      <c r="F196" s="63"/>
+      <c r="G196" s="60"/>
+      <c r="H196" s="60"/>
+      <c r="I196" s="60"/>
+      <c r="J196" s="60"/>
+      <c r="K196" s="60"/>
+      <c r="L196" s="54"/>
       <c r="M196" s="12">
         <v>3</v>
       </c>
@@ -11312,17 +11573,17 @@
       <c r="T196" s="1"/>
     </row>
     <row r="197" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B197" s="58"/>
-      <c r="C197" s="58"/>
-      <c r="D197" s="61"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="64"/>
-      <c r="G197" s="61"/>
-      <c r="H197" s="61"/>
-      <c r="I197" s="61"/>
-      <c r="J197" s="61"/>
-      <c r="K197" s="61"/>
-      <c r="L197" s="55"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="57"/>
+      <c r="D197" s="60"/>
+      <c r="E197" s="60"/>
+      <c r="F197" s="63"/>
+      <c r="G197" s="60"/>
+      <c r="H197" s="60"/>
+      <c r="I197" s="60"/>
+      <c r="J197" s="60"/>
+      <c r="K197" s="60"/>
+      <c r="L197" s="54"/>
       <c r="M197" s="12">
         <v>4</v>
       </c>
@@ -11341,27 +11602,27 @@
       <c r="T197" s="1"/>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B198" s="59"/>
-      <c r="C198" s="59"/>
-      <c r="D198" s="62"/>
-      <c r="E198" s="62"/>
-      <c r="F198" s="65"/>
-      <c r="G198" s="62"/>
-      <c r="H198" s="62"/>
-      <c r="I198" s="62"/>
-      <c r="J198" s="62"/>
-      <c r="K198" s="62"/>
-      <c r="L198" s="55"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="58"/>
+      <c r="D198" s="61"/>
+      <c r="E198" s="61"/>
+      <c r="F198" s="64"/>
+      <c r="G198" s="61"/>
+      <c r="H198" s="61"/>
+      <c r="I198" s="61"/>
+      <c r="J198" s="61"/>
+      <c r="K198" s="61"/>
+      <c r="L198" s="54"/>
       <c r="M198" s="12">
         <v>5</v>
       </c>
-      <c r="N198" s="30" t="str">
+      <c r="N198" s="30">
         <f>IF('MANUEL CLASSES'!E55="","",'MANUEL CLASSES'!E55)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O198" s="31" t="str">
         <f>IF(N198="","Día de mes siguiente",'MANUEL CLASSES'!F55)</f>
-        <v>Día de mes siguiente</v>
+        <v>Sí</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
